--- a/file/账号信息.xlsx
+++ b/file/账号信息.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="242">
   <si>
     <t>邮箱----密码</t>
   </si>
@@ -748,13 +748,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -770,6 +770,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -779,6 +787,96 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -800,99 +898,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -903,21 +911,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -936,91 +929,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,7 +959,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1050,25 +1031,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1080,37 +1091,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1148,50 +1141,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1222,6 +1171,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1236,159 +1209,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1738,11 +1732,14 @@
   <sheetPr/>
   <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="24" max="24" width="10.5769230769231" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:25">
       <c r="B1" s="1" t="s">
@@ -1858,7 +1855,7 @@
       <c r="M2">
         <v>212697587</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="3">
         <v>37985</v>
       </c>
       <c r="O2">
@@ -1935,7 +1932,7 @@
       <c r="M3">
         <v>212696070</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="3">
         <v>37977</v>
       </c>
       <c r="O3">
@@ -2012,7 +2009,7 @@
       <c r="M4">
         <v>212695503</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="3">
         <v>37975</v>
       </c>
       <c r="O4">
@@ -2042,8 +2039,8 @@
       <c r="W4">
         <v>0</v>
       </c>
-      <c r="X4" t="s">
-        <v>26</v>
+      <c r="X4" t="b">
+        <v>1</v>
       </c>
       <c r="Y4" t="s">
         <v>26</v>
@@ -2053,7 +2050,7 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C5" t="s">
@@ -2089,7 +2086,7 @@
       <c r="M5">
         <v>577376759</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="3">
         <v>37966</v>
       </c>
       <c r="O5">
@@ -2119,8 +2116,8 @@
       <c r="W5">
         <v>0</v>
       </c>
-      <c r="X5" t="s">
-        <v>26</v>
+      <c r="X5" t="b">
+        <v>1</v>
       </c>
       <c r="Y5" t="s">
         <v>26</v>
@@ -2166,7 +2163,7 @@
       <c r="M6">
         <v>212691848</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="3">
         <v>37964</v>
       </c>
       <c r="O6">
@@ -2243,7 +2240,7 @@
       <c r="M7">
         <v>577379357</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="3">
         <v>37963</v>
       </c>
       <c r="O7">
@@ -3475,7 +3472,7 @@
       <c r="M23">
         <v>345525854</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N23" s="3">
         <v>19980</v>
       </c>
       <c r="O23">
@@ -3552,7 +3549,7 @@
       <c r="M24">
         <v>292422769</v>
       </c>
-      <c r="N24" s="2">
+      <c r="N24" s="3">
         <v>17980</v>
       </c>
       <c r="O24">
@@ -3629,7 +3626,7 @@
       <c r="M25">
         <v>587179514</v>
       </c>
-      <c r="N25" s="2">
+      <c r="N25" s="3">
         <v>22107</v>
       </c>
       <c r="O25">
@@ -3706,7 +3703,7 @@
       <c r="M26">
         <v>233629561</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N26" s="3">
         <v>15215</v>
       </c>
       <c r="O26">
@@ -3783,7 +3780,7 @@
       <c r="M27">
         <v>358528005</v>
       </c>
-      <c r="N27" s="2">
+      <c r="N27" s="3">
         <v>21992</v>
       </c>
       <c r="O27">
@@ -3860,7 +3857,7 @@
       <c r="M28">
         <v>335448558</v>
       </c>
-      <c r="N28" s="2">
+      <c r="N28" s="3">
         <v>19150</v>
       </c>
       <c r="O28">
@@ -3937,7 +3934,7 @@
       <c r="M29">
         <v>526255989</v>
       </c>
-      <c r="N29" s="2">
+      <c r="N29" s="3">
         <v>21104</v>
       </c>
       <c r="O29">
@@ -4014,7 +4011,7 @@
       <c r="M30">
         <v>585608513</v>
       </c>
-      <c r="N30" s="2">
+      <c r="N30" s="3">
         <v>20913</v>
       </c>
       <c r="O30">
@@ -4091,7 +4088,7 @@
       <c r="M31">
         <v>529700346</v>
       </c>
-      <c r="N31" s="2">
+      <c r="N31" s="3">
         <v>18615</v>
       </c>
       <c r="O31">
@@ -4129,6 +4126,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" display="tpaapjj@hotmail.com----s69AP5BcGR" tooltip="mailto:tpaapjj@hotmail.com----s69AP5BcGR"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/file/账号信息.xlsx
+++ b/file/账号信息.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB39"/>
+  <dimension ref="A1:AD39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,117 +440,127 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.4</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.3</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 0.2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>邮箱----密码</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>账号</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>密码</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>名</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>姓</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>街道</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>城市</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>州</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>邮编</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>工作</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>电话</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>社保号</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>生日</t>
         </is>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="T1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="U1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="V1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="W1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="X1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="Y1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="Z1" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="AA1" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="AB1" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>is_completed</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>user_id</t>
         </is>
@@ -569,96 +579,102 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>qrmhayfbsyc@hotmail.com----CFQCPD76J</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>WARNER2906</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>XxESMRA88aB!</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>WARNER</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>EVANS</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>7722 HANOVER PARKWAY APT 203</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>GREENBELT</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>MD</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>20770</v>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>Student</t>
         </is>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>2027506718</v>
       </c>
-      <c r="P2" t="n">
+      <c r="R2" t="n">
         <v>218596092</v>
       </c>
-      <c r="Q2" s="2" t="n">
+      <c r="S2" s="2" t="n">
         <v>36920</v>
       </c>
-      <c r="R2" t="n">
-        <v>3500</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
       <c r="T2" t="n">
         <v>3500</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>3500</v>
+      </c>
+      <c r="W2" t="n">
         <v>217</v>
       </c>
-      <c r="V2" t="n">
-        <v>3500</v>
-      </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
+        <v>3500</v>
+      </c>
+      <c r="Y2" t="n">
         <v>50.75</v>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>Maryland</t>
         </is>
       </c>
-      <c r="Y2" t="n">
-        <v>3500</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AA2" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="inlineStr">
         <is>
           <t>j691sg6</t>
         </is>
@@ -677,96 +693,102 @@
       <c r="D3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>qchgtn@hotmail.com----TuKPtxeU8g</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>SAJRATU0804</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>XYnm67661Aa!</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>SAJRATU</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>SAMURA</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>900 GOOD HOPE DR</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>SILVER SPRING</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>MD</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>20905</v>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>Student</t>
         </is>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>2027506719</v>
       </c>
-      <c r="P3" t="n">
+      <c r="R3" t="n">
         <v>339024080</v>
       </c>
-      <c r="Q3" s="2" t="n">
+      <c r="S3" s="2" t="n">
         <v>37362</v>
       </c>
-      <c r="R3" t="n">
-        <v>3500</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
       <c r="T3" t="n">
         <v>3500</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3500</v>
+      </c>
+      <c r="W3" t="n">
         <v>217</v>
       </c>
-      <c r="V3" t="n">
-        <v>3500</v>
-      </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
+        <v>3500</v>
+      </c>
+      <c r="Y3" t="n">
         <v>50.75</v>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>Maryland</t>
         </is>
       </c>
-      <c r="Y3" t="n">
-        <v>3500</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="b">
+      <c r="AA3" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="b">
         <v>1</v>
       </c>
-      <c r="AB3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -781,94 +803,102 @@
       <c r="D4" t="n">
         <v>2</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>hgvn4nfjs@hotmail.com----mxjhshPYxw3</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>CORINNE7925</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>XYnm67662Aa!</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>CORINNE</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>NEUMAN</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>9213 ANNAPOLIS AVE</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>NORTH BEACH</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>MD</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>20714</v>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>Student</t>
         </is>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>2027506720</v>
       </c>
-      <c r="P4" t="n">
+      <c r="R4" t="n">
         <v>217575297</v>
       </c>
-      <c r="Q4" s="2" t="n">
+      <c r="S4" s="2" t="n">
         <v>36640</v>
       </c>
-      <c r="R4" t="n">
-        <v>3500</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
       <c r="T4" t="n">
         <v>3500</v>
       </c>
       <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>3500</v>
+      </c>
+      <c r="W4" t="n">
         <v>217</v>
       </c>
-      <c r="V4" t="n">
-        <v>3500</v>
-      </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
+        <v>3500</v>
+      </c>
+      <c r="Y4" t="n">
         <v>50.75</v>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>Maryland</t>
         </is>
       </c>
-      <c r="Y4" t="n">
-        <v>3500</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr">
+      <c r="AA4" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="inlineStr">
         <is>
           <t>j692m4e</t>
         </is>
@@ -887,94 +917,104 @@
       <c r="D5" t="n">
         <v>3</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>bysgpkf@hotmail.com----69FF3RY3</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>JOSUE9295</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>XYnm67663Aa!</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>JOSUE</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>CERN</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>603 SLIGO AVE APT 513</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>SILVER SPRING</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>MD</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>20910</v>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>Student</t>
         </is>
       </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
         <v>2027506721</v>
       </c>
-      <c r="P5" t="n">
+      <c r="R5" t="n">
         <v>218595929</v>
       </c>
-      <c r="Q5" s="2" t="n">
+      <c r="S5" s="2" t="n">
         <v>36926</v>
       </c>
-      <c r="R5" t="n">
-        <v>3500</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
       <c r="T5" t="n">
         <v>3500</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>3500</v>
+      </c>
+      <c r="W5" t="n">
         <v>217</v>
       </c>
-      <c r="V5" t="n">
-        <v>3500</v>
-      </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
+        <v>3500</v>
+      </c>
+      <c r="Y5" t="n">
         <v>50.75</v>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>Maryland</t>
         </is>
       </c>
-      <c r="Y5" t="n">
-        <v>3500</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
+      <c r="AA5" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>j698lt0</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -989,94 +1029,100 @@
       <c r="D6" t="n">
         <v>4</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>tuhmkgysy@hotmail.com----bydyJJ9N3G</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>GEORGE7391</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>XYnm67664Aa!</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>GEORGE</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>ESSEL</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>15722 ERWIN COURT</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>BOWIE</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>MD</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>20716</v>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>Student</t>
         </is>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
         <v>2027506722</v>
       </c>
-      <c r="P6" t="n">
+      <c r="R6" t="n">
         <v>213631937</v>
       </c>
-      <c r="Q6" s="2" t="n">
+      <c r="S6" s="2" t="n">
         <v>37319</v>
       </c>
-      <c r="R6" t="n">
-        <v>3500</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
       <c r="T6" t="n">
         <v>3500</v>
       </c>
       <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>3500</v>
+      </c>
+      <c r="W6" t="n">
         <v>217</v>
       </c>
-      <c r="V6" t="n">
-        <v>3500</v>
-      </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
+        <v>3500</v>
+      </c>
+      <c r="Y6" t="n">
         <v>50.75</v>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>Maryland</t>
         </is>
       </c>
-      <c r="Y6" t="n">
-        <v>3500</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
+      <c r="AA6" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1091,94 +1137,100 @@
       <c r="D7" t="n">
         <v>5</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>vfmfdcjefy@hotmail.com----HBrfYMuYdU8</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>SABRINA8281</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>XYnm67665Aa!</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>SABRINA</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>THIPWONG</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>489 BRONCO TRL</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>LUSBY</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>MD</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>20657</v>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>Student</t>
         </is>
       </c>
-      <c r="O7" t="n">
+      <c r="Q7" t="n">
         <v>2027506723</v>
       </c>
-      <c r="P7" t="n">
+      <c r="R7" t="n">
         <v>214631828</v>
       </c>
-      <c r="Q7" s="2" t="n">
+      <c r="S7" s="2" t="n">
         <v>37270</v>
       </c>
-      <c r="R7" t="n">
-        <v>3500</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
       <c r="T7" t="n">
         <v>3500</v>
       </c>
       <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>3500</v>
+      </c>
+      <c r="W7" t="n">
         <v>217</v>
       </c>
-      <c r="V7" t="n">
-        <v>3500</v>
-      </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
+        <v>3500</v>
+      </c>
+      <c r="Y7" t="n">
         <v>50.75</v>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>Maryland</t>
         </is>
       </c>
-      <c r="Y7" t="n">
-        <v>3500</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
+      <c r="AA7" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1193,94 +1245,100 @@
       <c r="D8" t="n">
         <v>6</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>jqsqwg@hotmail.com----vUVDx4eMBp</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>AUGUSTINE2822</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>XYnm67666Aa!</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>AUGUSTINE</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>NDUKWE</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>1734 WESTON AVE</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>PARKVILLE</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>MD</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>21234</v>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>Student</t>
         </is>
       </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
         <v>2027506724</v>
       </c>
-      <c r="P8" t="n">
+      <c r="R8" t="n">
         <v>220592282</v>
       </c>
-      <c r="Q8" s="2" t="n">
+      <c r="S8" s="2" t="n">
         <v>36951</v>
       </c>
-      <c r="R8" t="n">
-        <v>3500</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
       <c r="T8" t="n">
         <v>3500</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>3500</v>
+      </c>
+      <c r="W8" t="n">
         <v>217</v>
       </c>
-      <c r="V8" t="n">
-        <v>3500</v>
-      </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
+        <v>3500</v>
+      </c>
+      <c r="Y8" t="n">
         <v>50.75</v>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>Maryland</t>
         </is>
       </c>
-      <c r="Y8" t="n">
-        <v>3500</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
+      <c r="AA8" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1295,94 +1353,100 @@
       <c r="D9" t="n">
         <v>7</v>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7</v>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>ah6tuwjwa@hotmail.com----sbUEjWpF8</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>KRISTINA17470</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>XYnm67667Aa!</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>KRISTINA</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>DAVIS</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>46645 MIDWAY DR</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>LEXINGTON PARK</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>MD</t>
         </is>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>20653</v>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>Student</t>
         </is>
       </c>
-      <c r="O9" t="n">
+      <c r="Q9" t="n">
         <v>2027506725</v>
       </c>
-      <c r="P9" t="n">
+      <c r="R9" t="n">
         <v>172807471</v>
       </c>
-      <c r="Q9" s="2" t="n">
+      <c r="S9" s="2" t="n">
         <v>37373</v>
       </c>
-      <c r="R9" t="n">
-        <v>3500</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
       <c r="T9" t="n">
         <v>3500</v>
       </c>
       <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>3500</v>
+      </c>
+      <c r="W9" t="n">
         <v>217</v>
       </c>
-      <c r="V9" t="n">
-        <v>3500</v>
-      </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
+        <v>3500</v>
+      </c>
+      <c r="Y9" t="n">
         <v>50.75</v>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>Maryland</t>
         </is>
       </c>
-      <c r="Y9" t="n">
-        <v>3500</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
+      <c r="AA9" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1395,100 +1459,106 @@
         <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="inlineStr">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>puuhxwbmts@hotmail.com----Mc7FxjqR</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>puuhxwbmts</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>XxESMRA88aB!</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>Ciara</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>Bonilla McChesney</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>3704 Parkwood Street</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>Cottage City</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>MD</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>20722</v>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>interns</t>
         </is>
       </c>
-      <c r="O10" t="n">
+      <c r="Q10" t="n">
         <v>2027506717</v>
       </c>
-      <c r="P10" t="n">
+      <c r="R10" t="n">
         <v>212697587</v>
       </c>
-      <c r="Q10" s="2" t="n">
+      <c r="S10" s="2" t="n">
         <v>37985</v>
       </c>
-      <c r="R10" t="n">
-        <v>3500</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
       <c r="T10" t="n">
         <v>3500</v>
       </c>
       <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>3500</v>
+      </c>
+      <c r="W10" t="n">
         <v>217</v>
       </c>
-      <c r="V10" t="n">
-        <v>3500</v>
-      </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
+        <v>3500</v>
+      </c>
+      <c r="Y10" t="n">
         <v>50.75</v>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>Maryland</t>
         </is>
       </c>
-      <c r="Y10" t="n">
-        <v>3500</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" t="inlineStr">
+      <c r="AA10" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="inlineStr">
         <is>
           <t>j62tj0p</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1501,98 +1571,104 @@
         <v>9</v>
       </c>
       <c r="D11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F11" t="n">
         <v>1</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>mqejhqkwa@hotmail.com----cnxjyCMeKAG4</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>mqejhqkwa</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>XYnm67661Aa!</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>Kaylee</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>Ostrye</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>305 Clopston Hill</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>Annapolis</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>MD</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="O11" t="n">
         <v>21405</v>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>interns</t>
         </is>
       </c>
-      <c r="O11" t="n">
+      <c r="Q11" t="n">
         <v>2024668185</v>
       </c>
-      <c r="P11" t="n">
+      <c r="R11" t="n">
         <v>212696070</v>
       </c>
-      <c r="Q11" s="2" t="n">
+      <c r="S11" s="2" t="n">
         <v>37977</v>
       </c>
-      <c r="R11" t="n">
-        <v>3500</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
       <c r="T11" t="n">
         <v>3500</v>
       </c>
       <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>3500</v>
+      </c>
+      <c r="W11" t="n">
         <v>217</v>
       </c>
-      <c r="V11" t="n">
-        <v>3500</v>
-      </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
+        <v>3500</v>
+      </c>
+      <c r="Y11" t="n">
         <v>50.75</v>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>Maryland</t>
         </is>
       </c>
-      <c r="Y11" t="n">
-        <v>3500</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" t="b">
+      <c r="AA11" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="b">
         <v>1</v>
       </c>
-      <c r="AB11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1605,98 +1681,104 @@
         <v>10</v>
       </c>
       <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
         <v>2</v>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>scrwrcj@hotmail.com----XftRYjeA6Hp</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>scrwrcj</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>WG5QN1KA1aB!</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>Alexia</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>Ruano</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>9512 Atom Rd</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>Clinton</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>MD</t>
         </is>
       </c>
-      <c r="M12" t="n">
+      <c r="O12" t="n">
         <v>20735</v>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>interns</t>
         </is>
       </c>
-      <c r="O12" t="n">
+      <c r="Q12" t="n">
         <v>4102005230</v>
       </c>
-      <c r="P12" t="n">
+      <c r="R12" t="n">
         <v>212695503</v>
       </c>
-      <c r="Q12" s="2" t="n">
+      <c r="S12" s="2" t="n">
         <v>37975</v>
       </c>
-      <c r="R12" t="n">
-        <v>3500</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
       <c r="T12" t="n">
         <v>3500</v>
       </c>
       <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>3500</v>
+      </c>
+      <c r="W12" t="n">
         <v>217</v>
       </c>
-      <c r="V12" t="n">
-        <v>3500</v>
-      </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
+        <v>3500</v>
+      </c>
+      <c r="Y12" t="n">
         <v>50.75</v>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>Maryland</t>
         </is>
       </c>
-      <c r="Y12" t="n">
-        <v>3500</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" t="b">
+      <c r="AA12" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="b">
         <v>1</v>
       </c>
-      <c r="AB12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1709,98 +1791,104 @@
         <v>11</v>
       </c>
       <c r="D13" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" t="n">
+        <v>11</v>
+      </c>
+      <c r="F13" t="n">
         <v>3</v>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>tpaapjj@hotmail.com----s69AP5BcGR</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>tpaapjj</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>eP8tYwuGC!!</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>Wallen</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>3610 Alpen Green Way</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>Burtonsville</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>MD</t>
         </is>
       </c>
-      <c r="M13" t="n">
+      <c r="O13" t="n">
         <v>20866</v>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>interns</t>
         </is>
       </c>
-      <c r="O13" t="n">
+      <c r="Q13" t="n">
         <v>2404624589</v>
       </c>
-      <c r="P13" t="n">
+      <c r="R13" t="n">
         <v>577376759</v>
       </c>
-      <c r="Q13" s="2" t="n">
+      <c r="S13" s="2" t="n">
         <v>37966</v>
       </c>
-      <c r="R13" t="n">
-        <v>3500</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
       <c r="T13" t="n">
         <v>3500</v>
       </c>
       <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>3500</v>
+      </c>
+      <c r="W13" t="n">
         <v>217</v>
       </c>
-      <c r="V13" t="n">
-        <v>3500</v>
-      </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
+        <v>3500</v>
+      </c>
+      <c r="Y13" t="n">
         <v>50.75</v>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>Maryland</t>
         </is>
       </c>
-      <c r="Y13" t="n">
-        <v>3500</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA13" t="b">
+      <c r="AA13" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="b">
         <v>1</v>
       </c>
-      <c r="AB13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1813,98 +1901,104 @@
         <v>12</v>
       </c>
       <c r="D14" t="n">
+        <v>12</v>
+      </c>
+      <c r="E14" t="n">
+        <v>12</v>
+      </c>
+      <c r="F14" t="n">
         <v>4</v>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>dqkxsvmyfu@hotmail.com----q6SBxgYakNp</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>dqkxsvmyfu</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>ptiKai5q5aB!</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>Schaeffer</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>6615 Westrmoreland Avenue</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>Takoma Park</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>MD</t>
         </is>
       </c>
-      <c r="M14" t="n">
+      <c r="O14" t="n">
         <v>20912</v>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>interns</t>
         </is>
       </c>
-      <c r="O14" t="n">
+      <c r="Q14" t="n">
         <v>2022634440</v>
       </c>
-      <c r="P14" t="n">
+      <c r="R14" t="n">
         <v>212691848</v>
       </c>
-      <c r="Q14" s="2" t="n">
+      <c r="S14" s="2" t="n">
         <v>37964</v>
       </c>
-      <c r="R14" t="n">
-        <v>3500</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
       <c r="T14" t="n">
         <v>3500</v>
       </c>
       <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>3500</v>
+      </c>
+      <c r="W14" t="n">
         <v>217</v>
       </c>
-      <c r="V14" t="n">
-        <v>3500</v>
-      </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
+        <v>3500</v>
+      </c>
+      <c r="Y14" t="n">
         <v>50.75</v>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="Z14" t="inlineStr">
         <is>
           <t>Maryland</t>
         </is>
       </c>
-      <c r="Y14" t="n">
-        <v>3500</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" t="b">
+      <c r="AA14" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="b">
         <v>1</v>
       </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>j68rucq</t>
         </is>
@@ -1921,96 +2015,102 @@
         <v>13</v>
       </c>
       <c r="D15" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" t="n">
+        <v>13</v>
+      </c>
+      <c r="F15" t="n">
         <v>5</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>hp84748596@hotmail.com----URjt3439</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>hp84748596</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>tq3ktTVYfqC1Aa!</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>Jocelyn</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>Vanegas Molina</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>3413 Floral Street</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>Silver Spring</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>MD</t>
         </is>
       </c>
-      <c r="M15" t="n">
+      <c r="O15" t="n">
         <v>20902</v>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>interns</t>
         </is>
       </c>
-      <c r="O15" t="n">
+      <c r="Q15" t="n">
         <v>3017678100</v>
       </c>
-      <c r="P15" t="n">
+      <c r="R15" t="n">
         <v>577379357</v>
       </c>
-      <c r="Q15" s="2" t="n">
+      <c r="S15" s="2" t="n">
         <v>37963</v>
       </c>
-      <c r="R15" t="n">
-        <v>3500</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
       <c r="T15" t="n">
         <v>3500</v>
       </c>
       <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>3500</v>
+      </c>
+      <c r="W15" t="n">
         <v>217</v>
       </c>
-      <c r="V15" t="n">
-        <v>3500</v>
-      </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
+        <v>3500</v>
+      </c>
+      <c r="Y15" t="n">
         <v>50.75</v>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="Z15" t="inlineStr">
         <is>
           <t>Maryland</t>
         </is>
       </c>
-      <c r="Y15" t="n">
-        <v>3500</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr">
+      <c r="AA15" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr">
         <is>
           <t>j68y4mu</t>
         </is>
@@ -2027,98 +2127,104 @@
         <v>14</v>
       </c>
       <c r="D16" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" t="n">
+        <v>14</v>
+      </c>
+      <c r="F16" t="n">
         <v>6</v>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>wbtretuyhh@hotmail.com----VsVYrdkT6</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>wbtretuyhh</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>FWyr66841Aa!</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>ronald</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>svoboda</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>1221 cambia drive</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>schaumburg</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="M16" t="n">
+      <c r="O16" t="n">
         <v>60193</v>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="O16" t="n">
+      <c r="Q16" t="n">
         <v>2076685214</v>
       </c>
-      <c r="P16" t="n">
+      <c r="R16" t="n">
         <v>359320124</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>12/31/1942</t>
         </is>
       </c>
-      <c r="R16" t="n">
-        <v>3500</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
       <c r="T16" t="n">
         <v>3500</v>
       </c>
       <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>3500</v>
+      </c>
+      <c r="W16" t="n">
         <v>217</v>
       </c>
-      <c r="V16" t="n">
-        <v>3500</v>
-      </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
+        <v>3500</v>
+      </c>
+      <c r="Y16" t="n">
         <v>50.75</v>
       </c>
-      <c r="X16" t="inlineStr">
+      <c r="Z16" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
       </c>
-      <c r="Y16" t="n">
-        <v>3500</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
+      <c r="AA16" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -2131,98 +2237,104 @@
         <v>15</v>
       </c>
       <c r="D17" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" t="n">
+        <v>15</v>
+      </c>
+      <c r="F17" t="n">
         <v>7</v>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>dahykj@hotmail.com----dmd7Uu3HXyK</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>dahykj</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>unRekQY8Eu1Aa!</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>john</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>jones</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>1251 n massasoit</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>chicago</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="M17" t="n">
+      <c r="O17" t="n">
         <v>60637</v>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="O17" t="n">
+      <c r="Q17" t="n">
         <v>2076685215</v>
       </c>
-      <c r="P17" t="n">
+      <c r="R17" t="n">
         <v>332468673</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>12/31/1952</t>
         </is>
       </c>
-      <c r="R17" t="n">
-        <v>3500</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
       <c r="T17" t="n">
         <v>3500</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>3500</v>
+      </c>
+      <c r="W17" t="n">
         <v>217</v>
       </c>
-      <c r="V17" t="n">
-        <v>3500</v>
-      </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
+        <v>3500</v>
+      </c>
+      <c r="Y17" t="n">
         <v>50.75</v>
       </c>
-      <c r="X17" t="inlineStr">
+      <c r="Z17" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
       </c>
-      <c r="Y17" t="n">
-        <v>3500</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
+      <c r="AA17" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2235,98 +2347,104 @@
         <v>16</v>
       </c>
       <c r="D18" t="n">
+        <v>16</v>
+      </c>
+      <c r="E18" t="n">
+        <v>16</v>
+      </c>
+      <c r="F18" t="n">
         <v>8</v>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>kutkamsyn@hotmail.com----K8JGSF7xhQ4</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>kutkamsyn</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>3bqFex7G7aB!</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>Diana</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>Meyer</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>5839 N Andover Ct</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>Alta</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="M18" t="n">
+      <c r="O18" t="n">
         <v>61615</v>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="O18" t="n">
+      <c r="Q18" t="n">
         <v>2076685216</v>
       </c>
-      <c r="P18" t="n">
+      <c r="R18" t="n">
         <v>360484690</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>12/31/1954</t>
         </is>
-      </c>
-      <c r="R18" t="n">
-        <v>4100</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>4100</v>
       </c>
       <c r="U18" t="n">
-        <v>254.2</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>4100</v>
       </c>
       <c r="W18" t="n">
+        <v>254.2</v>
+      </c>
+      <c r="X18" t="n">
+        <v>4100</v>
+      </c>
+      <c r="Y18" t="n">
         <v>59.45</v>
       </c>
-      <c r="X18" t="inlineStr">
+      <c r="Z18" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
       </c>
-      <c r="Y18" t="n">
+      <c r="AA18" t="n">
         <v>4100</v>
       </c>
-      <c r="Z18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2339,98 +2457,104 @@
         <v>17</v>
       </c>
       <c r="D19" t="n">
+        <v>17</v>
+      </c>
+      <c r="E19" t="n">
+        <v>17</v>
+      </c>
+      <c r="F19" t="n">
         <v>9</v>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>erpfdbdtmw@hotmail.com----ebTHMBQEKy4</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>erpfdbdtmw</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>2EmFgGND2aB!</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>Lance</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>Parrott</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>4710 Old Oaks Drive</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>Lisle</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="M19" t="n">
+      <c r="O19" t="n">
         <v>60532</v>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="O19" t="n">
+      <c r="Q19" t="n">
         <v>2076685217</v>
       </c>
-      <c r="P19" t="n">
+      <c r="R19" t="n">
         <v>307624269</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="S19" t="inlineStr">
         <is>
           <t>12/31/1955</t>
         </is>
-      </c>
-      <c r="R19" t="n">
-        <v>4100</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>4100</v>
       </c>
       <c r="U19" t="n">
-        <v>254.2</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>4100</v>
       </c>
       <c r="W19" t="n">
+        <v>254.2</v>
+      </c>
+      <c r="X19" t="n">
+        <v>4100</v>
+      </c>
+      <c r="Y19" t="n">
         <v>59.45</v>
       </c>
-      <c r="X19" t="inlineStr">
+      <c r="Z19" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
       </c>
-      <c r="Y19" t="n">
+      <c r="AA19" t="n">
         <v>4100</v>
       </c>
-      <c r="Z19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2443,98 +2567,104 @@
         <v>18</v>
       </c>
       <c r="D20" t="n">
+        <v>18</v>
+      </c>
+      <c r="E20" t="n">
+        <v>18</v>
+      </c>
+      <c r="F20" t="n">
         <v>10</v>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>ywgqqdgfhmv@hotmail.com----f8aMUmJ3</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>ywgqqdgfhmv</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>Kj7Er6sp6aB!</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>RAMONA</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>VANHOOSE</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>1052 LORYLN CIRCLE</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>BATAVIA</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="M20" t="n">
+      <c r="O20" t="n">
         <v>60510</v>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="O20" t="n">
+      <c r="Q20" t="n">
         <v>2076685218</v>
       </c>
-      <c r="P20" t="n">
+      <c r="R20" t="n">
         <v>353484410</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>12/31/1955</t>
         </is>
-      </c>
-      <c r="R20" t="n">
-        <v>4100</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>4100</v>
       </c>
       <c r="U20" t="n">
-        <v>254.2</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>4100</v>
       </c>
       <c r="W20" t="n">
+        <v>254.2</v>
+      </c>
+      <c r="X20" t="n">
+        <v>4100</v>
+      </c>
+      <c r="Y20" t="n">
         <v>59.45</v>
       </c>
-      <c r="X20" t="inlineStr">
+      <c r="Z20" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
       </c>
-      <c r="Y20" t="n">
+      <c r="AA20" t="n">
         <v>4100</v>
       </c>
-      <c r="Z20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr"/>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2547,98 +2677,104 @@
         <v>19</v>
       </c>
       <c r="D21" t="n">
+        <v>19</v>
+      </c>
+      <c r="E21" t="n">
+        <v>19</v>
+      </c>
+      <c r="F21" t="n">
         <v>11</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>ra85379394@hotmail.com----HRww6384</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>ra85379394</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>HAyh49341Aa!</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>samuel</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>williams</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>14915 s lincoln ave na</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>DOLTON</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="M21" t="n">
+      <c r="O21" t="n">
         <v>60419</v>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="O21" t="n">
+      <c r="Q21" t="n">
         <v>2076685219</v>
       </c>
-      <c r="P21" t="n">
+      <c r="R21" t="n">
         <v>359505424</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="S21" t="inlineStr">
         <is>
           <t>12/31/1957</t>
         </is>
-      </c>
-      <c r="R21" t="n">
-        <v>4100</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>4100</v>
       </c>
       <c r="U21" t="n">
-        <v>254.2</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>4100</v>
       </c>
       <c r="W21" t="n">
+        <v>254.2</v>
+      </c>
+      <c r="X21" t="n">
+        <v>4100</v>
+      </c>
+      <c r="Y21" t="n">
         <v>59.45</v>
       </c>
-      <c r="X21" t="inlineStr">
+      <c r="Z21" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
       </c>
-      <c r="Y21" t="n">
+      <c r="AA21" t="n">
         <v>4100</v>
       </c>
-      <c r="Z21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr"/>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2651,98 +2787,104 @@
         <v>20</v>
       </c>
       <c r="D22" t="n">
+        <v>20</v>
+      </c>
+      <c r="E22" t="n">
+        <v>20</v>
+      </c>
+      <c r="F22" t="n">
         <v>12</v>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>kunbmjkg@hotmail.com----Yy4v5fVtPJ</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>kunbmjkg</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>r4e7FEG77aB!</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>Diana</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>Hudson</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>667 e front st</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>el paso</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="M22" t="n">
+      <c r="O22" t="n">
         <v>61738</v>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="O22" t="n">
+      <c r="Q22" t="n">
         <v>2076685220</v>
       </c>
-      <c r="P22" t="n">
+      <c r="R22" t="n">
         <v>352603853</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="S22" t="inlineStr">
         <is>
           <t>12/31/1963</t>
         </is>
-      </c>
-      <c r="R22" t="n">
-        <v>4100</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>4100</v>
       </c>
       <c r="U22" t="n">
-        <v>254.2</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>4100</v>
       </c>
       <c r="W22" t="n">
+        <v>254.2</v>
+      </c>
+      <c r="X22" t="n">
+        <v>4100</v>
+      </c>
+      <c r="Y22" t="n">
         <v>59.45</v>
       </c>
-      <c r="X22" t="inlineStr">
+      <c r="Z22" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
       </c>
-      <c r="Y22" t="n">
+      <c r="AA22" t="n">
         <v>4100</v>
       </c>
-      <c r="Z22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="inlineStr"/>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2755,98 +2897,104 @@
         <v>21</v>
       </c>
       <c r="D23" t="n">
+        <v>21</v>
+      </c>
+      <c r="E23" t="n">
+        <v>21</v>
+      </c>
+      <c r="F23" t="n">
         <v>13</v>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>ge66743863@hotmail.com----SQsd5859</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>ge66743863</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>yR5XxxBf5aB!</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>Kelli</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>Schnelt</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>RR 3 BOX 109</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>CARROLLTON</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="M23" t="n">
+      <c r="O23" t="n">
         <v>62016</v>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="O23" t="n">
+      <c r="Q23" t="n">
         <v>2076685221</v>
       </c>
-      <c r="P23" t="n">
+      <c r="R23" t="n">
         <v>336449545</v>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="S23" t="inlineStr">
         <is>
           <t>12/31/1965</t>
         </is>
-      </c>
-      <c r="R23" t="n">
-        <v>4100</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>4100</v>
       </c>
       <c r="U23" t="n">
-        <v>254.2</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>4100</v>
       </c>
       <c r="W23" t="n">
+        <v>254.2</v>
+      </c>
+      <c r="X23" t="n">
+        <v>4100</v>
+      </c>
+      <c r="Y23" t="n">
         <v>59.45</v>
       </c>
-      <c r="X23" t="inlineStr">
+      <c r="Z23" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
       </c>
-      <c r="Y23" t="n">
+      <c r="AA23" t="n">
         <v>4100</v>
       </c>
-      <c r="Z23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA23" t="inlineStr"/>
-      <c r="AB23" t="inlineStr"/>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2859,98 +3007,104 @@
         <v>22</v>
       </c>
       <c r="D24" t="n">
+        <v>22</v>
+      </c>
+      <c r="E24" t="n">
+        <v>22</v>
+      </c>
+      <c r="F24" t="n">
         <v>14</v>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>hb48487636@hotmail.com----SCmj7843</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>hb48487636</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>3jzbSWxX3aB!</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>cynthia</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>shelton</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>2150 NIAGARA CT</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>ELGIN</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="M24" t="n">
+      <c r="O24" t="n">
         <v>60123</v>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="O24" t="n">
+      <c r="Q24" t="n">
         <v>2076685222</v>
       </c>
-      <c r="P24" t="n">
+      <c r="R24" t="n">
         <v>337663360</v>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="S24" t="inlineStr">
         <is>
           <t>12/31/1968</t>
         </is>
-      </c>
-      <c r="R24" t="n">
-        <v>4100</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>4100</v>
       </c>
       <c r="U24" t="n">
-        <v>254.2</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>4100</v>
       </c>
       <c r="W24" t="n">
+        <v>254.2</v>
+      </c>
+      <c r="X24" t="n">
+        <v>4100</v>
+      </c>
+      <c r="Y24" t="n">
         <v>59.45</v>
       </c>
-      <c r="X24" t="inlineStr">
+      <c r="Z24" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
       </c>
-      <c r="Y24" t="n">
+      <c r="AA24" t="n">
         <v>4100</v>
       </c>
-      <c r="Z24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="inlineStr"/>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2963,98 +3117,104 @@
         <v>23</v>
       </c>
       <c r="D25" t="n">
+        <v>23</v>
+      </c>
+      <c r="E25" t="n">
+        <v>23</v>
+      </c>
+      <c r="F25" t="n">
         <v>15</v>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>mqtngcvjynp@hotmail.com----fG4R99GGekb</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>mqtngcvjynp</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>SSQW4u1r1aB!</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>James</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>Roberts</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>2710 E 79TH ST</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>CHICAGO</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="N25" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="M25" t="n">
+      <c r="O25" t="n">
         <v>60649</v>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="P25" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="O25" t="n">
+      <c r="Q25" t="n">
         <v>2076685223</v>
       </c>
-      <c r="P25" t="n">
+      <c r="R25" t="n">
         <v>357683618</v>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="S25" t="inlineStr">
         <is>
           <t>12/31/1969</t>
         </is>
-      </c>
-      <c r="R25" t="n">
-        <v>4100</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>4100</v>
       </c>
       <c r="U25" t="n">
-        <v>254.2</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>4100</v>
       </c>
       <c r="W25" t="n">
+        <v>254.2</v>
+      </c>
+      <c r="X25" t="n">
+        <v>4100</v>
+      </c>
+      <c r="Y25" t="n">
         <v>59.45</v>
       </c>
-      <c r="X25" t="inlineStr">
+      <c r="Z25" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
       </c>
-      <c r="Y25" t="n">
+      <c r="AA25" t="n">
         <v>4100</v>
       </c>
-      <c r="Z25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="inlineStr"/>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -3067,98 +3227,104 @@
         <v>24</v>
       </c>
       <c r="D26" t="n">
+        <v>24</v>
+      </c>
+      <c r="E26" t="n">
+        <v>24</v>
+      </c>
+      <c r="F26" t="n">
         <v>16</v>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>uxtfwnd@hotmail.com----Dc6NktRpC</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>uxtfwnd</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>51U3178a3178aB!</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>Jonetta</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>Holloway</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>8245 S JUSTINE ST</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>CHICAGO</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="M26" t="n">
+      <c r="O26" t="n">
         <v>60620</v>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="P26" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="O26" t="n">
+      <c r="Q26" t="n">
         <v>2076685224</v>
       </c>
-      <c r="P26" t="n">
+      <c r="R26" t="n">
         <v>320766308</v>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="S26" t="inlineStr">
         <is>
           <t>12/31/1969</t>
         </is>
-      </c>
-      <c r="R26" t="n">
-        <v>4100</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>4100</v>
       </c>
       <c r="U26" t="n">
-        <v>254.2</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>4100</v>
       </c>
       <c r="W26" t="n">
+        <v>254.2</v>
+      </c>
+      <c r="X26" t="n">
+        <v>4100</v>
+      </c>
+      <c r="Y26" t="n">
         <v>59.45</v>
       </c>
-      <c r="X26" t="inlineStr">
+      <c r="Z26" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
       </c>
-      <c r="Y26" t="n">
+      <c r="AA26" t="n">
         <v>4100</v>
       </c>
-      <c r="Z26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="inlineStr"/>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -3171,98 +3337,104 @@
         <v>25</v>
       </c>
       <c r="D27" t="n">
+        <v>25</v>
+      </c>
+      <c r="E27" t="n">
+        <v>25</v>
+      </c>
+      <c r="F27" t="n">
         <v>17</v>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>rvnyjbtrk@hotmail.com----wKsHDgSnUuU6</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>rvnyjbtrk</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>ftxF6PMc!!</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>Blanca</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>Hinojosa</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>615 LINDA LN</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>LYNWOOD</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="M27" t="n">
+      <c r="O27" t="n">
         <v>60411</v>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="P27" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="O27" t="n">
+      <c r="Q27" t="n">
         <v>2076685225</v>
       </c>
-      <c r="P27" t="n">
+      <c r="R27" t="n">
         <v>333821977</v>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="S27" t="inlineStr">
         <is>
           <t>12/31/1969</t>
         </is>
-      </c>
-      <c r="R27" t="n">
-        <v>4100</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>4100</v>
       </c>
       <c r="U27" t="n">
-        <v>254.2</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>4100</v>
       </c>
       <c r="W27" t="n">
+        <v>254.2</v>
+      </c>
+      <c r="X27" t="n">
+        <v>4100</v>
+      </c>
+      <c r="Y27" t="n">
         <v>59.45</v>
       </c>
-      <c r="X27" t="inlineStr">
+      <c r="Z27" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
       </c>
-      <c r="Y27" t="n">
+      <c r="AA27" t="n">
         <v>4100</v>
       </c>
-      <c r="Z27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr"/>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -3275,98 +3447,104 @@
         <v>26</v>
       </c>
       <c r="D28" t="n">
+        <v>26</v>
+      </c>
+      <c r="E28" t="n">
+        <v>26</v>
+      </c>
+      <c r="F28" t="n">
         <v>18</v>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>wttsnkbdsq@hotmail.com----BKgdvRwFQq4</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>wttsnkbdsq</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>VTyx68461Aa!</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>kera</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>rhyan</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>1720golfrd</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>waukegan</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="N28" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="M28" t="n">
+      <c r="O28" t="n">
         <v>60085</v>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="P28" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="O28" t="n">
+      <c r="Q28" t="n">
         <v>2076685226</v>
       </c>
-      <c r="P28" t="n">
+      <c r="R28" t="n">
         <v>357583362</v>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="S28" t="inlineStr">
         <is>
           <t>12/31/1971</t>
         </is>
-      </c>
-      <c r="R28" t="n">
-        <v>4100</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>4100</v>
       </c>
       <c r="U28" t="n">
-        <v>254.2</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>4100</v>
       </c>
       <c r="W28" t="n">
+        <v>254.2</v>
+      </c>
+      <c r="X28" t="n">
+        <v>4100</v>
+      </c>
+      <c r="Y28" t="n">
         <v>59.45</v>
       </c>
-      <c r="X28" t="inlineStr">
+      <c r="Z28" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
       </c>
-      <c r="Y28" t="n">
+      <c r="AA28" t="n">
         <v>4100</v>
       </c>
-      <c r="Z28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr"/>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -3379,98 +3557,104 @@
         <v>27</v>
       </c>
       <c r="D29" t="n">
+        <v>27</v>
+      </c>
+      <c r="E29" t="n">
+        <v>27</v>
+      </c>
+      <c r="F29" t="n">
         <v>19</v>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>tjwcvxex@hotmail.com----vYh4j9upY</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>tjwcvxex</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>cBxYeBeTba91Aa!</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>Stephanie</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>Reed</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>1415 SOUTH MILLARD AVE</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>CHICAGO</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="N29" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="M29" t="n">
+      <c r="O29" t="n">
         <v>60623</v>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="P29" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="O29" t="n">
+      <c r="Q29" t="n">
         <v>2076685227</v>
       </c>
-      <c r="P29" t="n">
+      <c r="R29" t="n">
         <v>325662906</v>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="S29" t="inlineStr">
         <is>
           <t>12/31/1973</t>
         </is>
-      </c>
-      <c r="R29" t="n">
-        <v>4800</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>4800</v>
       </c>
       <c r="U29" t="n">
-        <v>297.6</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>4800</v>
       </c>
       <c r="W29" t="n">
+        <v>297.6</v>
+      </c>
+      <c r="X29" t="n">
+        <v>4800</v>
+      </c>
+      <c r="Y29" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="X29" t="inlineStr">
+      <c r="Z29" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
       </c>
-      <c r="Y29" t="n">
+      <c r="AA29" t="n">
         <v>4800</v>
       </c>
-      <c r="Z29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="inlineStr"/>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -3483,98 +3667,104 @@
         <v>28</v>
       </c>
       <c r="D30" t="n">
+        <v>28</v>
+      </c>
+      <c r="E30" t="n">
+        <v>28</v>
+      </c>
+      <c r="F30" t="n">
         <v>20</v>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>sbvqavx4g@hotmail.com----mAcmPwEEh8</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>sbvqavx4g</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>NjwH7Pqd7aB!</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>STEPHANIE</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>REED</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>1415 S MILLARD AVE</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>Chicago</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="N30" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="M30" t="n">
+      <c r="O30" t="n">
         <v>60623</v>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="P30" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="O30" t="n">
+      <c r="Q30" t="n">
         <v>2076685228</v>
       </c>
-      <c r="P30" t="n">
+      <c r="R30" t="n">
         <v>325662906</v>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="S30" t="inlineStr">
         <is>
           <t>12/31/1973</t>
         </is>
-      </c>
-      <c r="R30" t="n">
-        <v>4800</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>4800</v>
       </c>
       <c r="U30" t="n">
-        <v>297.6</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>4800</v>
       </c>
       <c r="W30" t="n">
+        <v>297.6</v>
+      </c>
+      <c r="X30" t="n">
+        <v>4800</v>
+      </c>
+      <c r="Y30" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="X30" t="inlineStr">
+      <c r="Z30" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
       </c>
-      <c r="Y30" t="n">
+      <c r="AA30" t="n">
         <v>4800</v>
       </c>
-      <c r="Z30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr"/>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -3587,96 +3777,102 @@
         <v>29</v>
       </c>
       <c r="D31" t="n">
+        <v>29</v>
+      </c>
+      <c r="E31" t="n">
+        <v>29</v>
+      </c>
+      <c r="F31" t="n">
         <v>21</v>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>ntenwbc@hotmail.com----eJBpeY3jaE</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>ntenwbc</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>V4fqrgrh4aB!</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>Imogene</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>Peretta</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>1801 Lorry Lane Ne</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>Rio Rancho</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="N31" t="inlineStr">
         <is>
           <t>NM</t>
         </is>
       </c>
-      <c r="M31" t="n">
+      <c r="O31" t="n">
         <v>87124</v>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="P31" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="O31" t="n">
+      <c r="Q31" t="n">
         <v>6087837834</v>
       </c>
-      <c r="P31" t="n">
+      <c r="R31" t="n">
         <v>345525854</v>
       </c>
-      <c r="Q31" s="2" t="n">
+      <c r="S31" s="2" t="n">
         <v>19980</v>
-      </c>
-      <c r="R31" t="n">
-        <v>4800</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>4800</v>
       </c>
       <c r="U31" t="n">
-        <v>297.6</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>4800</v>
       </c>
       <c r="W31" t="n">
+        <v>297.6</v>
+      </c>
+      <c r="X31" t="n">
+        <v>4800</v>
+      </c>
+      <c r="Y31" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="X31" t="inlineStr">
+      <c r="Z31" t="inlineStr">
         <is>
           <t>New Mexico</t>
         </is>
       </c>
-      <c r="Y31" t="n">
+      <c r="AA31" t="n">
         <v>4800</v>
       </c>
-      <c r="Z31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA31" t="inlineStr"/>
-      <c r="AB31" t="inlineStr"/>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -3689,96 +3885,102 @@
         <v>30</v>
       </c>
       <c r="D32" t="n">
+        <v>30</v>
+      </c>
+      <c r="E32" t="n">
+        <v>30</v>
+      </c>
+      <c r="F32" t="n">
         <v>22</v>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>mgasbecgpd@hotmail.com----7TwU5MXcDh</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>mgasbecgpd</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>jbiWypP77aB!</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>Lynda</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>Everman</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>8100 Barstow St NE</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>Albuquerque</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="N32" t="inlineStr">
         <is>
           <t>NM</t>
         </is>
       </c>
-      <c r="M32" t="n">
+      <c r="O32" t="n">
         <v>87122</v>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="P32" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="O32" t="n">
+      <c r="Q32" t="n">
         <v>6306056893</v>
       </c>
-      <c r="P32" t="n">
+      <c r="R32" t="n">
         <v>292422769</v>
       </c>
-      <c r="Q32" s="2" t="n">
+      <c r="S32" s="2" t="n">
         <v>17980</v>
-      </c>
-      <c r="R32" t="n">
-        <v>4800</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>4800</v>
       </c>
       <c r="U32" t="n">
-        <v>297.6</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>4800</v>
       </c>
       <c r="W32" t="n">
+        <v>297.6</v>
+      </c>
+      <c r="X32" t="n">
+        <v>4800</v>
+      </c>
+      <c r="Y32" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="X32" t="inlineStr">
+      <c r="Z32" t="inlineStr">
         <is>
           <t>New Mexico</t>
         </is>
       </c>
-      <c r="Y32" t="n">
+      <c r="AA32" t="n">
         <v>4800</v>
       </c>
-      <c r="Z32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA32" t="inlineStr"/>
-      <c r="AB32" t="inlineStr"/>
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -3791,96 +3993,102 @@
         <v>31</v>
       </c>
       <c r="D33" t="n">
+        <v>31</v>
+      </c>
+      <c r="E33" t="n">
+        <v>31</v>
+      </c>
+      <c r="F33" t="n">
         <v>23</v>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>qygmegegt@hotmail.com----MPAXNEE9</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>qygmegegt</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>r8BRF9WwYF!!</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>Dwight J</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>Eubanks</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>29 Stadium</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>Dulce</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="N33" t="inlineStr">
         <is>
           <t>NM</t>
         </is>
       </c>
-      <c r="M33" t="n">
+      <c r="O33" t="n">
         <v>87528</v>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="P33" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="O33" t="n">
+      <c r="Q33" t="n">
         <v>6625284518</v>
       </c>
-      <c r="P33" t="n">
+      <c r="R33" t="n">
         <v>587179514</v>
       </c>
-      <c r="Q33" s="2" t="n">
+      <c r="S33" s="2" t="n">
         <v>22107</v>
-      </c>
-      <c r="R33" t="n">
-        <v>4800</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>4800</v>
       </c>
       <c r="U33" t="n">
-        <v>297.6</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>4800</v>
       </c>
       <c r="W33" t="n">
+        <v>297.6</v>
+      </c>
+      <c r="X33" t="n">
+        <v>4800</v>
+      </c>
+      <c r="Y33" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="X33" t="inlineStr">
+      <c r="Z33" t="inlineStr">
         <is>
           <t>New Mexico</t>
         </is>
       </c>
-      <c r="Y33" t="n">
+      <c r="AA33" t="n">
         <v>4800</v>
       </c>
-      <c r="Z33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA33" t="inlineStr"/>
-      <c r="AB33" t="inlineStr"/>
+      <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -3893,96 +4101,102 @@
         <v>32</v>
       </c>
       <c r="D34" t="n">
+        <v>32</v>
+      </c>
+      <c r="E34" t="n">
+        <v>32</v>
+      </c>
+      <c r="F34" t="n">
         <v>24</v>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>cqpgwjavf@hotmail.com----EfRx7mDEs</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>cqpgwjavf</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>UpJDXLT88aB!</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>Charles</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>Field</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>7950 N Rainbow Bl Apt 1204</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>Las Vegas</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="N34" t="inlineStr">
         <is>
           <t>NM</t>
         </is>
       </c>
-      <c r="M34" t="n">
+      <c r="O34" t="n">
         <v>89108</v>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="P34" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="O34" t="n">
+      <c r="Q34" t="n">
         <v>7022805588</v>
       </c>
-      <c r="P34" t="n">
+      <c r="R34" t="n">
         <v>233629561</v>
       </c>
-      <c r="Q34" s="2" t="n">
+      <c r="S34" s="2" t="n">
         <v>15215</v>
-      </c>
-      <c r="R34" t="n">
-        <v>4800</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>4800</v>
       </c>
       <c r="U34" t="n">
-        <v>297.6</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>4800</v>
       </c>
       <c r="W34" t="n">
+        <v>297.6</v>
+      </c>
+      <c r="X34" t="n">
+        <v>4800</v>
+      </c>
+      <c r="Y34" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="X34" t="inlineStr">
+      <c r="Z34" t="inlineStr">
         <is>
           <t>New Mexico</t>
         </is>
       </c>
-      <c r="Y34" t="n">
+      <c r="AA34" t="n">
         <v>4800</v>
       </c>
-      <c r="Z34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA34" t="inlineStr"/>
-      <c r="AB34" t="inlineStr"/>
+      <c r="AB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -3995,96 +4209,102 @@
         <v>33</v>
       </c>
       <c r="D35" t="n">
+        <v>33</v>
+      </c>
+      <c r="E35" t="n">
+        <v>33</v>
+      </c>
+      <c r="F35" t="n">
         <v>25</v>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>bafgbthme@hotmail.com----UC554QhVr</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>bafgbthme</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>5RLY5JxN5aB!</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>rhonda</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>pinkerton</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>2712 w menefee</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t>artesiaArtesia</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="N35" t="inlineStr">
         <is>
           <t>NM</t>
         </is>
       </c>
-      <c r="M35" t="n">
+      <c r="O35" t="n">
         <v>88210</v>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="P35" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="O35" t="n">
+      <c r="Q35" t="n">
         <v>7024014318</v>
       </c>
-      <c r="P35" t="n">
+      <c r="R35" t="n">
         <v>358528005</v>
       </c>
-      <c r="Q35" s="2" t="n">
+      <c r="S35" s="2" t="n">
         <v>21992</v>
-      </c>
-      <c r="R35" t="n">
-        <v>4800</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>4800</v>
       </c>
       <c r="U35" t="n">
-        <v>297.6</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>4800</v>
       </c>
       <c r="W35" t="n">
+        <v>297.6</v>
+      </c>
+      <c r="X35" t="n">
+        <v>4800</v>
+      </c>
+      <c r="Y35" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="X35" t="inlineStr">
+      <c r="Z35" t="inlineStr">
         <is>
           <t>New Mexico</t>
         </is>
       </c>
-      <c r="Y35" t="n">
+      <c r="AA35" t="n">
         <v>4800</v>
       </c>
-      <c r="Z35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA35" t="inlineStr"/>
-      <c r="AB35" t="inlineStr"/>
+      <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -4097,96 +4317,102 @@
         <v>34</v>
       </c>
       <c r="D36" t="n">
+        <v>34</v>
+      </c>
+      <c r="E36" t="n">
+        <v>34</v>
+      </c>
+      <c r="F36" t="n">
         <v>26</v>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>ckjpatwkfh@hotmail.com----MWSb5nWF</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>ckjpatwkfh</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>v55SdtnF55aB!</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>Wendy</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>Phelps</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>724 Cordova Pl Nw</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="M36" t="inlineStr">
         <is>
           <t>Albuquerque</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="N36" t="inlineStr">
         <is>
           <t>NM</t>
         </is>
       </c>
-      <c r="M36" t="n">
+      <c r="O36" t="n">
         <v>87107</v>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="P36" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="O36" t="n">
+      <c r="Q36" t="n">
         <v>7024605469</v>
       </c>
-      <c r="P36" t="n">
+      <c r="R36" t="n">
         <v>335448558</v>
       </c>
-      <c r="Q36" s="2" t="n">
+      <c r="S36" s="2" t="n">
         <v>19150</v>
-      </c>
-      <c r="R36" t="n">
-        <v>4800</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>4800</v>
       </c>
       <c r="U36" t="n">
-        <v>297.6</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>4800</v>
       </c>
       <c r="W36" t="n">
+        <v>297.6</v>
+      </c>
+      <c r="X36" t="n">
+        <v>4800</v>
+      </c>
+      <c r="Y36" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="X36" t="inlineStr">
+      <c r="Z36" t="inlineStr">
         <is>
           <t>New Mexico</t>
         </is>
       </c>
-      <c r="Y36" t="n">
+      <c r="AA36" t="n">
         <v>4800</v>
       </c>
-      <c r="Z36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="inlineStr"/>
+      <c r="AB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -4199,96 +4425,102 @@
         <v>35</v>
       </c>
       <c r="D37" t="n">
+        <v>35</v>
+      </c>
+      <c r="E37" t="n">
+        <v>35</v>
+      </c>
+      <c r="F37" t="n">
         <v>27</v>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>jfawtuahe@hotmail.com----V7SFR8rT</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>jfawtuahe</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>F61SmWJD61aB!</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>Sheree</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>Price</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>20 CO. RD. 5415</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>BLOOMFIELD</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="N37" t="inlineStr">
         <is>
           <t>NM</t>
         </is>
       </c>
-      <c r="M37" t="n">
+      <c r="O37" t="n">
         <v>87413</v>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="P37" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="O37" t="n">
+      <c r="Q37" t="n">
         <v>7196804376</v>
       </c>
-      <c r="P37" t="n">
+      <c r="R37" t="n">
         <v>526255989</v>
       </c>
-      <c r="Q37" s="2" t="n">
+      <c r="S37" s="2" t="n">
         <v>21104</v>
-      </c>
-      <c r="R37" t="n">
-        <v>4800</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>4800</v>
       </c>
       <c r="U37" t="n">
-        <v>297.6</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>4800</v>
       </c>
       <c r="W37" t="n">
+        <v>297.6</v>
+      </c>
+      <c r="X37" t="n">
+        <v>4800</v>
+      </c>
+      <c r="Y37" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="X37" t="inlineStr">
+      <c r="Z37" t="inlineStr">
         <is>
           <t>New Mexico</t>
         </is>
       </c>
-      <c r="Y37" t="n">
+      <c r="AA37" t="n">
         <v>4800</v>
       </c>
-      <c r="Z37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA37" t="inlineStr"/>
-      <c r="AB37" t="inlineStr"/>
+      <c r="AB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -4301,96 +4533,102 @@
         <v>36</v>
       </c>
       <c r="D38" t="n">
+        <v>36</v>
+      </c>
+      <c r="E38" t="n">
+        <v>36</v>
+      </c>
+      <c r="F38" t="n">
         <v>28</v>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>skdeqq@hotmail.com----tE5DwUFyb5G</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>skdeqq</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>uExRQeSqnQV4!!</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>johnny</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>lewis</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="L38" t="inlineStr">
         <is>
           <t>7905Southerns.e</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="M38" t="inlineStr">
         <is>
           <t>albuqurrque</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="N38" t="inlineStr">
         <is>
           <t>NM</t>
         </is>
       </c>
-      <c r="M38" t="n">
+      <c r="O38" t="n">
         <v>87108</v>
       </c>
-      <c r="N38" t="inlineStr">
+      <c r="P38" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="O38" t="n">
+      <c r="Q38" t="n">
         <v>7202151215</v>
       </c>
-      <c r="P38" t="n">
+      <c r="R38" t="n">
         <v>585608513</v>
       </c>
-      <c r="Q38" s="2" t="n">
+      <c r="S38" s="2" t="n">
         <v>20913</v>
-      </c>
-      <c r="R38" t="n">
-        <v>4800</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>4800</v>
       </c>
       <c r="U38" t="n">
-        <v>297.6</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>4800</v>
       </c>
       <c r="W38" t="n">
+        <v>297.6</v>
+      </c>
+      <c r="X38" t="n">
+        <v>4800</v>
+      </c>
+      <c r="Y38" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="X38" t="inlineStr">
+      <c r="Z38" t="inlineStr">
         <is>
           <t>New Mexico</t>
         </is>
       </c>
-      <c r="Y38" t="n">
+      <c r="AA38" t="n">
         <v>4800</v>
       </c>
-      <c r="Z38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA38" t="inlineStr"/>
-      <c r="AB38" t="inlineStr"/>
+      <c r="AB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -4403,96 +4641,102 @@
         <v>37</v>
       </c>
       <c r="D39" t="n">
+        <v>37</v>
+      </c>
+      <c r="E39" t="n">
+        <v>37</v>
+      </c>
+      <c r="F39" t="n">
         <v>29</v>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>gxdyfsf@hotmail.com----AeJbtXwaS8</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>gxdyfsf</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>M2C1KM3b3aB!</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>JAYNE</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>LONG</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>3207 BLUE HILL</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="M39" t="inlineStr">
         <is>
           <t>Gallup</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="N39" t="inlineStr">
         <is>
           <t>NM</t>
         </is>
       </c>
-      <c r="M39" t="n">
+      <c r="O39" t="n">
         <v>87301</v>
       </c>
-      <c r="N39" t="inlineStr">
+      <c r="P39" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="O39" t="n">
+      <c r="Q39" t="n">
         <v>7732308558</v>
       </c>
-      <c r="P39" t="n">
+      <c r="R39" t="n">
         <v>529700346</v>
       </c>
-      <c r="Q39" s="2" t="n">
+      <c r="S39" s="2" t="n">
         <v>18615</v>
-      </c>
-      <c r="R39" t="n">
-        <v>4800</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>4800</v>
       </c>
       <c r="U39" t="n">
-        <v>297.6</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>4800</v>
       </c>
       <c r="W39" t="n">
+        <v>297.6</v>
+      </c>
+      <c r="X39" t="n">
+        <v>4800</v>
+      </c>
+      <c r="Y39" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="X39" t="inlineStr">
+      <c r="Z39" t="inlineStr">
         <is>
           <t>New Mexico</t>
         </is>
       </c>
-      <c r="Y39" t="n">
+      <c r="AA39" t="n">
         <v>4800</v>
       </c>
-      <c r="Z39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA39" t="inlineStr"/>
-      <c r="AB39" t="inlineStr"/>
+      <c r="AB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/file/账号信息.xlsx
+++ b/file/账号信息.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD39"/>
+  <dimension ref="A1:AL39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,127 +440,167 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.12</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.11</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.10</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.9</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.8</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.7</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.6</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.5</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 0.4</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.3</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.1</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>邮箱----密码</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>账号</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>密码</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>名</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>姓</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>街道</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>城市</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>州</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>邮编</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>工作</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>电话</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>社保号</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>生日</t>
         </is>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="AB1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="AC1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="AD1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="AE1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="AF1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="AG1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="AH1" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="AI1" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="AJ1" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>is_completed</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>user_id</t>
         </is>
@@ -585,96 +625,120 @@
       <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>qrmhayfbsyc@hotmail.com----CFQCPD76J</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>WARNER2906</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>XxESMRA88aB!</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>WARNER</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>EVANS</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>7722 HANOVER PARKWAY APT 203</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>GREENBELT</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>MD</t>
         </is>
       </c>
-      <c r="O2" t="n">
+      <c r="W2" t="n">
         <v>20770</v>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>Student</t>
         </is>
       </c>
-      <c r="Q2" t="n">
+      <c r="Y2" t="n">
         <v>2027506718</v>
       </c>
-      <c r="R2" t="n">
+      <c r="Z2" t="n">
         <v>218596092</v>
       </c>
-      <c r="S2" s="2" t="n">
+      <c r="AA2" s="2" t="n">
         <v>36920</v>
       </c>
-      <c r="T2" t="n">
-        <v>3500</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>3500</v>
-      </c>
-      <c r="W2" t="n">
+      <c r="AB2" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AE2" t="n">
         <v>217</v>
       </c>
-      <c r="X2" t="n">
-        <v>3500</v>
-      </c>
-      <c r="Y2" t="n">
+      <c r="AF2" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AG2" t="n">
         <v>50.75</v>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>Maryland</t>
         </is>
       </c>
-      <c r="AA2" t="n">
-        <v>3500</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AI2" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="inlineStr">
         <is>
           <t>j691sg6</t>
         </is>
@@ -699,96 +763,120 @@
       <c r="F3" t="n">
         <v>1</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>qchgtn@hotmail.com----TuKPtxeU8g</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>SAJRATU0804</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>XYnm67661Aa!</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>SAJRATU</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>SAMURA</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>900 GOOD HOPE DR</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>SILVER SPRING</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>MD</t>
         </is>
       </c>
-      <c r="O3" t="n">
+      <c r="W3" t="n">
         <v>20905</v>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>Student</t>
         </is>
       </c>
-      <c r="Q3" t="n">
+      <c r="Y3" t="n">
         <v>2027506719</v>
       </c>
-      <c r="R3" t="n">
+      <c r="Z3" t="n">
         <v>339024080</v>
       </c>
-      <c r="S3" s="2" t="n">
+      <c r="AA3" s="2" t="n">
         <v>37362</v>
       </c>
-      <c r="T3" t="n">
-        <v>3500</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>3500</v>
-      </c>
-      <c r="W3" t="n">
+      <c r="AB3" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AE3" t="n">
         <v>217</v>
       </c>
-      <c r="X3" t="n">
-        <v>3500</v>
-      </c>
-      <c r="Y3" t="n">
+      <c r="AF3" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AG3" t="n">
         <v>50.75</v>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>Maryland</t>
         </is>
       </c>
-      <c r="AA3" t="n">
-        <v>3500</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="b">
+      <c r="AI3" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="b">
         <v>1</v>
       </c>
-      <c r="AD3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -809,96 +897,120 @@
       <c r="F4" t="n">
         <v>2</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2</v>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>hgvn4nfjs@hotmail.com----mxjhshPYxw3</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>CORINNE7925</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>XYnm67662Aa!</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>CORINNE</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>NEUMAN</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>9213 ANNAPOLIS AVE</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>NORTH BEACH</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>MD</t>
         </is>
       </c>
-      <c r="O4" t="n">
+      <c r="W4" t="n">
         <v>20714</v>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>Student</t>
         </is>
       </c>
-      <c r="Q4" t="n">
+      <c r="Y4" t="n">
         <v>2027506720</v>
       </c>
-      <c r="R4" t="n">
+      <c r="Z4" t="n">
         <v>217575297</v>
       </c>
-      <c r="S4" s="2" t="n">
+      <c r="AA4" s="2" t="n">
         <v>36640</v>
       </c>
-      <c r="T4" t="n">
-        <v>3500</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>3500</v>
-      </c>
-      <c r="W4" t="n">
+      <c r="AB4" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AE4" t="n">
         <v>217</v>
       </c>
-      <c r="X4" t="n">
-        <v>3500</v>
-      </c>
-      <c r="Y4" t="n">
+      <c r="AF4" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AG4" t="n">
         <v>50.75</v>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>Maryland</t>
         </is>
       </c>
-      <c r="AA4" t="n">
-        <v>3500</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AI4" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="inlineStr">
         <is>
           <t>j692m4e</t>
         </is>
@@ -923,94 +1035,120 @@
       <c r="F5" t="n">
         <v>3</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3</v>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>bysgpkf@hotmail.com----69FF3RY3</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>JOSUE9295</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>XYnm67663Aa!</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>JOSUE</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>CERN</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>603 SLIGO AVE APT 513</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>SILVER SPRING</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>MD</t>
         </is>
       </c>
-      <c r="O5" t="n">
+      <c r="W5" t="n">
         <v>20910</v>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>Student</t>
         </is>
       </c>
-      <c r="Q5" t="n">
+      <c r="Y5" t="n">
         <v>2027506721</v>
       </c>
-      <c r="R5" t="n">
+      <c r="Z5" t="n">
         <v>218595929</v>
       </c>
-      <c r="S5" s="2" t="n">
+      <c r="AA5" s="2" t="n">
         <v>36926</v>
       </c>
-      <c r="T5" t="n">
-        <v>3500</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>3500</v>
-      </c>
-      <c r="W5" t="n">
+      <c r="AB5" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AE5" t="n">
         <v>217</v>
       </c>
-      <c r="X5" t="n">
-        <v>3500</v>
-      </c>
-      <c r="Y5" t="n">
+      <c r="AF5" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AG5" t="n">
         <v>50.75</v>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
         <is>
           <t>Maryland</t>
         </is>
       </c>
-      <c r="AA5" t="n">
-        <v>3500</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr">
+      <c r="AI5" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL5" t="inlineStr">
         <is>
           <t>j698lt0</t>
         </is>
@@ -1035,94 +1173,124 @@
       <c r="F6" t="n">
         <v>4</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4</v>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>tuhmkgysy@hotmail.com----bydyJJ9N3G</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>GEORGE7391</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>XYnm67664Aa!</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>GEORGE</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>ESSEL</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>15722 ERWIN COURT</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>BOWIE</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>MD</t>
         </is>
       </c>
-      <c r="O6" t="n">
+      <c r="W6" t="n">
         <v>20716</v>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>Student</t>
         </is>
       </c>
-      <c r="Q6" t="n">
+      <c r="Y6" t="n">
         <v>2027506722</v>
       </c>
-      <c r="R6" t="n">
+      <c r="Z6" t="n">
         <v>213631937</v>
       </c>
-      <c r="S6" s="2" t="n">
+      <c r="AA6" s="2" t="n">
         <v>37319</v>
       </c>
-      <c r="T6" t="n">
-        <v>3500</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>3500</v>
-      </c>
-      <c r="W6" t="n">
+      <c r="AB6" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AE6" t="n">
         <v>217</v>
       </c>
-      <c r="X6" t="n">
-        <v>3500</v>
-      </c>
-      <c r="Y6" t="n">
+      <c r="AF6" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AG6" t="n">
         <v>50.75</v>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>Maryland</t>
         </is>
       </c>
-      <c r="AA6" t="n">
-        <v>3500</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
+      <c r="AI6" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>j6am5o0</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1143,94 +1311,124 @@
       <c r="F7" t="n">
         <v>5</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5</v>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>vfmfdcjefy@hotmail.com----HBrfYMuYdU8</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>SABRINA8281</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>XYnm67665Aa!</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>SABRINA</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>THIPWONG</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>489 BRONCO TRL</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>LUSBY</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>MD</t>
         </is>
       </c>
-      <c r="O7" t="n">
+      <c r="W7" t="n">
         <v>20657</v>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>Student</t>
         </is>
       </c>
-      <c r="Q7" t="n">
+      <c r="Y7" t="n">
         <v>2027506723</v>
       </c>
-      <c r="R7" t="n">
+      <c r="Z7" t="n">
         <v>214631828</v>
       </c>
-      <c r="S7" s="2" t="n">
+      <c r="AA7" s="2" t="n">
         <v>37270</v>
       </c>
-      <c r="T7" t="n">
-        <v>3500</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>3500</v>
-      </c>
-      <c r="W7" t="n">
+      <c r="AB7" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AE7" t="n">
         <v>217</v>
       </c>
-      <c r="X7" t="n">
-        <v>3500</v>
-      </c>
-      <c r="Y7" t="n">
+      <c r="AF7" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AG7" t="n">
         <v>50.75</v>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>Maryland</t>
         </is>
       </c>
-      <c r="AA7" t="n">
-        <v>3500</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
+      <c r="AI7" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>j6amk9y</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1251,94 +1449,122 @@
       <c r="F8" t="n">
         <v>6</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K8" t="n">
+        <v>6</v>
+      </c>
+      <c r="L8" t="n">
+        <v>6</v>
+      </c>
+      <c r="M8" t="n">
+        <v>6</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6</v>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>jqsqwg@hotmail.com----vUVDx4eMBp</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>AUGUSTINE2822</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>XYnm67666Aa!</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>AUGUSTINE</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>NDUKWE</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>1734 WESTON AVE</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>PARKVILLE</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>MD</t>
         </is>
       </c>
-      <c r="O8" t="n">
+      <c r="W8" t="n">
         <v>21234</v>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>Student</t>
         </is>
       </c>
-      <c r="Q8" t="n">
+      <c r="Y8" t="n">
         <v>2027506724</v>
       </c>
-      <c r="R8" t="n">
+      <c r="Z8" t="n">
         <v>220592282</v>
       </c>
-      <c r="S8" s="2" t="n">
+      <c r="AA8" s="2" t="n">
         <v>36951</v>
       </c>
-      <c r="T8" t="n">
-        <v>3500</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>3500</v>
-      </c>
-      <c r="W8" t="n">
+      <c r="AB8" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AE8" t="n">
         <v>217</v>
       </c>
-      <c r="X8" t="n">
-        <v>3500</v>
-      </c>
-      <c r="Y8" t="n">
+      <c r="AF8" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AG8" t="n">
         <v>50.75</v>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>Maryland</t>
         </is>
       </c>
-      <c r="AA8" t="n">
-        <v>3500</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
+      <c r="AI8" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>NOT</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1359,94 +1585,122 @@
       <c r="F9" t="n">
         <v>7</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G9" t="n">
+        <v>7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7</v>
+      </c>
+      <c r="J9" t="n">
+        <v>7</v>
+      </c>
+      <c r="K9" t="n">
+        <v>7</v>
+      </c>
+      <c r="L9" t="n">
+        <v>7</v>
+      </c>
+      <c r="M9" t="n">
+        <v>7</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7</v>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>ah6tuwjwa@hotmail.com----sbUEjWpF8</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>KRISTINA17470</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>XYnm67667Aa!</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>KRISTINA</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>DAVIS</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>46645 MIDWAY DR</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>LEXINGTON PARK</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>MD</t>
         </is>
       </c>
-      <c r="O9" t="n">
+      <c r="W9" t="n">
         <v>20653</v>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>Student</t>
         </is>
       </c>
-      <c r="Q9" t="n">
+      <c r="Y9" t="n">
         <v>2027506725</v>
       </c>
-      <c r="R9" t="n">
+      <c r="Z9" t="n">
         <v>172807471</v>
       </c>
-      <c r="S9" s="2" t="n">
+      <c r="AA9" s="2" t="n">
         <v>37373</v>
       </c>
-      <c r="T9" t="n">
-        <v>3500</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>3500</v>
-      </c>
-      <c r="W9" t="n">
+      <c r="AB9" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AE9" t="n">
         <v>217</v>
       </c>
-      <c r="X9" t="n">
-        <v>3500</v>
-      </c>
-      <c r="Y9" t="n">
+      <c r="AF9" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AG9" t="n">
         <v>50.75</v>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
         <is>
           <t>Maryland</t>
         </is>
       </c>
-      <c r="AA9" t="n">
-        <v>3500</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
+      <c r="AI9" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>NOT</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1465,100 +1719,124 @@
         <v>8</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr">
+        <v>8</v>
+      </c>
+      <c r="G10" t="n">
+        <v>8</v>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+      <c r="I10" t="n">
+        <v>8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>8</v>
+      </c>
+      <c r="K10" t="n">
+        <v>8</v>
+      </c>
+      <c r="L10" t="n">
+        <v>8</v>
+      </c>
+      <c r="M10" t="n">
+        <v>8</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8</v>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>puuhxwbmts@hotmail.com----Mc7FxjqR</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>puuhxwbmts</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>XxESMRA88aB!</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>Ciara</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>Bonilla McChesney</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>3704 Parkwood Street</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>Cottage City</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>MD</t>
         </is>
       </c>
-      <c r="O10" t="n">
+      <c r="W10" t="n">
         <v>20722</v>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>interns</t>
         </is>
       </c>
-      <c r="Q10" t="n">
+      <c r="Y10" t="n">
         <v>2027506717</v>
       </c>
-      <c r="R10" t="n">
+      <c r="Z10" t="n">
         <v>212697587</v>
       </c>
-      <c r="S10" s="2" t="n">
+      <c r="AA10" s="2" t="n">
         <v>37985</v>
       </c>
-      <c r="T10" t="n">
-        <v>3500</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>3500</v>
-      </c>
-      <c r="W10" t="n">
+      <c r="AB10" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AE10" t="n">
         <v>217</v>
       </c>
-      <c r="X10" t="n">
-        <v>3500</v>
-      </c>
-      <c r="Y10" t="n">
+      <c r="AF10" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AG10" t="n">
         <v>50.75</v>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>Maryland</t>
         </is>
       </c>
-      <c r="AA10" t="n">
-        <v>3500</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AI10" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="inlineStr">
         <is>
           <t>j62tj0p</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1577,98 +1855,122 @@
         <v>9</v>
       </c>
       <c r="F11" t="n">
+        <v>9</v>
+      </c>
+      <c r="G11" t="n">
+        <v>9</v>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9</v>
+      </c>
+      <c r="J11" t="n">
+        <v>9</v>
+      </c>
+      <c r="K11" t="n">
+        <v>9</v>
+      </c>
+      <c r="L11" t="n">
+        <v>9</v>
+      </c>
+      <c r="M11" t="n">
+        <v>9</v>
+      </c>
+      <c r="N11" t="n">
+        <v>9</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>mqejhqkwa@hotmail.com----cnxjyCMeKAG4</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>mqejhqkwa</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>XYnm67661Aa!</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Kaylee</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Ostrye</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>305 Clopston Hill</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Annapolis</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="W11" t="n">
+        <v>21405</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>interns</t>
+        </is>
+      </c>
+      <c r="Y11" t="n">
+        <v>2024668185</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>212696070</v>
+      </c>
+      <c r="AA11" s="2" t="n">
+        <v>37977</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>217</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>50.75</v>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>Maryland</t>
+        </is>
+      </c>
+      <c r="AI11" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="b">
         <v>1</v>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>mqejhqkwa@hotmail.com----cnxjyCMeKAG4</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>mqejhqkwa</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>XYnm67661Aa!</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Kaylee</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Ostrye</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>305 Clopston Hill</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Annapolis</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>MD</t>
-        </is>
-      </c>
-      <c r="O11" t="n">
-        <v>21405</v>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>interns</t>
-        </is>
-      </c>
-      <c r="Q11" t="n">
-        <v>2024668185</v>
-      </c>
-      <c r="R11" t="n">
-        <v>212696070</v>
-      </c>
-      <c r="S11" s="2" t="n">
-        <v>37977</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3500</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>3500</v>
-      </c>
-      <c r="W11" t="n">
-        <v>217</v>
-      </c>
-      <c r="X11" t="n">
-        <v>3500</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>50.75</v>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>Maryland</t>
-        </is>
-      </c>
-      <c r="AA11" t="n">
-        <v>3500</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1687,98 +1989,122 @@
         <v>10</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
-      </c>
-      <c r="G12" t="inlineStr">
+        <v>10</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10</v>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+      <c r="I12" t="n">
+        <v>10</v>
+      </c>
+      <c r="J12" t="n">
+        <v>10</v>
+      </c>
+      <c r="K12" t="n">
+        <v>10</v>
+      </c>
+      <c r="L12" t="n">
+        <v>10</v>
+      </c>
+      <c r="M12" t="n">
+        <v>10</v>
+      </c>
+      <c r="N12" t="n">
+        <v>10</v>
+      </c>
+      <c r="O12" t="inlineStr">
         <is>
           <t>scrwrcj@hotmail.com----XftRYjeA6Hp</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>scrwrcj</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>WG5QN1KA1aB!</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>Alexia</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>Ruano</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>9512 Atom Rd</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>Clinton</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>MD</t>
         </is>
       </c>
-      <c r="O12" t="n">
+      <c r="W12" t="n">
         <v>20735</v>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>interns</t>
         </is>
       </c>
-      <c r="Q12" t="n">
+      <c r="Y12" t="n">
         <v>4102005230</v>
       </c>
-      <c r="R12" t="n">
+      <c r="Z12" t="n">
         <v>212695503</v>
       </c>
-      <c r="S12" s="2" t="n">
+      <c r="AA12" s="2" t="n">
         <v>37975</v>
       </c>
-      <c r="T12" t="n">
-        <v>3500</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>3500</v>
-      </c>
-      <c r="W12" t="n">
+      <c r="AB12" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AE12" t="n">
         <v>217</v>
       </c>
-      <c r="X12" t="n">
-        <v>3500</v>
-      </c>
-      <c r="Y12" t="n">
+      <c r="AF12" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AG12" t="n">
         <v>50.75</v>
       </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
         <is>
           <t>Maryland</t>
         </is>
       </c>
-      <c r="AA12" t="n">
-        <v>3500</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="b">
+      <c r="AI12" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="b">
         <v>1</v>
       </c>
-      <c r="AD12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1797,98 +2123,122 @@
         <v>11</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G13" t="inlineStr">
+        <v>11</v>
+      </c>
+      <c r="G13" t="n">
+        <v>11</v>
+      </c>
+      <c r="H13" t="n">
+        <v>11</v>
+      </c>
+      <c r="I13" t="n">
+        <v>11</v>
+      </c>
+      <c r="J13" t="n">
+        <v>11</v>
+      </c>
+      <c r="K13" t="n">
+        <v>11</v>
+      </c>
+      <c r="L13" t="n">
+        <v>11</v>
+      </c>
+      <c r="M13" t="n">
+        <v>11</v>
+      </c>
+      <c r="N13" t="n">
+        <v>11</v>
+      </c>
+      <c r="O13" t="inlineStr">
         <is>
           <t>tpaapjj@hotmail.com----s69AP5BcGR</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>tpaapjj</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>eP8tYwuGC!!</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>Wallen</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>3610 Alpen Green Way</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>Burtonsville</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>MD</t>
         </is>
       </c>
-      <c r="O13" t="n">
+      <c r="W13" t="n">
         <v>20866</v>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>interns</t>
         </is>
       </c>
-      <c r="Q13" t="n">
+      <c r="Y13" t="n">
         <v>2404624589</v>
       </c>
-      <c r="R13" t="n">
+      <c r="Z13" t="n">
         <v>577376759</v>
       </c>
-      <c r="S13" s="2" t="n">
+      <c r="AA13" s="2" t="n">
         <v>37966</v>
       </c>
-      <c r="T13" t="n">
-        <v>3500</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>3500</v>
-      </c>
-      <c r="W13" t="n">
+      <c r="AB13" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AE13" t="n">
         <v>217</v>
       </c>
-      <c r="X13" t="n">
-        <v>3500</v>
-      </c>
-      <c r="Y13" t="n">
+      <c r="AF13" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AG13" t="n">
         <v>50.75</v>
       </c>
-      <c r="Z13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
         <is>
           <t>Maryland</t>
         </is>
       </c>
-      <c r="AA13" t="n">
-        <v>3500</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="b">
+      <c r="AI13" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="b">
         <v>1</v>
       </c>
-      <c r="AD13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1907,98 +2257,122 @@
         <v>12</v>
       </c>
       <c r="F14" t="n">
-        <v>4</v>
-      </c>
-      <c r="G14" t="inlineStr">
+        <v>12</v>
+      </c>
+      <c r="G14" t="n">
+        <v>12</v>
+      </c>
+      <c r="H14" t="n">
+        <v>12</v>
+      </c>
+      <c r="I14" t="n">
+        <v>12</v>
+      </c>
+      <c r="J14" t="n">
+        <v>12</v>
+      </c>
+      <c r="K14" t="n">
+        <v>12</v>
+      </c>
+      <c r="L14" t="n">
+        <v>12</v>
+      </c>
+      <c r="M14" t="n">
+        <v>12</v>
+      </c>
+      <c r="N14" t="n">
+        <v>12</v>
+      </c>
+      <c r="O14" t="inlineStr">
         <is>
           <t>dqkxsvmyfu@hotmail.com----q6SBxgYakNp</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>dqkxsvmyfu</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>ptiKai5q5aB!</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>Schaeffer</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>6615 Westrmoreland Avenue</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>Takoma Park</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>MD</t>
         </is>
       </c>
-      <c r="O14" t="n">
+      <c r="W14" t="n">
         <v>20912</v>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>interns</t>
         </is>
       </c>
-      <c r="Q14" t="n">
+      <c r="Y14" t="n">
         <v>2022634440</v>
       </c>
-      <c r="R14" t="n">
+      <c r="Z14" t="n">
         <v>212691848</v>
       </c>
-      <c r="S14" s="2" t="n">
+      <c r="AA14" s="2" t="n">
         <v>37964</v>
       </c>
-      <c r="T14" t="n">
-        <v>3500</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>3500</v>
-      </c>
-      <c r="W14" t="n">
+      <c r="AB14" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AE14" t="n">
         <v>217</v>
       </c>
-      <c r="X14" t="n">
-        <v>3500</v>
-      </c>
-      <c r="Y14" t="n">
+      <c r="AF14" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AG14" t="n">
         <v>50.75</v>
       </c>
-      <c r="Z14" t="inlineStr">
+      <c r="AH14" t="inlineStr">
         <is>
           <t>Maryland</t>
         </is>
       </c>
-      <c r="AA14" t="n">
-        <v>3500</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="b">
+      <c r="AI14" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="b">
         <v>1</v>
       </c>
-      <c r="AD14" t="inlineStr">
+      <c r="AL14" t="inlineStr">
         <is>
           <t>j68rucq</t>
         </is>
@@ -2021,96 +2395,124 @@
         <v>13</v>
       </c>
       <c r="F15" t="n">
-        <v>5</v>
-      </c>
-      <c r="G15" t="inlineStr">
+        <v>13</v>
+      </c>
+      <c r="G15" t="n">
+        <v>13</v>
+      </c>
+      <c r="H15" t="n">
+        <v>13</v>
+      </c>
+      <c r="I15" t="n">
+        <v>13</v>
+      </c>
+      <c r="J15" t="n">
+        <v>13</v>
+      </c>
+      <c r="K15" t="n">
+        <v>13</v>
+      </c>
+      <c r="L15" t="n">
+        <v>13</v>
+      </c>
+      <c r="M15" t="n">
+        <v>13</v>
+      </c>
+      <c r="N15" t="n">
+        <v>13</v>
+      </c>
+      <c r="O15" t="inlineStr">
         <is>
           <t>hp84748596@hotmail.com----URjt3439</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>hp84748596</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>tq3ktTVYfqC1Aa!</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>Jocelyn</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>Vanegas Molina</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>3413 Floral Street</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>Silver Spring</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>MD</t>
         </is>
       </c>
-      <c r="O15" t="n">
+      <c r="W15" t="n">
         <v>20902</v>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>interns</t>
         </is>
       </c>
-      <c r="Q15" t="n">
+      <c r="Y15" t="n">
         <v>3017678100</v>
       </c>
-      <c r="R15" t="n">
+      <c r="Z15" t="n">
         <v>577379357</v>
       </c>
-      <c r="S15" s="2" t="n">
+      <c r="AA15" s="2" t="n">
         <v>37963</v>
       </c>
-      <c r="T15" t="n">
-        <v>3500</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>3500</v>
-      </c>
-      <c r="W15" t="n">
+      <c r="AB15" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AE15" t="n">
         <v>217</v>
       </c>
-      <c r="X15" t="n">
-        <v>3500</v>
-      </c>
-      <c r="Y15" t="n">
+      <c r="AF15" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AG15" t="n">
         <v>50.75</v>
       </c>
-      <c r="Z15" t="inlineStr">
+      <c r="AH15" t="inlineStr">
         <is>
           <t>Maryland</t>
         </is>
       </c>
-      <c r="AA15" t="n">
-        <v>3500</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr">
+      <c r="AI15" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>NOt</t>
+        </is>
+      </c>
+      <c r="AL15" t="inlineStr">
         <is>
           <t>j68y4mu</t>
         </is>
@@ -2133,98 +2535,128 @@
         <v>14</v>
       </c>
       <c r="F16" t="n">
-        <v>6</v>
-      </c>
-      <c r="G16" t="inlineStr">
+        <v>14</v>
+      </c>
+      <c r="G16" t="n">
+        <v>14</v>
+      </c>
+      <c r="H16" t="n">
+        <v>14</v>
+      </c>
+      <c r="I16" t="n">
+        <v>14</v>
+      </c>
+      <c r="J16" t="n">
+        <v>14</v>
+      </c>
+      <c r="K16" t="n">
+        <v>14</v>
+      </c>
+      <c r="L16" t="n">
+        <v>14</v>
+      </c>
+      <c r="M16" t="n">
+        <v>14</v>
+      </c>
+      <c r="N16" t="n">
+        <v>14</v>
+      </c>
+      <c r="O16" t="inlineStr">
         <is>
           <t>wbtretuyhh@hotmail.com----VsVYrdkT6</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>wbtretuyhh</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>FWyr66841Aa!</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>ronald</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>svoboda</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>1221 cambia drive</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>schaumburg</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="O16" t="n">
+      <c r="W16" t="n">
         <v>60193</v>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="Q16" t="n">
+      <c r="Y16" t="n">
         <v>2076685214</v>
       </c>
-      <c r="R16" t="n">
+      <c r="Z16" t="n">
         <v>359320124</v>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="AA16" t="inlineStr">
         <is>
           <t>12/31/1942</t>
         </is>
       </c>
-      <c r="T16" t="n">
-        <v>3500</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>3500</v>
-      </c>
-      <c r="W16" t="n">
+      <c r="AB16" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AE16" t="n">
         <v>217</v>
       </c>
-      <c r="X16" t="n">
-        <v>3500</v>
-      </c>
-      <c r="Y16" t="n">
+      <c r="AF16" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AG16" t="n">
         <v>50.75</v>
       </c>
-      <c r="Z16" t="inlineStr">
+      <c r="AH16" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
       </c>
-      <c r="AA16" t="n">
-        <v>3500</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
+      <c r="AI16" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>j6asojb</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -2243,98 +2675,130 @@
         <v>15</v>
       </c>
       <c r="F17" t="n">
-        <v>7</v>
-      </c>
-      <c r="G17" t="inlineStr">
+        <v>15</v>
+      </c>
+      <c r="G17" t="n">
+        <v>15</v>
+      </c>
+      <c r="H17" t="n">
+        <v>15</v>
+      </c>
+      <c r="I17" t="n">
+        <v>15</v>
+      </c>
+      <c r="J17" t="n">
+        <v>15</v>
+      </c>
+      <c r="K17" t="n">
+        <v>15</v>
+      </c>
+      <c r="L17" t="n">
+        <v>15</v>
+      </c>
+      <c r="M17" t="n">
+        <v>15</v>
+      </c>
+      <c r="N17" t="n">
+        <v>15</v>
+      </c>
+      <c r="O17" t="inlineStr">
         <is>
           <t>dahykj@hotmail.com----dmd7Uu3HXyK</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>dahykj</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>unRekQY8Eu1Aa!</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>john</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>jones</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>1251 n massasoit</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>chicago</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="O17" t="n">
+      <c r="W17" t="n">
         <v>60637</v>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="X17" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="Q17" t="n">
+      <c r="Y17" t="n">
         <v>2076685215</v>
       </c>
-      <c r="R17" t="n">
+      <c r="Z17" t="n">
         <v>332468673</v>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="AA17" t="inlineStr">
         <is>
           <t>12/31/1952</t>
         </is>
       </c>
-      <c r="T17" t="n">
-        <v>3500</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>3500</v>
-      </c>
-      <c r="W17" t="n">
+      <c r="AB17" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AE17" t="n">
         <v>217</v>
       </c>
-      <c r="X17" t="n">
-        <v>3500</v>
-      </c>
-      <c r="Y17" t="n">
+      <c r="AF17" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AG17" t="n">
         <v>50.75</v>
       </c>
-      <c r="Z17" t="inlineStr">
+      <c r="AH17" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
       </c>
-      <c r="AA17" t="n">
-        <v>3500</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr"/>
+      <c r="AI17" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>Name Error</t>
+        </is>
+      </c>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>j6axb12</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2353,98 +2817,130 @@
         <v>16</v>
       </c>
       <c r="F18" t="n">
-        <v>8</v>
-      </c>
-      <c r="G18" t="inlineStr">
+        <v>16</v>
+      </c>
+      <c r="G18" t="n">
+        <v>16</v>
+      </c>
+      <c r="H18" t="n">
+        <v>16</v>
+      </c>
+      <c r="I18" t="n">
+        <v>16</v>
+      </c>
+      <c r="J18" t="n">
+        <v>16</v>
+      </c>
+      <c r="K18" t="n">
+        <v>16</v>
+      </c>
+      <c r="L18" t="n">
+        <v>16</v>
+      </c>
+      <c r="M18" t="n">
+        <v>16</v>
+      </c>
+      <c r="N18" t="n">
+        <v>16</v>
+      </c>
+      <c r="O18" t="inlineStr">
         <is>
           <t>kutkamsyn@hotmail.com----K8JGSF7xhQ4</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>kutkamsyn</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>3bqFex7G7aB!</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>Diana</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>Meyer</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>5839 N Andover Ct</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="U18" t="inlineStr">
         <is>
           <t>Alta</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="V18" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="O18" t="n">
+      <c r="W18" t="n">
         <v>61615</v>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="X18" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="Q18" t="n">
+      <c r="Y18" t="n">
         <v>2076685216</v>
       </c>
-      <c r="R18" t="n">
+      <c r="Z18" t="n">
         <v>360484690</v>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="AA18" t="inlineStr">
         <is>
           <t>12/31/1954</t>
         </is>
       </c>
-      <c r="T18" t="n">
+      <c r="AB18" t="n">
         <v>4100</v>
       </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
         <v>4100</v>
       </c>
-      <c r="W18" t="n">
+      <c r="AE18" t="n">
         <v>254.2</v>
       </c>
-      <c r="X18" t="n">
+      <c r="AF18" t="n">
         <v>4100</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="AG18" t="n">
         <v>59.45</v>
       </c>
-      <c r="Z18" t="inlineStr">
+      <c r="AH18" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
       </c>
-      <c r="AA18" t="n">
+      <c r="AI18" t="n">
         <v>4100</v>
       </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
+      <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>Name Error</t>
+        </is>
+      </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>j6axwb3</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2463,98 +2959,130 @@
         <v>17</v>
       </c>
       <c r="F19" t="n">
-        <v>9</v>
-      </c>
-      <c r="G19" t="inlineStr">
+        <v>17</v>
+      </c>
+      <c r="G19" t="n">
+        <v>17</v>
+      </c>
+      <c r="H19" t="n">
+        <v>17</v>
+      </c>
+      <c r="I19" t="n">
+        <v>17</v>
+      </c>
+      <c r="J19" t="n">
+        <v>17</v>
+      </c>
+      <c r="K19" t="n">
+        <v>17</v>
+      </c>
+      <c r="L19" t="n">
+        <v>17</v>
+      </c>
+      <c r="M19" t="n">
+        <v>17</v>
+      </c>
+      <c r="N19" t="n">
+        <v>17</v>
+      </c>
+      <c r="O19" t="inlineStr">
         <is>
           <t>erpfdbdtmw@hotmail.com----ebTHMBQEKy4</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>erpfdbdtmw</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>2EmFgGND2aB!</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>Lance</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="S19" t="inlineStr">
         <is>
           <t>Parrott</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="T19" t="inlineStr">
         <is>
           <t>4710 Old Oaks Drive</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="U19" t="inlineStr">
         <is>
           <t>Lisle</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="V19" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="O19" t="n">
+      <c r="W19" t="n">
         <v>60532</v>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="X19" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="Q19" t="n">
+      <c r="Y19" t="n">
         <v>2076685217</v>
       </c>
-      <c r="R19" t="n">
+      <c r="Z19" t="n">
         <v>307624269</v>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="AA19" t="inlineStr">
         <is>
           <t>12/31/1955</t>
         </is>
       </c>
-      <c r="T19" t="n">
+      <c r="AB19" t="n">
         <v>4100</v>
       </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
         <v>4100</v>
       </c>
-      <c r="W19" t="n">
+      <c r="AE19" t="n">
         <v>254.2</v>
       </c>
-      <c r="X19" t="n">
+      <c r="AF19" t="n">
         <v>4100</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="AG19" t="n">
         <v>59.45</v>
       </c>
-      <c r="Z19" t="inlineStr">
+      <c r="AH19" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
       </c>
-      <c r="AA19" t="n">
+      <c r="AI19" t="n">
         <v>4100</v>
       </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="inlineStr"/>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Name Error</t>
+        </is>
+      </c>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>j6axwtx</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2573,98 +3101,126 @@
         <v>18</v>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
-      </c>
-      <c r="G20" t="inlineStr">
+        <v>18</v>
+      </c>
+      <c r="G20" t="n">
+        <v>18</v>
+      </c>
+      <c r="H20" t="n">
+        <v>18</v>
+      </c>
+      <c r="I20" t="n">
+        <v>18</v>
+      </c>
+      <c r="J20" t="n">
+        <v>18</v>
+      </c>
+      <c r="K20" t="n">
+        <v>18</v>
+      </c>
+      <c r="L20" t="n">
+        <v>18</v>
+      </c>
+      <c r="M20" t="n">
+        <v>18</v>
+      </c>
+      <c r="N20" t="n">
+        <v>18</v>
+      </c>
+      <c r="O20" t="inlineStr">
         <is>
           <t>ywgqqdgfhmv@hotmail.com----f8aMUmJ3</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>ywgqqdgfhmv</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>Kj7Er6sp6aB!</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>RAMONA</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>VANHOOSE</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="T20" t="inlineStr">
         <is>
           <t>1052 LORYLN CIRCLE</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="U20" t="inlineStr">
         <is>
           <t>BATAVIA</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="V20" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="O20" t="n">
+      <c r="W20" t="n">
         <v>60510</v>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="X20" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="Q20" t="n">
+      <c r="Y20" t="n">
         <v>2076685218</v>
       </c>
-      <c r="R20" t="n">
+      <c r="Z20" t="n">
         <v>353484410</v>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="AA20" t="inlineStr">
         <is>
           <t>12/31/1955</t>
         </is>
       </c>
-      <c r="T20" t="n">
+      <c r="AB20" t="n">
         <v>4100</v>
       </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
         <v>4100</v>
       </c>
-      <c r="W20" t="n">
+      <c r="AE20" t="n">
         <v>254.2</v>
       </c>
-      <c r="X20" t="n">
+      <c r="AF20" t="n">
         <v>4100</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="AG20" t="n">
         <v>59.45</v>
       </c>
-      <c r="Z20" t="inlineStr">
+      <c r="AH20" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
       </c>
-      <c r="AA20" t="n">
+      <c r="AI20" t="n">
         <v>4100</v>
       </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="inlineStr"/>
-      <c r="AD20" t="inlineStr"/>
+      <c r="AJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>j6axxr6</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2683,98 +3239,122 @@
         <v>19</v>
       </c>
       <c r="F21" t="n">
-        <v>11</v>
-      </c>
-      <c r="G21" t="inlineStr">
+        <v>19</v>
+      </c>
+      <c r="G21" t="n">
+        <v>19</v>
+      </c>
+      <c r="H21" t="n">
+        <v>19</v>
+      </c>
+      <c r="I21" t="n">
+        <v>19</v>
+      </c>
+      <c r="J21" t="n">
+        <v>19</v>
+      </c>
+      <c r="K21" t="n">
+        <v>19</v>
+      </c>
+      <c r="L21" t="n">
+        <v>19</v>
+      </c>
+      <c r="M21" t="n">
+        <v>19</v>
+      </c>
+      <c r="N21" t="n">
+        <v>19</v>
+      </c>
+      <c r="O21" t="inlineStr">
         <is>
           <t>ra85379394@hotmail.com----HRww6384</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>ra85379394</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>HAyh49341Aa!</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>samuel</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="S21" t="inlineStr">
         <is>
           <t>williams</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="T21" t="inlineStr">
         <is>
           <t>14915 s lincoln ave na</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="U21" t="inlineStr">
         <is>
           <t>DOLTON</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="V21" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="O21" t="n">
+      <c r="W21" t="n">
         <v>60419</v>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="X21" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="Q21" t="n">
+      <c r="Y21" t="n">
         <v>2076685219</v>
       </c>
-      <c r="R21" t="n">
+      <c r="Z21" t="n">
         <v>359505424</v>
       </c>
-      <c r="S21" t="inlineStr">
+      <c r="AA21" t="inlineStr">
         <is>
           <t>12/31/1957</t>
         </is>
       </c>
-      <c r="T21" t="n">
+      <c r="AB21" t="n">
         <v>4100</v>
       </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
         <v>4100</v>
       </c>
-      <c r="W21" t="n">
+      <c r="AE21" t="n">
         <v>254.2</v>
       </c>
-      <c r="X21" t="n">
+      <c r="AF21" t="n">
         <v>4100</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="AG21" t="n">
         <v>59.45</v>
       </c>
-      <c r="Z21" t="inlineStr">
+      <c r="AH21" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
       </c>
-      <c r="AA21" t="n">
+      <c r="AI21" t="n">
         <v>4100</v>
       </c>
-      <c r="AB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="inlineStr"/>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2793,98 +3373,122 @@
         <v>20</v>
       </c>
       <c r="F22" t="n">
-        <v>12</v>
-      </c>
-      <c r="G22" t="inlineStr">
+        <v>20</v>
+      </c>
+      <c r="G22" t="n">
+        <v>20</v>
+      </c>
+      <c r="H22" t="n">
+        <v>20</v>
+      </c>
+      <c r="I22" t="n">
+        <v>20</v>
+      </c>
+      <c r="J22" t="n">
+        <v>20</v>
+      </c>
+      <c r="K22" t="n">
+        <v>20</v>
+      </c>
+      <c r="L22" t="n">
+        <v>20</v>
+      </c>
+      <c r="M22" t="n">
+        <v>20</v>
+      </c>
+      <c r="N22" t="n">
+        <v>20</v>
+      </c>
+      <c r="O22" t="inlineStr">
         <is>
           <t>kunbmjkg@hotmail.com----Yy4v5fVtPJ</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>kunbmjkg</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>r4e7FEG77aB!</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>Diana</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="S22" t="inlineStr">
         <is>
           <t>Hudson</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="T22" t="inlineStr">
         <is>
           <t>667 e front st</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="U22" t="inlineStr">
         <is>
           <t>el paso</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="V22" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="O22" t="n">
+      <c r="W22" t="n">
         <v>61738</v>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="X22" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="Q22" t="n">
+      <c r="Y22" t="n">
         <v>2076685220</v>
       </c>
-      <c r="R22" t="n">
+      <c r="Z22" t="n">
         <v>352603853</v>
       </c>
-      <c r="S22" t="inlineStr">
+      <c r="AA22" t="inlineStr">
         <is>
           <t>12/31/1963</t>
         </is>
       </c>
-      <c r="T22" t="n">
+      <c r="AB22" t="n">
         <v>4100</v>
       </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
         <v>4100</v>
       </c>
-      <c r="W22" t="n">
+      <c r="AE22" t="n">
         <v>254.2</v>
       </c>
-      <c r="X22" t="n">
+      <c r="AF22" t="n">
         <v>4100</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="AG22" t="n">
         <v>59.45</v>
       </c>
-      <c r="Z22" t="inlineStr">
+      <c r="AH22" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
       </c>
-      <c r="AA22" t="n">
+      <c r="AI22" t="n">
         <v>4100</v>
       </c>
-      <c r="AB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC22" t="inlineStr"/>
-      <c r="AD22" t="inlineStr"/>
+      <c r="AJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2903,98 +3507,122 @@
         <v>21</v>
       </c>
       <c r="F23" t="n">
-        <v>13</v>
-      </c>
-      <c r="G23" t="inlineStr">
+        <v>21</v>
+      </c>
+      <c r="G23" t="n">
+        <v>21</v>
+      </c>
+      <c r="H23" t="n">
+        <v>21</v>
+      </c>
+      <c r="I23" t="n">
+        <v>21</v>
+      </c>
+      <c r="J23" t="n">
+        <v>21</v>
+      </c>
+      <c r="K23" t="n">
+        <v>21</v>
+      </c>
+      <c r="L23" t="n">
+        <v>21</v>
+      </c>
+      <c r="M23" t="n">
+        <v>21</v>
+      </c>
+      <c r="N23" t="n">
+        <v>21</v>
+      </c>
+      <c r="O23" t="inlineStr">
         <is>
           <t>ge66743863@hotmail.com----SQsd5859</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>ge66743863</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>yR5XxxBf5aB!</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>Kelli</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="S23" t="inlineStr">
         <is>
           <t>Schnelt</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="T23" t="inlineStr">
         <is>
           <t>RR 3 BOX 109</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="U23" t="inlineStr">
         <is>
           <t>CARROLLTON</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="V23" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="O23" t="n">
+      <c r="W23" t="n">
         <v>62016</v>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="X23" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="Q23" t="n">
+      <c r="Y23" t="n">
         <v>2076685221</v>
       </c>
-      <c r="R23" t="n">
+      <c r="Z23" t="n">
         <v>336449545</v>
       </c>
-      <c r="S23" t="inlineStr">
+      <c r="AA23" t="inlineStr">
         <is>
           <t>12/31/1965</t>
         </is>
       </c>
-      <c r="T23" t="n">
+      <c r="AB23" t="n">
         <v>4100</v>
       </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
         <v>4100</v>
       </c>
-      <c r="W23" t="n">
+      <c r="AE23" t="n">
         <v>254.2</v>
       </c>
-      <c r="X23" t="n">
+      <c r="AF23" t="n">
         <v>4100</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="AG23" t="n">
         <v>59.45</v>
       </c>
-      <c r="Z23" t="inlineStr">
+      <c r="AH23" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
       </c>
-      <c r="AA23" t="n">
+      <c r="AI23" t="n">
         <v>4100</v>
       </c>
-      <c r="AB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC23" t="inlineStr"/>
-      <c r="AD23" t="inlineStr"/>
+      <c r="AJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -3013,98 +3641,122 @@
         <v>22</v>
       </c>
       <c r="F24" t="n">
-        <v>14</v>
-      </c>
-      <c r="G24" t="inlineStr">
+        <v>22</v>
+      </c>
+      <c r="G24" t="n">
+        <v>22</v>
+      </c>
+      <c r="H24" t="n">
+        <v>22</v>
+      </c>
+      <c r="I24" t="n">
+        <v>22</v>
+      </c>
+      <c r="J24" t="n">
+        <v>22</v>
+      </c>
+      <c r="K24" t="n">
+        <v>22</v>
+      </c>
+      <c r="L24" t="n">
+        <v>22</v>
+      </c>
+      <c r="M24" t="n">
+        <v>22</v>
+      </c>
+      <c r="N24" t="n">
+        <v>22</v>
+      </c>
+      <c r="O24" t="inlineStr">
         <is>
           <t>hb48487636@hotmail.com----SCmj7843</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>hb48487636</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>3jzbSWxX3aB!</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="R24" t="inlineStr">
         <is>
           <t>cynthia</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="S24" t="inlineStr">
         <is>
           <t>shelton</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="T24" t="inlineStr">
         <is>
           <t>2150 NIAGARA CT</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="U24" t="inlineStr">
         <is>
           <t>ELGIN</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="V24" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="O24" t="n">
+      <c r="W24" t="n">
         <v>60123</v>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="X24" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="Q24" t="n">
+      <c r="Y24" t="n">
         <v>2076685222</v>
       </c>
-      <c r="R24" t="n">
+      <c r="Z24" t="n">
         <v>337663360</v>
       </c>
-      <c r="S24" t="inlineStr">
+      <c r="AA24" t="inlineStr">
         <is>
           <t>12/31/1968</t>
         </is>
       </c>
-      <c r="T24" t="n">
+      <c r="AB24" t="n">
         <v>4100</v>
       </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
         <v>4100</v>
       </c>
-      <c r="W24" t="n">
+      <c r="AE24" t="n">
         <v>254.2</v>
       </c>
-      <c r="X24" t="n">
+      <c r="AF24" t="n">
         <v>4100</v>
       </c>
-      <c r="Y24" t="n">
+      <c r="AG24" t="n">
         <v>59.45</v>
       </c>
-      <c r="Z24" t="inlineStr">
+      <c r="AH24" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
       </c>
-      <c r="AA24" t="n">
+      <c r="AI24" t="n">
         <v>4100</v>
       </c>
-      <c r="AB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC24" t="inlineStr"/>
-      <c r="AD24" t="inlineStr"/>
+      <c r="AJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -3123,98 +3775,122 @@
         <v>23</v>
       </c>
       <c r="F25" t="n">
-        <v>15</v>
-      </c>
-      <c r="G25" t="inlineStr">
+        <v>23</v>
+      </c>
+      <c r="G25" t="n">
+        <v>23</v>
+      </c>
+      <c r="H25" t="n">
+        <v>23</v>
+      </c>
+      <c r="I25" t="n">
+        <v>23</v>
+      </c>
+      <c r="J25" t="n">
+        <v>23</v>
+      </c>
+      <c r="K25" t="n">
+        <v>23</v>
+      </c>
+      <c r="L25" t="n">
+        <v>23</v>
+      </c>
+      <c r="M25" t="n">
+        <v>23</v>
+      </c>
+      <c r="N25" t="n">
+        <v>23</v>
+      </c>
+      <c r="O25" t="inlineStr">
         <is>
           <t>mqtngcvjynp@hotmail.com----fG4R99GGekb</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="P25" t="inlineStr">
         <is>
           <t>mqtngcvjynp</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>SSQW4u1r1aB!</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>James</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="S25" t="inlineStr">
         <is>
           <t>Roberts</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="T25" t="inlineStr">
         <is>
           <t>2710 E 79TH ST</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="U25" t="inlineStr">
         <is>
           <t>CHICAGO</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="V25" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="O25" t="n">
+      <c r="W25" t="n">
         <v>60649</v>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="X25" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="Q25" t="n">
+      <c r="Y25" t="n">
         <v>2076685223</v>
       </c>
-      <c r="R25" t="n">
+      <c r="Z25" t="n">
         <v>357683618</v>
       </c>
-      <c r="S25" t="inlineStr">
+      <c r="AA25" t="inlineStr">
         <is>
           <t>12/31/1969</t>
         </is>
       </c>
-      <c r="T25" t="n">
+      <c r="AB25" t="n">
         <v>4100</v>
       </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
         <v>4100</v>
       </c>
-      <c r="W25" t="n">
+      <c r="AE25" t="n">
         <v>254.2</v>
       </c>
-      <c r="X25" t="n">
+      <c r="AF25" t="n">
         <v>4100</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="AG25" t="n">
         <v>59.45</v>
       </c>
-      <c r="Z25" t="inlineStr">
+      <c r="AH25" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
       </c>
-      <c r="AA25" t="n">
+      <c r="AI25" t="n">
         <v>4100</v>
       </c>
-      <c r="AB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="inlineStr"/>
-      <c r="AD25" t="inlineStr"/>
+      <c r="AJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -3233,98 +3909,122 @@
         <v>24</v>
       </c>
       <c r="F26" t="n">
-        <v>16</v>
-      </c>
-      <c r="G26" t="inlineStr">
+        <v>24</v>
+      </c>
+      <c r="G26" t="n">
+        <v>24</v>
+      </c>
+      <c r="H26" t="n">
+        <v>24</v>
+      </c>
+      <c r="I26" t="n">
+        <v>24</v>
+      </c>
+      <c r="J26" t="n">
+        <v>24</v>
+      </c>
+      <c r="K26" t="n">
+        <v>24</v>
+      </c>
+      <c r="L26" t="n">
+        <v>24</v>
+      </c>
+      <c r="M26" t="n">
+        <v>24</v>
+      </c>
+      <c r="N26" t="n">
+        <v>24</v>
+      </c>
+      <c r="O26" t="inlineStr">
         <is>
           <t>uxtfwnd@hotmail.com----Dc6NktRpC</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="P26" t="inlineStr">
         <is>
           <t>uxtfwnd</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>51U3178a3178aB!</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="R26" t="inlineStr">
         <is>
           <t>Jonetta</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="S26" t="inlineStr">
         <is>
           <t>Holloway</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="T26" t="inlineStr">
         <is>
           <t>8245 S JUSTINE ST</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="U26" t="inlineStr">
         <is>
           <t>CHICAGO</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="V26" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="O26" t="n">
+      <c r="W26" t="n">
         <v>60620</v>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="X26" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="Q26" t="n">
+      <c r="Y26" t="n">
         <v>2076685224</v>
       </c>
-      <c r="R26" t="n">
+      <c r="Z26" t="n">
         <v>320766308</v>
       </c>
-      <c r="S26" t="inlineStr">
+      <c r="AA26" t="inlineStr">
         <is>
           <t>12/31/1969</t>
         </is>
       </c>
-      <c r="T26" t="n">
+      <c r="AB26" t="n">
         <v>4100</v>
       </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
         <v>4100</v>
       </c>
-      <c r="W26" t="n">
+      <c r="AE26" t="n">
         <v>254.2</v>
       </c>
-      <c r="X26" t="n">
+      <c r="AF26" t="n">
         <v>4100</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="AG26" t="n">
         <v>59.45</v>
       </c>
-      <c r="Z26" t="inlineStr">
+      <c r="AH26" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
       </c>
-      <c r="AA26" t="n">
+      <c r="AI26" t="n">
         <v>4100</v>
       </c>
-      <c r="AB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC26" t="inlineStr"/>
-      <c r="AD26" t="inlineStr"/>
+      <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="inlineStr"/>
+      <c r="AL26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -3343,98 +4043,122 @@
         <v>25</v>
       </c>
       <c r="F27" t="n">
-        <v>17</v>
-      </c>
-      <c r="G27" t="inlineStr">
+        <v>25</v>
+      </c>
+      <c r="G27" t="n">
+        <v>25</v>
+      </c>
+      <c r="H27" t="n">
+        <v>25</v>
+      </c>
+      <c r="I27" t="n">
+        <v>25</v>
+      </c>
+      <c r="J27" t="n">
+        <v>25</v>
+      </c>
+      <c r="K27" t="n">
+        <v>25</v>
+      </c>
+      <c r="L27" t="n">
+        <v>25</v>
+      </c>
+      <c r="M27" t="n">
+        <v>25</v>
+      </c>
+      <c r="N27" t="n">
+        <v>25</v>
+      </c>
+      <c r="O27" t="inlineStr">
         <is>
           <t>rvnyjbtrk@hotmail.com----wKsHDgSnUuU6</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="P27" t="inlineStr">
         <is>
           <t>rvnyjbtrk</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="Q27" t="inlineStr">
         <is>
           <t>ftxF6PMc!!</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="R27" t="inlineStr">
         <is>
           <t>Blanca</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="S27" t="inlineStr">
         <is>
           <t>Hinojosa</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="T27" t="inlineStr">
         <is>
           <t>615 LINDA LN</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="U27" t="inlineStr">
         <is>
           <t>LYNWOOD</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="V27" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="O27" t="n">
+      <c r="W27" t="n">
         <v>60411</v>
       </c>
-      <c r="P27" t="inlineStr">
+      <c r="X27" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="Q27" t="n">
+      <c r="Y27" t="n">
         <v>2076685225</v>
       </c>
-      <c r="R27" t="n">
+      <c r="Z27" t="n">
         <v>333821977</v>
       </c>
-      <c r="S27" t="inlineStr">
+      <c r="AA27" t="inlineStr">
         <is>
           <t>12/31/1969</t>
         </is>
       </c>
-      <c r="T27" t="n">
+      <c r="AB27" t="n">
         <v>4100</v>
       </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
         <v>4100</v>
       </c>
-      <c r="W27" t="n">
+      <c r="AE27" t="n">
         <v>254.2</v>
       </c>
-      <c r="X27" t="n">
+      <c r="AF27" t="n">
         <v>4100</v>
       </c>
-      <c r="Y27" t="n">
+      <c r="AG27" t="n">
         <v>59.45</v>
       </c>
-      <c r="Z27" t="inlineStr">
+      <c r="AH27" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
       </c>
-      <c r="AA27" t="n">
+      <c r="AI27" t="n">
         <v>4100</v>
       </c>
-      <c r="AB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="inlineStr"/>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -3453,98 +4177,122 @@
         <v>26</v>
       </c>
       <c r="F28" t="n">
-        <v>18</v>
-      </c>
-      <c r="G28" t="inlineStr">
+        <v>26</v>
+      </c>
+      <c r="G28" t="n">
+        <v>26</v>
+      </c>
+      <c r="H28" t="n">
+        <v>26</v>
+      </c>
+      <c r="I28" t="n">
+        <v>26</v>
+      </c>
+      <c r="J28" t="n">
+        <v>26</v>
+      </c>
+      <c r="K28" t="n">
+        <v>26</v>
+      </c>
+      <c r="L28" t="n">
+        <v>26</v>
+      </c>
+      <c r="M28" t="n">
+        <v>26</v>
+      </c>
+      <c r="N28" t="n">
+        <v>26</v>
+      </c>
+      <c r="O28" t="inlineStr">
         <is>
           <t>wttsnkbdsq@hotmail.com----BKgdvRwFQq4</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="P28" t="inlineStr">
         <is>
           <t>wttsnkbdsq</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="Q28" t="inlineStr">
         <is>
           <t>VTyx68461Aa!</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="R28" t="inlineStr">
         <is>
           <t>kera</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="S28" t="inlineStr">
         <is>
           <t>rhyan</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="T28" t="inlineStr">
         <is>
           <t>1720golfrd</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="U28" t="inlineStr">
         <is>
           <t>waukegan</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="V28" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="O28" t="n">
+      <c r="W28" t="n">
         <v>60085</v>
       </c>
-      <c r="P28" t="inlineStr">
+      <c r="X28" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="Q28" t="n">
+      <c r="Y28" t="n">
         <v>2076685226</v>
       </c>
-      <c r="R28" t="n">
+      <c r="Z28" t="n">
         <v>357583362</v>
       </c>
-      <c r="S28" t="inlineStr">
+      <c r="AA28" t="inlineStr">
         <is>
           <t>12/31/1971</t>
         </is>
       </c>
-      <c r="T28" t="n">
+      <c r="AB28" t="n">
         <v>4100</v>
       </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
         <v>4100</v>
       </c>
-      <c r="W28" t="n">
+      <c r="AE28" t="n">
         <v>254.2</v>
       </c>
-      <c r="X28" t="n">
+      <c r="AF28" t="n">
         <v>4100</v>
       </c>
-      <c r="Y28" t="n">
+      <c r="AG28" t="n">
         <v>59.45</v>
       </c>
-      <c r="Z28" t="inlineStr">
+      <c r="AH28" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
       </c>
-      <c r="AA28" t="n">
+      <c r="AI28" t="n">
         <v>4100</v>
       </c>
-      <c r="AB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="inlineStr"/>
+      <c r="AJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -3563,98 +4311,122 @@
         <v>27</v>
       </c>
       <c r="F29" t="n">
-        <v>19</v>
-      </c>
-      <c r="G29" t="inlineStr">
+        <v>27</v>
+      </c>
+      <c r="G29" t="n">
+        <v>27</v>
+      </c>
+      <c r="H29" t="n">
+        <v>27</v>
+      </c>
+      <c r="I29" t="n">
+        <v>27</v>
+      </c>
+      <c r="J29" t="n">
+        <v>27</v>
+      </c>
+      <c r="K29" t="n">
+        <v>27</v>
+      </c>
+      <c r="L29" t="n">
+        <v>27</v>
+      </c>
+      <c r="M29" t="n">
+        <v>27</v>
+      </c>
+      <c r="N29" t="n">
+        <v>27</v>
+      </c>
+      <c r="O29" t="inlineStr">
         <is>
           <t>tjwcvxex@hotmail.com----vYh4j9upY</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="P29" t="inlineStr">
         <is>
           <t>tjwcvxex</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="Q29" t="inlineStr">
         <is>
           <t>cBxYeBeTba91Aa!</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="R29" t="inlineStr">
         <is>
           <t>Stephanie</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="S29" t="inlineStr">
         <is>
           <t>Reed</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="T29" t="inlineStr">
         <is>
           <t>1415 SOUTH MILLARD AVE</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="U29" t="inlineStr">
         <is>
           <t>CHICAGO</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="V29" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="O29" t="n">
+      <c r="W29" t="n">
         <v>60623</v>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="X29" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="Q29" t="n">
+      <c r="Y29" t="n">
         <v>2076685227</v>
       </c>
-      <c r="R29" t="n">
+      <c r="Z29" t="n">
         <v>325662906</v>
       </c>
-      <c r="S29" t="inlineStr">
+      <c r="AA29" t="inlineStr">
         <is>
           <t>12/31/1973</t>
         </is>
       </c>
-      <c r="T29" t="n">
+      <c r="AB29" t="n">
         <v>4800</v>
       </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
         <v>4800</v>
       </c>
-      <c r="W29" t="n">
+      <c r="AE29" t="n">
         <v>297.6</v>
       </c>
-      <c r="X29" t="n">
+      <c r="AF29" t="n">
         <v>4800</v>
       </c>
-      <c r="Y29" t="n">
+      <c r="AG29" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="Z29" t="inlineStr">
+      <c r="AH29" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
       </c>
-      <c r="AA29" t="n">
+      <c r="AI29" t="n">
         <v>4800</v>
       </c>
-      <c r="AB29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="inlineStr"/>
+      <c r="AJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="inlineStr"/>
+      <c r="AL29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -3673,98 +4445,122 @@
         <v>28</v>
       </c>
       <c r="F30" t="n">
-        <v>20</v>
-      </c>
-      <c r="G30" t="inlineStr">
+        <v>28</v>
+      </c>
+      <c r="G30" t="n">
+        <v>28</v>
+      </c>
+      <c r="H30" t="n">
+        <v>28</v>
+      </c>
+      <c r="I30" t="n">
+        <v>28</v>
+      </c>
+      <c r="J30" t="n">
+        <v>28</v>
+      </c>
+      <c r="K30" t="n">
+        <v>28</v>
+      </c>
+      <c r="L30" t="n">
+        <v>28</v>
+      </c>
+      <c r="M30" t="n">
+        <v>28</v>
+      </c>
+      <c r="N30" t="n">
+        <v>28</v>
+      </c>
+      <c r="O30" t="inlineStr">
         <is>
           <t>sbvqavx4g@hotmail.com----mAcmPwEEh8</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="P30" t="inlineStr">
         <is>
           <t>sbvqavx4g</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="Q30" t="inlineStr">
         <is>
           <t>NjwH7Pqd7aB!</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="R30" t="inlineStr">
         <is>
           <t>STEPHANIE</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="S30" t="inlineStr">
         <is>
           <t>REED</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="T30" t="inlineStr">
         <is>
           <t>1415 S MILLARD AVE</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="U30" t="inlineStr">
         <is>
           <t>Chicago</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="V30" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="O30" t="n">
+      <c r="W30" t="n">
         <v>60623</v>
       </c>
-      <c r="P30" t="inlineStr">
+      <c r="X30" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="Q30" t="n">
+      <c r="Y30" t="n">
         <v>2076685228</v>
       </c>
-      <c r="R30" t="n">
+      <c r="Z30" t="n">
         <v>325662906</v>
       </c>
-      <c r="S30" t="inlineStr">
+      <c r="AA30" t="inlineStr">
         <is>
           <t>12/31/1973</t>
         </is>
       </c>
-      <c r="T30" t="n">
+      <c r="AB30" t="n">
         <v>4800</v>
       </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" t="n">
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
         <v>4800</v>
       </c>
-      <c r="W30" t="n">
+      <c r="AE30" t="n">
         <v>297.6</v>
       </c>
-      <c r="X30" t="n">
+      <c r="AF30" t="n">
         <v>4800</v>
       </c>
-      <c r="Y30" t="n">
+      <c r="AG30" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="Z30" t="inlineStr">
+      <c r="AH30" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
       </c>
-      <c r="AA30" t="n">
+      <c r="AI30" t="n">
         <v>4800</v>
       </c>
-      <c r="AB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC30" t="inlineStr"/>
-      <c r="AD30" t="inlineStr"/>
+      <c r="AJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -3783,96 +4579,120 @@
         <v>29</v>
       </c>
       <c r="F31" t="n">
-        <v>21</v>
-      </c>
-      <c r="G31" t="inlineStr">
+        <v>29</v>
+      </c>
+      <c r="G31" t="n">
+        <v>29</v>
+      </c>
+      <c r="H31" t="n">
+        <v>29</v>
+      </c>
+      <c r="I31" t="n">
+        <v>29</v>
+      </c>
+      <c r="J31" t="n">
+        <v>29</v>
+      </c>
+      <c r="K31" t="n">
+        <v>29</v>
+      </c>
+      <c r="L31" t="n">
+        <v>29</v>
+      </c>
+      <c r="M31" t="n">
+        <v>29</v>
+      </c>
+      <c r="N31" t="n">
+        <v>29</v>
+      </c>
+      <c r="O31" t="inlineStr">
         <is>
           <t>ntenwbc@hotmail.com----eJBpeY3jaE</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="P31" t="inlineStr">
         <is>
           <t>ntenwbc</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="Q31" t="inlineStr">
         <is>
           <t>V4fqrgrh4aB!</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="R31" t="inlineStr">
         <is>
           <t>Imogene</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="S31" t="inlineStr">
         <is>
           <t>Peretta</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="T31" t="inlineStr">
         <is>
           <t>1801 Lorry Lane Ne</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="U31" t="inlineStr">
         <is>
           <t>Rio Rancho</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="V31" t="inlineStr">
         <is>
           <t>NM</t>
         </is>
       </c>
-      <c r="O31" t="n">
+      <c r="W31" t="n">
         <v>87124</v>
       </c>
-      <c r="P31" t="inlineStr">
+      <c r="X31" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="Q31" t="n">
+      <c r="Y31" t="n">
         <v>6087837834</v>
       </c>
-      <c r="R31" t="n">
+      <c r="Z31" t="n">
         <v>345525854</v>
       </c>
-      <c r="S31" s="2" t="n">
+      <c r="AA31" s="2" t="n">
         <v>19980</v>
       </c>
-      <c r="T31" t="n">
+      <c r="AB31" t="n">
         <v>4800</v>
       </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="n">
         <v>4800</v>
       </c>
-      <c r="W31" t="n">
+      <c r="AE31" t="n">
         <v>297.6</v>
       </c>
-      <c r="X31" t="n">
+      <c r="AF31" t="n">
         <v>4800</v>
       </c>
-      <c r="Y31" t="n">
+      <c r="AG31" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="Z31" t="inlineStr">
+      <c r="AH31" t="inlineStr">
         <is>
           <t>New Mexico</t>
         </is>
       </c>
-      <c r="AA31" t="n">
+      <c r="AI31" t="n">
         <v>4800</v>
       </c>
-      <c r="AB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="inlineStr"/>
+      <c r="AJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="inlineStr"/>
+      <c r="AL31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -3891,96 +4711,120 @@
         <v>30</v>
       </c>
       <c r="F32" t="n">
-        <v>22</v>
-      </c>
-      <c r="G32" t="inlineStr">
+        <v>30</v>
+      </c>
+      <c r="G32" t="n">
+        <v>30</v>
+      </c>
+      <c r="H32" t="n">
+        <v>30</v>
+      </c>
+      <c r="I32" t="n">
+        <v>30</v>
+      </c>
+      <c r="J32" t="n">
+        <v>30</v>
+      </c>
+      <c r="K32" t="n">
+        <v>30</v>
+      </c>
+      <c r="L32" t="n">
+        <v>30</v>
+      </c>
+      <c r="M32" t="n">
+        <v>30</v>
+      </c>
+      <c r="N32" t="n">
+        <v>30</v>
+      </c>
+      <c r="O32" t="inlineStr">
         <is>
           <t>mgasbecgpd@hotmail.com----7TwU5MXcDh</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="P32" t="inlineStr">
         <is>
           <t>mgasbecgpd</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="Q32" t="inlineStr">
         <is>
           <t>jbiWypP77aB!</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="R32" t="inlineStr">
         <is>
           <t>Lynda</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="S32" t="inlineStr">
         <is>
           <t>Everman</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="T32" t="inlineStr">
         <is>
           <t>8100 Barstow St NE</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="U32" t="inlineStr">
         <is>
           <t>Albuquerque</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="V32" t="inlineStr">
         <is>
           <t>NM</t>
         </is>
       </c>
-      <c r="O32" t="n">
+      <c r="W32" t="n">
         <v>87122</v>
       </c>
-      <c r="P32" t="inlineStr">
+      <c r="X32" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="Q32" t="n">
+      <c r="Y32" t="n">
         <v>6306056893</v>
       </c>
-      <c r="R32" t="n">
+      <c r="Z32" t="n">
         <v>292422769</v>
       </c>
-      <c r="S32" s="2" t="n">
+      <c r="AA32" s="2" t="n">
         <v>17980</v>
       </c>
-      <c r="T32" t="n">
+      <c r="AB32" t="n">
         <v>4800</v>
       </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="n">
         <v>4800</v>
       </c>
-      <c r="W32" t="n">
+      <c r="AE32" t="n">
         <v>297.6</v>
       </c>
-      <c r="X32" t="n">
+      <c r="AF32" t="n">
         <v>4800</v>
       </c>
-      <c r="Y32" t="n">
+      <c r="AG32" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="Z32" t="inlineStr">
+      <c r="AH32" t="inlineStr">
         <is>
           <t>New Mexico</t>
         </is>
       </c>
-      <c r="AA32" t="n">
+      <c r="AI32" t="n">
         <v>4800</v>
       </c>
-      <c r="AB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC32" t="inlineStr"/>
-      <c r="AD32" t="inlineStr"/>
+      <c r="AJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="inlineStr"/>
+      <c r="AL32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -3999,96 +4843,120 @@
         <v>31</v>
       </c>
       <c r="F33" t="n">
-        <v>23</v>
-      </c>
-      <c r="G33" t="inlineStr">
+        <v>31</v>
+      </c>
+      <c r="G33" t="n">
+        <v>31</v>
+      </c>
+      <c r="H33" t="n">
+        <v>31</v>
+      </c>
+      <c r="I33" t="n">
+        <v>31</v>
+      </c>
+      <c r="J33" t="n">
+        <v>31</v>
+      </c>
+      <c r="K33" t="n">
+        <v>31</v>
+      </c>
+      <c r="L33" t="n">
+        <v>31</v>
+      </c>
+      <c r="M33" t="n">
+        <v>31</v>
+      </c>
+      <c r="N33" t="n">
+        <v>31</v>
+      </c>
+      <c r="O33" t="inlineStr">
         <is>
           <t>qygmegegt@hotmail.com----MPAXNEE9</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="P33" t="inlineStr">
         <is>
           <t>qygmegegt</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="Q33" t="inlineStr">
         <is>
           <t>r8BRF9WwYF!!</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="R33" t="inlineStr">
         <is>
           <t>Dwight J</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="S33" t="inlineStr">
         <is>
           <t>Eubanks</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="T33" t="inlineStr">
         <is>
           <t>29 Stadium</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
+      <c r="U33" t="inlineStr">
         <is>
           <t>Dulce</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="V33" t="inlineStr">
         <is>
           <t>NM</t>
         </is>
       </c>
-      <c r="O33" t="n">
+      <c r="W33" t="n">
         <v>87528</v>
       </c>
-      <c r="P33" t="inlineStr">
+      <c r="X33" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="Q33" t="n">
+      <c r="Y33" t="n">
         <v>6625284518</v>
       </c>
-      <c r="R33" t="n">
+      <c r="Z33" t="n">
         <v>587179514</v>
       </c>
-      <c r="S33" s="2" t="n">
+      <c r="AA33" s="2" t="n">
         <v>22107</v>
       </c>
-      <c r="T33" t="n">
+      <c r="AB33" t="n">
         <v>4800</v>
       </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" t="n">
+      <c r="AC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD33" t="n">
         <v>4800</v>
       </c>
-      <c r="W33" t="n">
+      <c r="AE33" t="n">
         <v>297.6</v>
       </c>
-      <c r="X33" t="n">
+      <c r="AF33" t="n">
         <v>4800</v>
       </c>
-      <c r="Y33" t="n">
+      <c r="AG33" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="Z33" t="inlineStr">
+      <c r="AH33" t="inlineStr">
         <is>
           <t>New Mexico</t>
         </is>
       </c>
-      <c r="AA33" t="n">
+      <c r="AI33" t="n">
         <v>4800</v>
       </c>
-      <c r="AB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC33" t="inlineStr"/>
-      <c r="AD33" t="inlineStr"/>
+      <c r="AJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK33" t="inlineStr"/>
+      <c r="AL33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -4107,96 +4975,120 @@
         <v>32</v>
       </c>
       <c r="F34" t="n">
-        <v>24</v>
-      </c>
-      <c r="G34" t="inlineStr">
+        <v>32</v>
+      </c>
+      <c r="G34" t="n">
+        <v>32</v>
+      </c>
+      <c r="H34" t="n">
+        <v>32</v>
+      </c>
+      <c r="I34" t="n">
+        <v>32</v>
+      </c>
+      <c r="J34" t="n">
+        <v>32</v>
+      </c>
+      <c r="K34" t="n">
+        <v>32</v>
+      </c>
+      <c r="L34" t="n">
+        <v>32</v>
+      </c>
+      <c r="M34" t="n">
+        <v>32</v>
+      </c>
+      <c r="N34" t="n">
+        <v>32</v>
+      </c>
+      <c r="O34" t="inlineStr">
         <is>
           <t>cqpgwjavf@hotmail.com----EfRx7mDEs</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="P34" t="inlineStr">
         <is>
           <t>cqpgwjavf</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="Q34" t="inlineStr">
         <is>
           <t>UpJDXLT88aB!</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="R34" t="inlineStr">
         <is>
           <t>Charles</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="S34" t="inlineStr">
         <is>
           <t>Field</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="T34" t="inlineStr">
         <is>
           <t>7950 N Rainbow Bl Apt 1204</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
+      <c r="U34" t="inlineStr">
         <is>
           <t>Las Vegas</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="V34" t="inlineStr">
         <is>
           <t>NM</t>
         </is>
       </c>
-      <c r="O34" t="n">
+      <c r="W34" t="n">
         <v>89108</v>
       </c>
-      <c r="P34" t="inlineStr">
+      <c r="X34" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="Q34" t="n">
+      <c r="Y34" t="n">
         <v>7022805588</v>
       </c>
-      <c r="R34" t="n">
+      <c r="Z34" t="n">
         <v>233629561</v>
       </c>
-      <c r="S34" s="2" t="n">
+      <c r="AA34" s="2" t="n">
         <v>15215</v>
       </c>
-      <c r="T34" t="n">
+      <c r="AB34" t="n">
         <v>4800</v>
       </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
+      <c r="AC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD34" t="n">
         <v>4800</v>
       </c>
-      <c r="W34" t="n">
+      <c r="AE34" t="n">
         <v>297.6</v>
       </c>
-      <c r="X34" t="n">
+      <c r="AF34" t="n">
         <v>4800</v>
       </c>
-      <c r="Y34" t="n">
+      <c r="AG34" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="Z34" t="inlineStr">
+      <c r="AH34" t="inlineStr">
         <is>
           <t>New Mexico</t>
         </is>
       </c>
-      <c r="AA34" t="n">
+      <c r="AI34" t="n">
         <v>4800</v>
       </c>
-      <c r="AB34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC34" t="inlineStr"/>
-      <c r="AD34" t="inlineStr"/>
+      <c r="AJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK34" t="inlineStr"/>
+      <c r="AL34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -4215,96 +5107,120 @@
         <v>33</v>
       </c>
       <c r="F35" t="n">
-        <v>25</v>
-      </c>
-      <c r="G35" t="inlineStr">
+        <v>33</v>
+      </c>
+      <c r="G35" t="n">
+        <v>33</v>
+      </c>
+      <c r="H35" t="n">
+        <v>33</v>
+      </c>
+      <c r="I35" t="n">
+        <v>33</v>
+      </c>
+      <c r="J35" t="n">
+        <v>33</v>
+      </c>
+      <c r="K35" t="n">
+        <v>33</v>
+      </c>
+      <c r="L35" t="n">
+        <v>33</v>
+      </c>
+      <c r="M35" t="n">
+        <v>33</v>
+      </c>
+      <c r="N35" t="n">
+        <v>33</v>
+      </c>
+      <c r="O35" t="inlineStr">
         <is>
           <t>bafgbthme@hotmail.com----UC554QhVr</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="P35" t="inlineStr">
         <is>
           <t>bafgbthme</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="Q35" t="inlineStr">
         <is>
           <t>5RLY5JxN5aB!</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="R35" t="inlineStr">
         <is>
           <t>rhonda</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="S35" t="inlineStr">
         <is>
           <t>pinkerton</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="T35" t="inlineStr">
         <is>
           <t>2712 w menefee</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
+      <c r="U35" t="inlineStr">
         <is>
           <t>artesiaArtesia</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="V35" t="inlineStr">
         <is>
           <t>NM</t>
         </is>
       </c>
-      <c r="O35" t="n">
+      <c r="W35" t="n">
         <v>88210</v>
       </c>
-      <c r="P35" t="inlineStr">
+      <c r="X35" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="Q35" t="n">
+      <c r="Y35" t="n">
         <v>7024014318</v>
       </c>
-      <c r="R35" t="n">
+      <c r="Z35" t="n">
         <v>358528005</v>
       </c>
-      <c r="S35" s="2" t="n">
+      <c r="AA35" s="2" t="n">
         <v>21992</v>
       </c>
-      <c r="T35" t="n">
+      <c r="AB35" t="n">
         <v>4800</v>
       </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
+      <c r="AC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" t="n">
         <v>4800</v>
       </c>
-      <c r="W35" t="n">
+      <c r="AE35" t="n">
         <v>297.6</v>
       </c>
-      <c r="X35" t="n">
+      <c r="AF35" t="n">
         <v>4800</v>
       </c>
-      <c r="Y35" t="n">
+      <c r="AG35" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="Z35" t="inlineStr">
+      <c r="AH35" t="inlineStr">
         <is>
           <t>New Mexico</t>
         </is>
       </c>
-      <c r="AA35" t="n">
+      <c r="AI35" t="n">
         <v>4800</v>
       </c>
-      <c r="AB35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC35" t="inlineStr"/>
-      <c r="AD35" t="inlineStr"/>
+      <c r="AJ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK35" t="inlineStr"/>
+      <c r="AL35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -4323,96 +5239,120 @@
         <v>34</v>
       </c>
       <c r="F36" t="n">
-        <v>26</v>
-      </c>
-      <c r="G36" t="inlineStr">
+        <v>34</v>
+      </c>
+      <c r="G36" t="n">
+        <v>34</v>
+      </c>
+      <c r="H36" t="n">
+        <v>34</v>
+      </c>
+      <c r="I36" t="n">
+        <v>34</v>
+      </c>
+      <c r="J36" t="n">
+        <v>34</v>
+      </c>
+      <c r="K36" t="n">
+        <v>34</v>
+      </c>
+      <c r="L36" t="n">
+        <v>34</v>
+      </c>
+      <c r="M36" t="n">
+        <v>34</v>
+      </c>
+      <c r="N36" t="n">
+        <v>34</v>
+      </c>
+      <c r="O36" t="inlineStr">
         <is>
           <t>ckjpatwkfh@hotmail.com----MWSb5nWF</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="P36" t="inlineStr">
         <is>
           <t>ckjpatwkfh</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="Q36" t="inlineStr">
         <is>
           <t>v55SdtnF55aB!</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="R36" t="inlineStr">
         <is>
           <t>Wendy</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="S36" t="inlineStr">
         <is>
           <t>Phelps</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="T36" t="inlineStr">
         <is>
           <t>724 Cordova Pl Nw</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
+      <c r="U36" t="inlineStr">
         <is>
           <t>Albuquerque</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="V36" t="inlineStr">
         <is>
           <t>NM</t>
         </is>
       </c>
-      <c r="O36" t="n">
+      <c r="W36" t="n">
         <v>87107</v>
       </c>
-      <c r="P36" t="inlineStr">
+      <c r="X36" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="Q36" t="n">
+      <c r="Y36" t="n">
         <v>7024605469</v>
       </c>
-      <c r="R36" t="n">
+      <c r="Z36" t="n">
         <v>335448558</v>
       </c>
-      <c r="S36" s="2" t="n">
+      <c r="AA36" s="2" t="n">
         <v>19150</v>
       </c>
-      <c r="T36" t="n">
+      <c r="AB36" t="n">
         <v>4800</v>
       </c>
-      <c r="U36" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" t="n">
+      <c r="AC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD36" t="n">
         <v>4800</v>
       </c>
-      <c r="W36" t="n">
+      <c r="AE36" t="n">
         <v>297.6</v>
       </c>
-      <c r="X36" t="n">
+      <c r="AF36" t="n">
         <v>4800</v>
       </c>
-      <c r="Y36" t="n">
+      <c r="AG36" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="Z36" t="inlineStr">
+      <c r="AH36" t="inlineStr">
         <is>
           <t>New Mexico</t>
         </is>
       </c>
-      <c r="AA36" t="n">
+      <c r="AI36" t="n">
         <v>4800</v>
       </c>
-      <c r="AB36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC36" t="inlineStr"/>
-      <c r="AD36" t="inlineStr"/>
+      <c r="AJ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK36" t="inlineStr"/>
+      <c r="AL36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -4431,96 +5371,120 @@
         <v>35</v>
       </c>
       <c r="F37" t="n">
-        <v>27</v>
-      </c>
-      <c r="G37" t="inlineStr">
+        <v>35</v>
+      </c>
+      <c r="G37" t="n">
+        <v>35</v>
+      </c>
+      <c r="H37" t="n">
+        <v>35</v>
+      </c>
+      <c r="I37" t="n">
+        <v>35</v>
+      </c>
+      <c r="J37" t="n">
+        <v>35</v>
+      </c>
+      <c r="K37" t="n">
+        <v>35</v>
+      </c>
+      <c r="L37" t="n">
+        <v>35</v>
+      </c>
+      <c r="M37" t="n">
+        <v>35</v>
+      </c>
+      <c r="N37" t="n">
+        <v>35</v>
+      </c>
+      <c r="O37" t="inlineStr">
         <is>
           <t>jfawtuahe@hotmail.com----V7SFR8rT</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="P37" t="inlineStr">
         <is>
           <t>jfawtuahe</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="Q37" t="inlineStr">
         <is>
           <t>F61SmWJD61aB!</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="R37" t="inlineStr">
         <is>
           <t>Sheree</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="S37" t="inlineStr">
         <is>
           <t>Price</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="T37" t="inlineStr">
         <is>
           <t>20 CO. RD. 5415</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
+      <c r="U37" t="inlineStr">
         <is>
           <t>BLOOMFIELD</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="V37" t="inlineStr">
         <is>
           <t>NM</t>
         </is>
       </c>
-      <c r="O37" t="n">
+      <c r="W37" t="n">
         <v>87413</v>
       </c>
-      <c r="P37" t="inlineStr">
+      <c r="X37" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="Q37" t="n">
+      <c r="Y37" t="n">
         <v>7196804376</v>
       </c>
-      <c r="R37" t="n">
+      <c r="Z37" t="n">
         <v>526255989</v>
       </c>
-      <c r="S37" s="2" t="n">
+      <c r="AA37" s="2" t="n">
         <v>21104</v>
       </c>
-      <c r="T37" t="n">
+      <c r="AB37" t="n">
         <v>4800</v>
       </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
+      <c r="AC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD37" t="n">
         <v>4800</v>
       </c>
-      <c r="W37" t="n">
+      <c r="AE37" t="n">
         <v>297.6</v>
       </c>
-      <c r="X37" t="n">
+      <c r="AF37" t="n">
         <v>4800</v>
       </c>
-      <c r="Y37" t="n">
+      <c r="AG37" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="Z37" t="inlineStr">
+      <c r="AH37" t="inlineStr">
         <is>
           <t>New Mexico</t>
         </is>
       </c>
-      <c r="AA37" t="n">
+      <c r="AI37" t="n">
         <v>4800</v>
       </c>
-      <c r="AB37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC37" t="inlineStr"/>
-      <c r="AD37" t="inlineStr"/>
+      <c r="AJ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK37" t="inlineStr"/>
+      <c r="AL37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -4539,96 +5503,120 @@
         <v>36</v>
       </c>
       <c r="F38" t="n">
-        <v>28</v>
-      </c>
-      <c r="G38" t="inlineStr">
+        <v>36</v>
+      </c>
+      <c r="G38" t="n">
+        <v>36</v>
+      </c>
+      <c r="H38" t="n">
+        <v>36</v>
+      </c>
+      <c r="I38" t="n">
+        <v>36</v>
+      </c>
+      <c r="J38" t="n">
+        <v>36</v>
+      </c>
+      <c r="K38" t="n">
+        <v>36</v>
+      </c>
+      <c r="L38" t="n">
+        <v>36</v>
+      </c>
+      <c r="M38" t="n">
+        <v>36</v>
+      </c>
+      <c r="N38" t="n">
+        <v>36</v>
+      </c>
+      <c r="O38" t="inlineStr">
         <is>
           <t>skdeqq@hotmail.com----tE5DwUFyb5G</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="P38" t="inlineStr">
         <is>
           <t>skdeqq</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="Q38" t="inlineStr">
         <is>
           <t>uExRQeSqnQV4!!</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="R38" t="inlineStr">
         <is>
           <t>johnny</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="S38" t="inlineStr">
         <is>
           <t>lewis</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="T38" t="inlineStr">
         <is>
           <t>7905Southerns.e</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
+      <c r="U38" t="inlineStr">
         <is>
           <t>albuqurrque</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr">
+      <c r="V38" t="inlineStr">
         <is>
           <t>NM</t>
         </is>
       </c>
-      <c r="O38" t="n">
+      <c r="W38" t="n">
         <v>87108</v>
       </c>
-      <c r="P38" t="inlineStr">
+      <c r="X38" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="Q38" t="n">
+      <c r="Y38" t="n">
         <v>7202151215</v>
       </c>
-      <c r="R38" t="n">
+      <c r="Z38" t="n">
         <v>585608513</v>
       </c>
-      <c r="S38" s="2" t="n">
+      <c r="AA38" s="2" t="n">
         <v>20913</v>
       </c>
-      <c r="T38" t="n">
+      <c r="AB38" t="n">
         <v>4800</v>
       </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
+      <c r="AC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD38" t="n">
         <v>4800</v>
       </c>
-      <c r="W38" t="n">
+      <c r="AE38" t="n">
         <v>297.6</v>
       </c>
-      <c r="X38" t="n">
+      <c r="AF38" t="n">
         <v>4800</v>
       </c>
-      <c r="Y38" t="n">
+      <c r="AG38" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="Z38" t="inlineStr">
+      <c r="AH38" t="inlineStr">
         <is>
           <t>New Mexico</t>
         </is>
       </c>
-      <c r="AA38" t="n">
+      <c r="AI38" t="n">
         <v>4800</v>
       </c>
-      <c r="AB38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC38" t="inlineStr"/>
-      <c r="AD38" t="inlineStr"/>
+      <c r="AJ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK38" t="inlineStr"/>
+      <c r="AL38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -4647,96 +5635,120 @@
         <v>37</v>
       </c>
       <c r="F39" t="n">
-        <v>29</v>
-      </c>
-      <c r="G39" t="inlineStr">
+        <v>37</v>
+      </c>
+      <c r="G39" t="n">
+        <v>37</v>
+      </c>
+      <c r="H39" t="n">
+        <v>37</v>
+      </c>
+      <c r="I39" t="n">
+        <v>37</v>
+      </c>
+      <c r="J39" t="n">
+        <v>37</v>
+      </c>
+      <c r="K39" t="n">
+        <v>37</v>
+      </c>
+      <c r="L39" t="n">
+        <v>37</v>
+      </c>
+      <c r="M39" t="n">
+        <v>37</v>
+      </c>
+      <c r="N39" t="n">
+        <v>37</v>
+      </c>
+      <c r="O39" t="inlineStr">
         <is>
           <t>gxdyfsf@hotmail.com----AeJbtXwaS8</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="P39" t="inlineStr">
         <is>
           <t>gxdyfsf</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="Q39" t="inlineStr">
         <is>
           <t>M2C1KM3b3aB!</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="R39" t="inlineStr">
         <is>
           <t>JAYNE</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="S39" t="inlineStr">
         <is>
           <t>LONG</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="T39" t="inlineStr">
         <is>
           <t>3207 BLUE HILL</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr">
+      <c r="U39" t="inlineStr">
         <is>
           <t>Gallup</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr">
+      <c r="V39" t="inlineStr">
         <is>
           <t>NM</t>
         </is>
       </c>
-      <c r="O39" t="n">
+      <c r="W39" t="n">
         <v>87301</v>
       </c>
-      <c r="P39" t="inlineStr">
+      <c r="X39" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="Q39" t="n">
+      <c r="Y39" t="n">
         <v>7732308558</v>
       </c>
-      <c r="R39" t="n">
+      <c r="Z39" t="n">
         <v>529700346</v>
       </c>
-      <c r="S39" s="2" t="n">
+      <c r="AA39" s="2" t="n">
         <v>18615</v>
       </c>
-      <c r="T39" t="n">
+      <c r="AB39" t="n">
         <v>4800</v>
       </c>
-      <c r="U39" t="n">
-        <v>0</v>
-      </c>
-      <c r="V39" t="n">
+      <c r="AC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD39" t="n">
         <v>4800</v>
       </c>
-      <c r="W39" t="n">
+      <c r="AE39" t="n">
         <v>297.6</v>
       </c>
-      <c r="X39" t="n">
+      <c r="AF39" t="n">
         <v>4800</v>
       </c>
-      <c r="Y39" t="n">
+      <c r="AG39" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="Z39" t="inlineStr">
+      <c r="AH39" t="inlineStr">
         <is>
           <t>New Mexico</t>
         </is>
       </c>
-      <c r="AA39" t="n">
+      <c r="AI39" t="n">
         <v>4800</v>
       </c>
-      <c r="AB39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC39" t="inlineStr"/>
-      <c r="AD39" t="inlineStr"/>
+      <c r="AJ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK39" t="inlineStr"/>
+      <c r="AL39" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/file/账号信息.xlsx
+++ b/file/账号信息.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL39"/>
+  <dimension ref="A1:BG39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,167 +440,272 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.33</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.32</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.31</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.30</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.29</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.28</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.27</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.26</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.25</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.24</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.23</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.22</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.21</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.20</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.19</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.18</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.17</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.16</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.15</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.14</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.13</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 0.12</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.11</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.10</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.9</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.8</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.7</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.6</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.5</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.4</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.3</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.2</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.1</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>邮箱----密码</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>账号</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>密码</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>名</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>姓</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>街道</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>城市</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>州</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>邮编</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>工作</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>电话</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>社保号</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>生日</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="AW1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AX1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AD1" s="1" t="n">
+      <c r="AY1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AE1" s="1" t="n">
+      <c r="AZ1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="AF1" s="1" t="n">
+      <c r="BA1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="AG1" s="1" t="n">
+      <c r="BB1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="AH1" s="1" t="n">
+      <c r="BC1" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="AI1" s="1" t="n">
+      <c r="BD1" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="AJ1" s="1" t="n">
+      <c r="BE1" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>is_completed</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>user_id</t>
         </is>
@@ -649,96 +754,159 @@
       <c r="N2" t="n">
         <v>0</v>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="inlineStr">
         <is>
           <t>qrmhayfbsyc@hotmail.com----CFQCPD76J</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>WARNER2906</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>XxESMRA88aB!</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>WARNER</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>EVANS</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>7722 HANOVER PARKWAY APT 203</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>GREENBELT</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>MD</t>
         </is>
       </c>
-      <c r="W2" t="n">
+      <c r="AR2" t="n">
         <v>20770</v>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AS2" t="inlineStr">
         <is>
           <t>Student</t>
         </is>
       </c>
-      <c r="Y2" t="n">
+      <c r="AT2" t="n">
         <v>2027506718</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AU2" t="n">
         <v>218596092</v>
       </c>
-      <c r="AA2" s="2" t="n">
+      <c r="AV2" s="2" t="n">
         <v>36920</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AW2" t="n">
         <v>3500</v>
       </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="n">
         <v>3500</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AZ2" t="n">
         <v>217</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="BA2" t="n">
         <v>3500</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="BB2" t="n">
         <v>50.75</v>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="BC2" t="inlineStr">
         <is>
           <t>Maryland</t>
         </is>
       </c>
-      <c r="AI2" t="n">
+      <c r="BD2" t="n">
         <v>3500</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="inlineStr">
+      <c r="BE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG2" t="inlineStr">
         <is>
           <t>j691sg6</t>
         </is>
@@ -787,96 +955,159 @@
       <c r="N3" t="n">
         <v>1</v>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ3" t="inlineStr">
         <is>
           <t>qchgtn@hotmail.com----TuKPtxeU8g</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>SAJRATU0804</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>XYnm67661Aa!</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>SAJRATU</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>SAMURA</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
         <is>
           <t>900 GOOD HOPE DR</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>SILVER SPRING</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>MD</t>
         </is>
       </c>
-      <c r="W3" t="n">
+      <c r="AR3" t="n">
         <v>20905</v>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AS3" t="inlineStr">
         <is>
           <t>Student</t>
         </is>
       </c>
-      <c r="Y3" t="n">
+      <c r="AT3" t="n">
         <v>2027506719</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AU3" t="n">
         <v>339024080</v>
       </c>
-      <c r="AA3" s="2" t="n">
+      <c r="AV3" s="2" t="n">
         <v>37362</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AW3" t="n">
         <v>3500</v>
       </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
         <v>3500</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AZ3" t="n">
         <v>217</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="BA3" t="n">
         <v>3500</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="BB3" t="n">
         <v>50.75</v>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="BC3" t="inlineStr">
         <is>
           <t>Maryland</t>
         </is>
       </c>
-      <c r="AI3" t="n">
+      <c r="BD3" t="n">
         <v>3500</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="b">
+      <c r="BE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" t="b">
         <v>1</v>
       </c>
-      <c r="AL3" t="inlineStr"/>
+      <c r="BG3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -921,96 +1152,159 @@
       <c r="N4" t="n">
         <v>2</v>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ4" t="inlineStr">
         <is>
           <t>hgvn4nfjs@hotmail.com----mxjhshPYxw3</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>CORINNE7925</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>XYnm67662Aa!</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>CORINNE</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>NEUMAN</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
         <is>
           <t>9213 ANNAPOLIS AVE</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AP4" t="inlineStr">
         <is>
           <t>NORTH BEACH</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>MD</t>
         </is>
       </c>
-      <c r="W4" t="n">
+      <c r="AR4" t="n">
         <v>20714</v>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="AS4" t="inlineStr">
         <is>
           <t>Student</t>
         </is>
       </c>
-      <c r="Y4" t="n">
+      <c r="AT4" t="n">
         <v>2027506720</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AU4" t="n">
         <v>217575297</v>
       </c>
-      <c r="AA4" s="2" t="n">
+      <c r="AV4" s="2" t="n">
         <v>36640</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AW4" t="n">
         <v>3500</v>
       </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
+      <c r="AX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" t="n">
         <v>3500</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AZ4" t="n">
         <v>217</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="BA4" t="n">
         <v>3500</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="BB4" t="n">
         <v>50.75</v>
       </c>
-      <c r="AH4" t="inlineStr">
+      <c r="BC4" t="inlineStr">
         <is>
           <t>Maryland</t>
         </is>
       </c>
-      <c r="AI4" t="n">
+      <c r="BD4" t="n">
         <v>3500</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL4" t="inlineStr">
+      <c r="BE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG4" t="inlineStr">
         <is>
           <t>j692m4e</t>
         </is>
@@ -1059,96 +1353,159 @@
       <c r="N5" t="n">
         <v>3</v>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3</v>
+      </c>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>3</v>
+      </c>
+      <c r="W5" t="n">
+        <v>3</v>
+      </c>
+      <c r="X5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ5" t="inlineStr">
         <is>
           <t>bysgpkf@hotmail.com----69FF3RY3</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>JOSUE9295</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>XYnm67663Aa!</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>JOSUE</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>CERN</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
         <is>
           <t>603 SLIGO AVE APT 513</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AP5" t="inlineStr">
         <is>
           <t>SILVER SPRING</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>MD</t>
         </is>
       </c>
-      <c r="W5" t="n">
+      <c r="AR5" t="n">
         <v>20910</v>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="AS5" t="inlineStr">
         <is>
           <t>Student</t>
         </is>
       </c>
-      <c r="Y5" t="n">
+      <c r="AT5" t="n">
         <v>2027506721</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AU5" t="n">
         <v>218595929</v>
       </c>
-      <c r="AA5" s="2" t="n">
+      <c r="AV5" s="2" t="n">
         <v>36926</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AW5" t="n">
         <v>3500</v>
       </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
+      <c r="AX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="n">
         <v>3500</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AZ5" t="n">
         <v>217</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="BA5" t="n">
         <v>3500</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="BB5" t="n">
         <v>50.75</v>
       </c>
-      <c r="AH5" t="inlineStr">
+      <c r="BC5" t="inlineStr">
         <is>
           <t>Maryland</t>
         </is>
       </c>
-      <c r="AI5" t="n">
+      <c r="BD5" t="n">
         <v>3500</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="b">
+      <c r="BE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF5" t="b">
         <v>1</v>
       </c>
-      <c r="AL5" t="inlineStr">
+      <c r="BG5" t="inlineStr">
         <is>
           <t>j698lt0</t>
         </is>
@@ -1197,96 +1554,159 @@
       <c r="N6" t="n">
         <v>4</v>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="O6" t="n">
+        <v>4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>4</v>
+      </c>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>4</v>
+      </c>
+      <c r="W6" t="n">
+        <v>4</v>
+      </c>
+      <c r="X6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ6" t="inlineStr">
         <is>
           <t>tuhmkgysy@hotmail.com----bydyJJ9N3G</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>GEORGE7391</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>XYnm67664Aa!</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>GEORGE</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>ESSEL</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
         <is>
           <t>15722 ERWIN COURT</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AP6" t="inlineStr">
         <is>
           <t>BOWIE</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>MD</t>
         </is>
       </c>
-      <c r="W6" t="n">
+      <c r="AR6" t="n">
         <v>20716</v>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="AS6" t="inlineStr">
         <is>
           <t>Student</t>
         </is>
       </c>
-      <c r="Y6" t="n">
+      <c r="AT6" t="n">
         <v>2027506722</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AU6" t="n">
         <v>213631937</v>
       </c>
-      <c r="AA6" s="2" t="n">
+      <c r="AV6" s="2" t="n">
         <v>37319</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AW6" t="n">
         <v>3500</v>
       </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
+      <c r="AX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY6" t="n">
         <v>3500</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AZ6" t="n">
         <v>217</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="BA6" t="n">
         <v>3500</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="BB6" t="n">
         <v>50.75</v>
       </c>
-      <c r="AH6" t="inlineStr">
+      <c r="BC6" t="inlineStr">
         <is>
           <t>Maryland</t>
         </is>
       </c>
-      <c r="AI6" t="n">
+      <c r="BD6" t="n">
         <v>3500</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL6" t="inlineStr">
+      <c r="BE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG6" t="inlineStr">
         <is>
           <t>j6am5o0</t>
         </is>
@@ -1335,96 +1755,159 @@
       <c r="N7" t="n">
         <v>5</v>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="O7" t="n">
+        <v>5</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="n">
+        <v>5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>5</v>
+      </c>
+      <c r="W7" t="n">
+        <v>5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ7" t="inlineStr">
         <is>
           <t>vfmfdcjefy@hotmail.com----HBrfYMuYdU8</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>SABRINA8281</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>XYnm67665Aa!</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>SABRINA</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>THIPWONG</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
         <is>
           <t>489 BRONCO TRL</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AP7" t="inlineStr">
         <is>
           <t>LUSBY</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>MD</t>
         </is>
       </c>
-      <c r="W7" t="n">
+      <c r="AR7" t="n">
         <v>20657</v>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AS7" t="inlineStr">
         <is>
           <t>Student</t>
         </is>
       </c>
-      <c r="Y7" t="n">
+      <c r="AT7" t="n">
         <v>2027506723</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AU7" t="n">
         <v>214631828</v>
       </c>
-      <c r="AA7" s="2" t="n">
+      <c r="AV7" s="2" t="n">
         <v>37270</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AW7" t="n">
         <v>3500</v>
       </c>
-      <c r="AC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="n">
+      <c r="AX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" t="n">
         <v>3500</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AZ7" t="n">
         <v>217</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="BA7" t="n">
         <v>3500</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="BB7" t="n">
         <v>50.75</v>
       </c>
-      <c r="AH7" t="inlineStr">
+      <c r="BC7" t="inlineStr">
         <is>
           <t>Maryland</t>
         </is>
       </c>
-      <c r="AI7" t="n">
+      <c r="BD7" t="n">
         <v>3500</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK7" t="b">
+      <c r="BE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF7" t="b">
         <v>1</v>
       </c>
-      <c r="AL7" t="inlineStr">
+      <c r="BG7" t="inlineStr">
         <is>
           <t>j6amk9y</t>
         </is>
@@ -1473,98 +1956,161 @@
       <c r="N8" t="n">
         <v>6</v>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="O8" t="n">
+        <v>6</v>
+      </c>
+      <c r="P8" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S8" t="n">
+        <v>6</v>
+      </c>
+      <c r="T8" t="n">
+        <v>6</v>
+      </c>
+      <c r="U8" t="n">
+        <v>6</v>
+      </c>
+      <c r="V8" t="n">
+        <v>6</v>
+      </c>
+      <c r="W8" t="n">
+        <v>6</v>
+      </c>
+      <c r="X8" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ8" t="inlineStr">
         <is>
           <t>jqsqwg@hotmail.com----vUVDx4eMBp</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>AUGUSTINE2822</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>XYnm67666Aa!</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>AUGUSTINE</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>NDUKWE</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
         <is>
           <t>1734 WESTON AVE</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AP8" t="inlineStr">
         <is>
           <t>PARKVILLE</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>MD</t>
         </is>
       </c>
-      <c r="W8" t="n">
+      <c r="AR8" t="n">
         <v>21234</v>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="AS8" t="inlineStr">
         <is>
           <t>Student</t>
         </is>
       </c>
-      <c r="Y8" t="n">
+      <c r="AT8" t="n">
         <v>2027506724</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AU8" t="n">
         <v>220592282</v>
       </c>
-      <c r="AA8" s="2" t="n">
+      <c r="AV8" s="2" t="n">
         <v>36951</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AW8" t="n">
         <v>3500</v>
       </c>
-      <c r="AC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="n">
+      <c r="AX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="n">
         <v>3500</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AZ8" t="n">
         <v>217</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="BA8" t="n">
         <v>3500</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="BB8" t="n">
         <v>50.75</v>
       </c>
-      <c r="AH8" t="inlineStr">
+      <c r="BC8" t="inlineStr">
         <is>
           <t>Maryland</t>
         </is>
       </c>
-      <c r="AI8" t="n">
+      <c r="BD8" t="n">
         <v>3500</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK8" t="inlineStr">
+      <c r="BE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF8" t="inlineStr">
         <is>
           <t>NOT</t>
         </is>
       </c>
-      <c r="AL8" t="inlineStr"/>
+      <c r="BG8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1609,98 +2155,161 @@
       <c r="N9" t="n">
         <v>7</v>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="O9" t="n">
+        <v>7</v>
+      </c>
+      <c r="P9" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>7</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7</v>
+      </c>
+      <c r="S9" t="n">
+        <v>7</v>
+      </c>
+      <c r="T9" t="n">
+        <v>7</v>
+      </c>
+      <c r="U9" t="n">
+        <v>7</v>
+      </c>
+      <c r="V9" t="n">
+        <v>7</v>
+      </c>
+      <c r="W9" t="n">
+        <v>7</v>
+      </c>
+      <c r="X9" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ9" t="inlineStr">
         <is>
           <t>ah6tuwjwa@hotmail.com----sbUEjWpF8</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>KRISTINA17470</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>XYnm67667Aa!</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>KRISTINA</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>DAVIS</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>46645 MIDWAY DR</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>LEXINGTON PARK</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>MD</t>
         </is>
       </c>
-      <c r="W9" t="n">
+      <c r="AR9" t="n">
         <v>20653</v>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AS9" t="inlineStr">
         <is>
           <t>Student</t>
         </is>
       </c>
-      <c r="Y9" t="n">
+      <c r="AT9" t="n">
         <v>2027506725</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AU9" t="n">
         <v>172807471</v>
       </c>
-      <c r="AA9" s="2" t="n">
+      <c r="AV9" s="2" t="n">
         <v>37373</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AW9" t="n">
         <v>3500</v>
       </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
+      <c r="AX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" t="n">
         <v>3500</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AZ9" t="n">
         <v>217</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="BA9" t="n">
         <v>3500</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="BB9" t="n">
         <v>50.75</v>
       </c>
-      <c r="AH9" t="inlineStr">
+      <c r="BC9" t="inlineStr">
         <is>
           <t>Maryland</t>
         </is>
       </c>
-      <c r="AI9" t="n">
+      <c r="BD9" t="n">
         <v>3500</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="inlineStr">
+      <c r="BE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF9" t="inlineStr">
         <is>
           <t>NOT</t>
         </is>
       </c>
-      <c r="AL9" t="inlineStr"/>
+      <c r="BG9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1745,98 +2354,161 @@
       <c r="N10" t="n">
         <v>8</v>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="O10" t="n">
+        <v>8</v>
+      </c>
+      <c r="P10" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>8</v>
+      </c>
+      <c r="R10" t="n">
+        <v>8</v>
+      </c>
+      <c r="S10" t="n">
+        <v>8</v>
+      </c>
+      <c r="T10" t="n">
+        <v>8</v>
+      </c>
+      <c r="U10" t="n">
+        <v>8</v>
+      </c>
+      <c r="V10" t="n">
+        <v>8</v>
+      </c>
+      <c r="W10" t="n">
+        <v>8</v>
+      </c>
+      <c r="X10" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ10" t="inlineStr">
         <is>
           <t>puuhxwbmts@hotmail.com----Mc7FxjqR</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>puuhxwbmts</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>XxESMRA88aB!</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>Ciara</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>Bonilla McChesney</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
         <is>
           <t>3704 Parkwood Street</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AP10" t="inlineStr">
         <is>
           <t>Cottage City</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
         <is>
           <t>MD</t>
         </is>
       </c>
-      <c r="W10" t="n">
+      <c r="AR10" t="n">
         <v>20722</v>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AS10" t="inlineStr">
         <is>
           <t>interns</t>
         </is>
       </c>
-      <c r="Y10" t="n">
+      <c r="AT10" t="n">
         <v>2027506717</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AU10" t="n">
         <v>212697587</v>
       </c>
-      <c r="AA10" s="2" t="n">
+      <c r="AV10" s="2" t="n">
         <v>37985</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AW10" t="n">
         <v>3500</v>
       </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
+      <c r="AX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" t="n">
         <v>3500</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AZ10" t="n">
         <v>217</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="BA10" t="n">
         <v>3500</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="BB10" t="n">
         <v>50.75</v>
       </c>
-      <c r="AH10" t="inlineStr">
+      <c r="BC10" t="inlineStr">
         <is>
           <t>Maryland</t>
         </is>
       </c>
-      <c r="AI10" t="n">
+      <c r="BD10" t="n">
         <v>3500</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="inlineStr">
+      <c r="BE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF10" t="inlineStr">
         <is>
           <t>j62tj0p</t>
         </is>
       </c>
-      <c r="AL10" t="inlineStr"/>
+      <c r="BG10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1881,96 +2553,159 @@
       <c r="N11" t="n">
         <v>9</v>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="O11" t="n">
+        <v>9</v>
+      </c>
+      <c r="P11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9</v>
+      </c>
+      <c r="R11" t="n">
+        <v>9</v>
+      </c>
+      <c r="S11" t="n">
+        <v>9</v>
+      </c>
+      <c r="T11" t="n">
+        <v>9</v>
+      </c>
+      <c r="U11" t="n">
+        <v>9</v>
+      </c>
+      <c r="V11" t="n">
+        <v>9</v>
+      </c>
+      <c r="W11" t="n">
+        <v>9</v>
+      </c>
+      <c r="X11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ11" t="inlineStr">
         <is>
           <t>mqejhqkwa@hotmail.com----cnxjyCMeKAG4</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="AK11" t="inlineStr">
         <is>
           <t>mqejhqkwa</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>XYnm67661Aa!</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>Kaylee</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>Ostrye</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
         <is>
           <t>305 Clopston Hill</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AP11" t="inlineStr">
         <is>
           <t>Annapolis</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
         <is>
           <t>MD</t>
         </is>
       </c>
-      <c r="W11" t="n">
+      <c r="AR11" t="n">
         <v>21405</v>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AS11" t="inlineStr">
         <is>
           <t>interns</t>
         </is>
       </c>
-      <c r="Y11" t="n">
+      <c r="AT11" t="n">
         <v>2024668185</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AU11" t="n">
         <v>212696070</v>
       </c>
-      <c r="AA11" s="2" t="n">
+      <c r="AV11" s="2" t="n">
         <v>37977</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AW11" t="n">
         <v>3500</v>
       </c>
-      <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
+      <c r="AX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY11" t="n">
         <v>3500</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AZ11" t="n">
         <v>217</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="BA11" t="n">
         <v>3500</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="BB11" t="n">
         <v>50.75</v>
       </c>
-      <c r="AH11" t="inlineStr">
+      <c r="BC11" t="inlineStr">
         <is>
           <t>Maryland</t>
         </is>
       </c>
-      <c r="AI11" t="n">
+      <c r="BD11" t="n">
         <v>3500</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK11" t="b">
+      <c r="BE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF11" t="b">
         <v>1</v>
       </c>
-      <c r="AL11" t="inlineStr"/>
+      <c r="BG11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -2015,96 +2750,159 @@
       <c r="N12" t="n">
         <v>10</v>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="O12" t="n">
+        <v>10</v>
+      </c>
+      <c r="P12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>10</v>
+      </c>
+      <c r="R12" t="n">
+        <v>10</v>
+      </c>
+      <c r="S12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" t="n">
+        <v>10</v>
+      </c>
+      <c r="U12" t="n">
+        <v>10</v>
+      </c>
+      <c r="V12" t="n">
+        <v>10</v>
+      </c>
+      <c r="W12" t="n">
+        <v>10</v>
+      </c>
+      <c r="X12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ12" t="inlineStr">
         <is>
           <t>scrwrcj@hotmail.com----XftRYjeA6Hp</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="AK12" t="inlineStr">
         <is>
           <t>scrwrcj</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>WG5QN1KA1aB!</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>Alexia</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>Ruano</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
         <is>
           <t>9512 Atom Rd</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
         <is>
           <t>Clinton</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AQ12" t="inlineStr">
         <is>
           <t>MD</t>
         </is>
       </c>
-      <c r="W12" t="n">
+      <c r="AR12" t="n">
         <v>20735</v>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AS12" t="inlineStr">
         <is>
           <t>interns</t>
         </is>
       </c>
-      <c r="Y12" t="n">
+      <c r="AT12" t="n">
         <v>4102005230</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AU12" t="n">
         <v>212695503</v>
       </c>
-      <c r="AA12" s="2" t="n">
+      <c r="AV12" s="2" t="n">
         <v>37975</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AW12" t="n">
         <v>3500</v>
       </c>
-      <c r="AC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="n">
+      <c r="AX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY12" t="n">
         <v>3500</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AZ12" t="n">
         <v>217</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="BA12" t="n">
         <v>3500</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="BB12" t="n">
         <v>50.75</v>
       </c>
-      <c r="AH12" t="inlineStr">
+      <c r="BC12" t="inlineStr">
         <is>
           <t>Maryland</t>
         </is>
       </c>
-      <c r="AI12" t="n">
+      <c r="BD12" t="n">
         <v>3500</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK12" t="b">
+      <c r="BE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF12" t="b">
         <v>1</v>
       </c>
-      <c r="AL12" t="inlineStr"/>
+      <c r="BG12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -2149,96 +2947,159 @@
       <c r="N13" t="n">
         <v>11</v>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="O13" t="n">
+        <v>11</v>
+      </c>
+      <c r="P13" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>11</v>
+      </c>
+      <c r="R13" t="n">
+        <v>11</v>
+      </c>
+      <c r="S13" t="n">
+        <v>11</v>
+      </c>
+      <c r="T13" t="n">
+        <v>11</v>
+      </c>
+      <c r="U13" t="n">
+        <v>11</v>
+      </c>
+      <c r="V13" t="n">
+        <v>11</v>
+      </c>
+      <c r="W13" t="n">
+        <v>11</v>
+      </c>
+      <c r="X13" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ13" t="inlineStr">
         <is>
           <t>tpaapjj@hotmail.com----s69AP5BcGR</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="AK13" t="inlineStr">
         <is>
           <t>tpaapjj</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="AL13" t="inlineStr">
         <is>
           <t>eP8tYwuGC!!</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="AN13" t="inlineStr">
         <is>
           <t>Wallen</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AO13" t="inlineStr">
         <is>
           <t>3610 Alpen Green Way</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AP13" t="inlineStr">
         <is>
           <t>Burtonsville</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AQ13" t="inlineStr">
         <is>
           <t>MD</t>
         </is>
       </c>
-      <c r="W13" t="n">
+      <c r="AR13" t="n">
         <v>20866</v>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="AS13" t="inlineStr">
         <is>
           <t>interns</t>
         </is>
       </c>
-      <c r="Y13" t="n">
+      <c r="AT13" t="n">
         <v>2404624589</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AU13" t="n">
         <v>577376759</v>
       </c>
-      <c r="AA13" s="2" t="n">
+      <c r="AV13" s="2" t="n">
         <v>37966</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AW13" t="n">
         <v>3500</v>
       </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
+      <c r="AX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY13" t="n">
         <v>3500</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AZ13" t="n">
         <v>217</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="BA13" t="n">
         <v>3500</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="BB13" t="n">
         <v>50.75</v>
       </c>
-      <c r="AH13" t="inlineStr">
+      <c r="BC13" t="inlineStr">
         <is>
           <t>Maryland</t>
         </is>
       </c>
-      <c r="AI13" t="n">
+      <c r="BD13" t="n">
         <v>3500</v>
       </c>
-      <c r="AJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK13" t="b">
+      <c r="BE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF13" t="b">
         <v>1</v>
       </c>
-      <c r="AL13" t="inlineStr"/>
+      <c r="BG13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -2283,96 +3144,159 @@
       <c r="N14" t="n">
         <v>12</v>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="O14" t="n">
+        <v>12</v>
+      </c>
+      <c r="P14" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>12</v>
+      </c>
+      <c r="R14" t="n">
+        <v>12</v>
+      </c>
+      <c r="S14" t="n">
+        <v>12</v>
+      </c>
+      <c r="T14" t="n">
+        <v>12</v>
+      </c>
+      <c r="U14" t="n">
+        <v>12</v>
+      </c>
+      <c r="V14" t="n">
+        <v>12</v>
+      </c>
+      <c r="W14" t="n">
+        <v>12</v>
+      </c>
+      <c r="X14" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ14" t="inlineStr">
         <is>
           <t>dqkxsvmyfu@hotmail.com----q6SBxgYakNp</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="AK14" t="inlineStr">
         <is>
           <t>dqkxsvmyfu</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="AL14" t="inlineStr">
         <is>
           <t>ptiKai5q5aB!</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="AM14" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="AN14" t="inlineStr">
         <is>
           <t>Schaeffer</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="AO14" t="inlineStr">
         <is>
           <t>6615 Westrmoreland Avenue</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="AP14" t="inlineStr">
         <is>
           <t>Takoma Park</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="AQ14" t="inlineStr">
         <is>
           <t>MD</t>
         </is>
       </c>
-      <c r="W14" t="n">
+      <c r="AR14" t="n">
         <v>20912</v>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="AS14" t="inlineStr">
         <is>
           <t>interns</t>
         </is>
       </c>
-      <c r="Y14" t="n">
+      <c r="AT14" t="n">
         <v>2022634440</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AU14" t="n">
         <v>212691848</v>
       </c>
-      <c r="AA14" s="2" t="n">
+      <c r="AV14" s="2" t="n">
         <v>37964</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AW14" t="n">
         <v>3500</v>
       </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
+      <c r="AX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY14" t="n">
         <v>3500</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AZ14" t="n">
         <v>217</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="BA14" t="n">
         <v>3500</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="BB14" t="n">
         <v>50.75</v>
       </c>
-      <c r="AH14" t="inlineStr">
+      <c r="BC14" t="inlineStr">
         <is>
           <t>Maryland</t>
         </is>
       </c>
-      <c r="AI14" t="n">
+      <c r="BD14" t="n">
         <v>3500</v>
       </c>
-      <c r="AJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="b">
+      <c r="BE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF14" t="b">
         <v>1</v>
       </c>
-      <c r="AL14" t="inlineStr">
+      <c r="BG14" t="inlineStr">
         <is>
           <t>j68rucq</t>
         </is>
@@ -2421,98 +3345,161 @@
       <c r="N15" t="n">
         <v>13</v>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="O15" t="n">
+        <v>13</v>
+      </c>
+      <c r="P15" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>13</v>
+      </c>
+      <c r="R15" t="n">
+        <v>13</v>
+      </c>
+      <c r="S15" t="n">
+        <v>13</v>
+      </c>
+      <c r="T15" t="n">
+        <v>13</v>
+      </c>
+      <c r="U15" t="n">
+        <v>13</v>
+      </c>
+      <c r="V15" t="n">
+        <v>13</v>
+      </c>
+      <c r="W15" t="n">
+        <v>13</v>
+      </c>
+      <c r="X15" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ15" t="inlineStr">
         <is>
           <t>hp84748596@hotmail.com----URjt3439</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="AK15" t="inlineStr">
         <is>
           <t>hp84748596</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="AL15" t="inlineStr">
         <is>
           <t>tq3ktTVYfqC1Aa!</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="AM15" t="inlineStr">
         <is>
           <t>Jocelyn</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="AN15" t="inlineStr">
         <is>
           <t>Vanegas Molina</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="AO15" t="inlineStr">
         <is>
           <t>3413 Floral Street</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="AP15" t="inlineStr">
         <is>
           <t>Silver Spring</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="AQ15" t="inlineStr">
         <is>
           <t>MD</t>
         </is>
       </c>
-      <c r="W15" t="n">
+      <c r="AR15" t="n">
         <v>20902</v>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="AS15" t="inlineStr">
         <is>
           <t>interns</t>
         </is>
       </c>
-      <c r="Y15" t="n">
+      <c r="AT15" t="n">
         <v>3017678100</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AU15" t="n">
         <v>577379357</v>
       </c>
-      <c r="AA15" s="2" t="n">
+      <c r="AV15" s="2" t="n">
         <v>37963</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AW15" t="n">
         <v>3500</v>
       </c>
-      <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
+      <c r="AX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY15" t="n">
         <v>3500</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AZ15" t="n">
         <v>217</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="BA15" t="n">
         <v>3500</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="BB15" t="n">
         <v>50.75</v>
       </c>
-      <c r="AH15" t="inlineStr">
+      <c r="BC15" t="inlineStr">
         <is>
           <t>Maryland</t>
         </is>
       </c>
-      <c r="AI15" t="n">
+      <c r="BD15" t="n">
         <v>3500</v>
       </c>
-      <c r="AJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK15" t="inlineStr">
+      <c r="BE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF15" t="inlineStr">
         <is>
           <t>NOt</t>
         </is>
       </c>
-      <c r="AL15" t="inlineStr">
+      <c r="BG15" t="inlineStr">
         <is>
           <t>j68y4mu</t>
         </is>
@@ -2561,98 +3548,161 @@
       <c r="N16" t="n">
         <v>14</v>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="O16" t="n">
+        <v>14</v>
+      </c>
+      <c r="P16" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>14</v>
+      </c>
+      <c r="R16" t="n">
+        <v>14</v>
+      </c>
+      <c r="S16" t="n">
+        <v>14</v>
+      </c>
+      <c r="T16" t="n">
+        <v>14</v>
+      </c>
+      <c r="U16" t="n">
+        <v>14</v>
+      </c>
+      <c r="V16" t="n">
+        <v>14</v>
+      </c>
+      <c r="W16" t="n">
+        <v>14</v>
+      </c>
+      <c r="X16" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ16" t="inlineStr">
         <is>
           <t>wbtretuyhh@hotmail.com----VsVYrdkT6</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="AK16" t="inlineStr">
         <is>
           <t>wbtretuyhh</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="AL16" t="inlineStr">
         <is>
           <t>FWyr66841Aa!</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="AM16" t="inlineStr">
         <is>
           <t>ronald</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="AN16" t="inlineStr">
         <is>
           <t>svoboda</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="AO16" t="inlineStr">
         <is>
           <t>1221 cambia drive</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="AP16" t="inlineStr">
         <is>
           <t>schaumburg</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="AQ16" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="W16" t="n">
+      <c r="AR16" t="n">
         <v>60193</v>
       </c>
-      <c r="X16" t="inlineStr">
+      <c r="AS16" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="Y16" t="n">
+      <c r="AT16" t="n">
         <v>2076685214</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AU16" t="n">
         <v>359320124</v>
       </c>
-      <c r="AA16" t="inlineStr">
+      <c r="AV16" t="inlineStr">
         <is>
           <t>12/31/1942</t>
         </is>
       </c>
-      <c r="AB16" t="n">
+      <c r="AW16" t="n">
         <v>3500</v>
       </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
+      <c r="AX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY16" t="n">
         <v>3500</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AZ16" t="n">
         <v>217</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="BA16" t="n">
         <v>3500</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="BB16" t="n">
         <v>50.75</v>
       </c>
-      <c r="AH16" t="inlineStr">
+      <c r="BC16" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
       </c>
-      <c r="AI16" t="n">
+      <c r="BD16" t="n">
         <v>3500</v>
       </c>
-      <c r="AJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK16" t="b">
+      <c r="BE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF16" t="b">
         <v>1</v>
       </c>
-      <c r="AL16" t="inlineStr">
+      <c r="BG16" t="inlineStr">
         <is>
           <t>j6asojb</t>
         </is>
@@ -2701,100 +3751,163 @@
       <c r="N17" t="n">
         <v>15</v>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="O17" t="n">
+        <v>15</v>
+      </c>
+      <c r="P17" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>15</v>
+      </c>
+      <c r="R17" t="n">
+        <v>15</v>
+      </c>
+      <c r="S17" t="n">
+        <v>15</v>
+      </c>
+      <c r="T17" t="n">
+        <v>15</v>
+      </c>
+      <c r="U17" t="n">
+        <v>15</v>
+      </c>
+      <c r="V17" t="n">
+        <v>15</v>
+      </c>
+      <c r="W17" t="n">
+        <v>15</v>
+      </c>
+      <c r="X17" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ17" t="inlineStr">
         <is>
           <t>dahykj@hotmail.com----dmd7Uu3HXyK</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="AK17" t="inlineStr">
         <is>
           <t>dahykj</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="AL17" t="inlineStr">
         <is>
           <t>unRekQY8Eu1Aa!</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="AM17" t="inlineStr">
         <is>
           <t>john</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="AN17" t="inlineStr">
         <is>
           <t>jones</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="AO17" t="inlineStr">
         <is>
           <t>1251 n massasoit</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="AP17" t="inlineStr">
         <is>
           <t>chicago</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
+      <c r="AQ17" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="W17" t="n">
+      <c r="AR17" t="n">
         <v>60637</v>
       </c>
-      <c r="X17" t="inlineStr">
+      <c r="AS17" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="Y17" t="n">
+      <c r="AT17" t="n">
         <v>2076685215</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AU17" t="n">
         <v>332468673</v>
       </c>
-      <c r="AA17" t="inlineStr">
+      <c r="AV17" t="inlineStr">
         <is>
           <t>12/31/1952</t>
         </is>
       </c>
-      <c r="AB17" t="n">
+      <c r="AW17" t="n">
         <v>3500</v>
       </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
+      <c r="AX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY17" t="n">
         <v>3500</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AZ17" t="n">
         <v>217</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="BA17" t="n">
         <v>3500</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="BB17" t="n">
         <v>50.75</v>
       </c>
-      <c r="AH17" t="inlineStr">
+      <c r="BC17" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
       </c>
-      <c r="AI17" t="n">
+      <c r="BD17" t="n">
         <v>3500</v>
       </c>
-      <c r="AJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK17" t="inlineStr">
+      <c r="BE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF17" t="inlineStr">
         <is>
           <t>Name Error</t>
         </is>
       </c>
-      <c r="AL17" t="inlineStr">
+      <c r="BG17" t="inlineStr">
         <is>
           <t>j6axb12</t>
         </is>
@@ -2843,100 +3956,163 @@
       <c r="N18" t="n">
         <v>16</v>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="O18" t="n">
+        <v>16</v>
+      </c>
+      <c r="P18" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>16</v>
+      </c>
+      <c r="R18" t="n">
+        <v>16</v>
+      </c>
+      <c r="S18" t="n">
+        <v>16</v>
+      </c>
+      <c r="T18" t="n">
+        <v>16</v>
+      </c>
+      <c r="U18" t="n">
+        <v>16</v>
+      </c>
+      <c r="V18" t="n">
+        <v>16</v>
+      </c>
+      <c r="W18" t="n">
+        <v>16</v>
+      </c>
+      <c r="X18" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ18" t="inlineStr">
         <is>
           <t>kutkamsyn@hotmail.com----K8JGSF7xhQ4</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="AK18" t="inlineStr">
         <is>
           <t>kutkamsyn</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="AL18" t="inlineStr">
         <is>
           <t>3bqFex7G7aB!</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="AM18" t="inlineStr">
         <is>
           <t>Diana</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="AN18" t="inlineStr">
         <is>
           <t>Meyer</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="AO18" t="inlineStr">
         <is>
           <t>5839 N Andover Ct</t>
         </is>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="AP18" t="inlineStr">
         <is>
           <t>Alta</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr">
+      <c r="AQ18" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="W18" t="n">
+      <c r="AR18" t="n">
         <v>61615</v>
       </c>
-      <c r="X18" t="inlineStr">
+      <c r="AS18" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="Y18" t="n">
+      <c r="AT18" t="n">
         <v>2076685216</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="AU18" t="n">
         <v>360484690</v>
       </c>
-      <c r="AA18" t="inlineStr">
+      <c r="AV18" t="inlineStr">
         <is>
           <t>12/31/1954</t>
         </is>
       </c>
-      <c r="AB18" t="n">
+      <c r="AW18" t="n">
         <v>4100</v>
       </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
+      <c r="AX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY18" t="n">
         <v>4100</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AZ18" t="n">
         <v>254.2</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="BA18" t="n">
         <v>4100</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="BB18" t="n">
         <v>59.45</v>
       </c>
-      <c r="AH18" t="inlineStr">
+      <c r="BC18" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
       </c>
-      <c r="AI18" t="n">
+      <c r="BD18" t="n">
         <v>4100</v>
       </c>
-      <c r="AJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK18" t="inlineStr">
+      <c r="BE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF18" t="inlineStr">
         <is>
           <t>Name Error</t>
         </is>
       </c>
-      <c r="AL18" t="inlineStr">
+      <c r="BG18" t="inlineStr">
         <is>
           <t>j6axwb3</t>
         </is>
@@ -2985,100 +4161,163 @@
       <c r="N19" t="n">
         <v>17</v>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="O19" t="n">
+        <v>17</v>
+      </c>
+      <c r="P19" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>17</v>
+      </c>
+      <c r="R19" t="n">
+        <v>17</v>
+      </c>
+      <c r="S19" t="n">
+        <v>17</v>
+      </c>
+      <c r="T19" t="n">
+        <v>17</v>
+      </c>
+      <c r="U19" t="n">
+        <v>17</v>
+      </c>
+      <c r="V19" t="n">
+        <v>17</v>
+      </c>
+      <c r="W19" t="n">
+        <v>17</v>
+      </c>
+      <c r="X19" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ19" t="inlineStr">
         <is>
           <t>erpfdbdtmw@hotmail.com----ebTHMBQEKy4</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="AK19" t="inlineStr">
         <is>
           <t>erpfdbdtmw</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="AL19" t="inlineStr">
         <is>
           <t>2EmFgGND2aB!</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="AM19" t="inlineStr">
         <is>
           <t>Lance</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="AN19" t="inlineStr">
         <is>
           <t>Parrott</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
+      <c r="AO19" t="inlineStr">
         <is>
           <t>4710 Old Oaks Drive</t>
         </is>
       </c>
-      <c r="U19" t="inlineStr">
+      <c r="AP19" t="inlineStr">
         <is>
           <t>Lisle</t>
         </is>
       </c>
-      <c r="V19" t="inlineStr">
+      <c r="AQ19" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="W19" t="n">
+      <c r="AR19" t="n">
         <v>60532</v>
       </c>
-      <c r="X19" t="inlineStr">
+      <c r="AS19" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="Y19" t="n">
+      <c r="AT19" t="n">
         <v>2076685217</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="AU19" t="n">
         <v>307624269</v>
       </c>
-      <c r="AA19" t="inlineStr">
+      <c r="AV19" t="inlineStr">
         <is>
           <t>12/31/1955</t>
         </is>
       </c>
-      <c r="AB19" t="n">
+      <c r="AW19" t="n">
         <v>4100</v>
       </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
+      <c r="AX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY19" t="n">
         <v>4100</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AZ19" t="n">
         <v>254.2</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="BA19" t="n">
         <v>4100</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="BB19" t="n">
         <v>59.45</v>
       </c>
-      <c r="AH19" t="inlineStr">
+      <c r="BC19" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
       </c>
-      <c r="AI19" t="n">
+      <c r="BD19" t="n">
         <v>4100</v>
       </c>
-      <c r="AJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK19" t="inlineStr">
+      <c r="BE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF19" t="inlineStr">
         <is>
           <t>Name Error</t>
         </is>
       </c>
-      <c r="AL19" t="inlineStr">
+      <c r="BG19" t="inlineStr">
         <is>
           <t>j6axwtx</t>
         </is>
@@ -3127,98 +4366,165 @@
       <c r="N20" t="n">
         <v>18</v>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="O20" t="n">
+        <v>18</v>
+      </c>
+      <c r="P20" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>18</v>
+      </c>
+      <c r="R20" t="n">
+        <v>18</v>
+      </c>
+      <c r="S20" t="n">
+        <v>18</v>
+      </c>
+      <c r="T20" t="n">
+        <v>18</v>
+      </c>
+      <c r="U20" t="n">
+        <v>18</v>
+      </c>
+      <c r="V20" t="n">
+        <v>18</v>
+      </c>
+      <c r="W20" t="n">
+        <v>18</v>
+      </c>
+      <c r="X20" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ20" t="inlineStr">
         <is>
           <t>ywgqqdgfhmv@hotmail.com----f8aMUmJ3</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="AK20" t="inlineStr">
         <is>
           <t>ywgqqdgfhmv</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="AL20" t="inlineStr">
         <is>
           <t>Kj7Er6sp6aB!</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
+      <c r="AM20" t="inlineStr">
         <is>
           <t>RAMONA</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="AN20" t="inlineStr">
         <is>
           <t>VANHOOSE</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr">
+      <c r="AO20" t="inlineStr">
         <is>
           <t>1052 LORYLN CIRCLE</t>
         </is>
       </c>
-      <c r="U20" t="inlineStr">
+      <c r="AP20" t="inlineStr">
         <is>
           <t>BATAVIA</t>
         </is>
       </c>
-      <c r="V20" t="inlineStr">
+      <c r="AQ20" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="W20" t="n">
+      <c r="AR20" t="n">
         <v>60510</v>
       </c>
-      <c r="X20" t="inlineStr">
+      <c r="AS20" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="Y20" t="n">
+      <c r="AT20" t="n">
         <v>2076685218</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="AU20" t="n">
         <v>353484410</v>
       </c>
-      <c r="AA20" t="inlineStr">
+      <c r="AV20" t="inlineStr">
         <is>
           <t>12/31/1955</t>
         </is>
       </c>
-      <c r="AB20" t="n">
+      <c r="AW20" t="n">
         <v>4100</v>
       </c>
-      <c r="AC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="n">
+      <c r="AX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY20" t="n">
         <v>4100</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AZ20" t="n">
         <v>254.2</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="BA20" t="n">
         <v>4100</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="BB20" t="n">
         <v>59.45</v>
       </c>
-      <c r="AH20" t="inlineStr">
+      <c r="BC20" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
       </c>
-      <c r="AI20" t="n">
+      <c r="BD20" t="n">
         <v>4100</v>
       </c>
-      <c r="AJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK20" t="inlineStr"/>
-      <c r="AL20" t="inlineStr">
-        <is>
-          <t>j6axxr6</t>
+      <c r="BE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF20" t="inlineStr">
+        <is>
+          <t>Name Error</t>
+        </is>
+      </c>
+      <c r="BG20" t="inlineStr">
+        <is>
+          <t>j6aygos</t>
         </is>
       </c>
     </row>
@@ -3265,96 +4571,167 @@
       <c r="N21" t="n">
         <v>19</v>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="O21" t="n">
+        <v>19</v>
+      </c>
+      <c r="P21" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>19</v>
+      </c>
+      <c r="R21" t="n">
+        <v>19</v>
+      </c>
+      <c r="S21" t="n">
+        <v>19</v>
+      </c>
+      <c r="T21" t="n">
+        <v>19</v>
+      </c>
+      <c r="U21" t="n">
+        <v>19</v>
+      </c>
+      <c r="V21" t="n">
+        <v>19</v>
+      </c>
+      <c r="W21" t="n">
+        <v>19</v>
+      </c>
+      <c r="X21" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ21" t="inlineStr">
         <is>
           <t>ra85379394@hotmail.com----HRww6384</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="AK21" t="inlineStr">
         <is>
           <t>ra85379394</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="AL21" t="inlineStr">
         <is>
           <t>HAyh49341Aa!</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="AM21" t="inlineStr">
         <is>
           <t>samuel</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr">
+      <c r="AN21" t="inlineStr">
         <is>
           <t>williams</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr">
+      <c r="AO21" t="inlineStr">
         <is>
           <t>14915 s lincoln ave na</t>
         </is>
       </c>
-      <c r="U21" t="inlineStr">
+      <c r="AP21" t="inlineStr">
         <is>
           <t>DOLTON</t>
         </is>
       </c>
-      <c r="V21" t="inlineStr">
+      <c r="AQ21" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="W21" t="n">
+      <c r="AR21" t="n">
         <v>60419</v>
       </c>
-      <c r="X21" t="inlineStr">
+      <c r="AS21" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="Y21" t="n">
+      <c r="AT21" t="n">
         <v>2076685219</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="AU21" t="n">
         <v>359505424</v>
       </c>
-      <c r="AA21" t="inlineStr">
+      <c r="AV21" t="inlineStr">
         <is>
           <t>12/31/1957</t>
         </is>
       </c>
-      <c r="AB21" t="n">
+      <c r="AW21" t="n">
         <v>4100</v>
       </c>
-      <c r="AC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="n">
+      <c r="AX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" t="n">
         <v>4100</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AZ21" t="n">
         <v>254.2</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="BA21" t="n">
         <v>4100</v>
       </c>
-      <c r="AG21" t="n">
+      <c r="BB21" t="n">
         <v>59.45</v>
       </c>
-      <c r="AH21" t="inlineStr">
+      <c r="BC21" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
       </c>
-      <c r="AI21" t="n">
+      <c r="BD21" t="n">
         <v>4100</v>
       </c>
-      <c r="AJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" t="inlineStr"/>
-      <c r="AL21" t="inlineStr"/>
+      <c r="BE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF21" t="inlineStr">
+        <is>
+          <t>Name Error</t>
+        </is>
+      </c>
+      <c r="BG21" t="inlineStr">
+        <is>
+          <t>j6ayhl9</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -3399,96 +4776,163 @@
       <c r="N22" t="n">
         <v>20</v>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="O22" t="n">
+        <v>20</v>
+      </c>
+      <c r="P22" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>20</v>
+      </c>
+      <c r="R22" t="n">
+        <v>20</v>
+      </c>
+      <c r="S22" t="n">
+        <v>20</v>
+      </c>
+      <c r="T22" t="n">
+        <v>20</v>
+      </c>
+      <c r="U22" t="n">
+        <v>20</v>
+      </c>
+      <c r="V22" t="n">
+        <v>20</v>
+      </c>
+      <c r="W22" t="n">
+        <v>20</v>
+      </c>
+      <c r="X22" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ22" t="inlineStr">
         <is>
           <t>kunbmjkg@hotmail.com----Yy4v5fVtPJ</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="AK22" t="inlineStr">
         <is>
           <t>kunbmjkg</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="AL22" t="inlineStr">
         <is>
           <t>r4e7FEG77aB!</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
+      <c r="AM22" t="inlineStr">
         <is>
           <t>Diana</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr">
+      <c r="AN22" t="inlineStr">
         <is>
           <t>Hudson</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
+      <c r="AO22" t="inlineStr">
         <is>
           <t>667 e front st</t>
         </is>
       </c>
-      <c r="U22" t="inlineStr">
+      <c r="AP22" t="inlineStr">
         <is>
           <t>el paso</t>
         </is>
       </c>
-      <c r="V22" t="inlineStr">
+      <c r="AQ22" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="W22" t="n">
+      <c r="AR22" t="n">
         <v>61738</v>
       </c>
-      <c r="X22" t="inlineStr">
+      <c r="AS22" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="Y22" t="n">
+      <c r="AT22" t="n">
         <v>2076685220</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="AU22" t="n">
         <v>352603853</v>
       </c>
-      <c r="AA22" t="inlineStr">
+      <c r="AV22" t="inlineStr">
         <is>
           <t>12/31/1963</t>
         </is>
       </c>
-      <c r="AB22" t="n">
+      <c r="AW22" t="n">
         <v>4100</v>
       </c>
-      <c r="AC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD22" t="n">
+      <c r="AX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY22" t="n">
         <v>4100</v>
       </c>
-      <c r="AE22" t="n">
+      <c r="AZ22" t="n">
         <v>254.2</v>
       </c>
-      <c r="AF22" t="n">
+      <c r="BA22" t="n">
         <v>4100</v>
       </c>
-      <c r="AG22" t="n">
+      <c r="BB22" t="n">
         <v>59.45</v>
       </c>
-      <c r="AH22" t="inlineStr">
+      <c r="BC22" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
       </c>
-      <c r="AI22" t="n">
+      <c r="BD22" t="n">
         <v>4100</v>
       </c>
-      <c r="AJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK22" t="inlineStr"/>
-      <c r="AL22" t="inlineStr"/>
+      <c r="BE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF22" t="inlineStr"/>
+      <c r="BG22" t="inlineStr">
+        <is>
+          <t>j6b1pj6</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -3533,96 +4977,159 @@
       <c r="N23" t="n">
         <v>21</v>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="O23" t="n">
+        <v>21</v>
+      </c>
+      <c r="P23" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>21</v>
+      </c>
+      <c r="R23" t="n">
+        <v>21</v>
+      </c>
+      <c r="S23" t="n">
+        <v>21</v>
+      </c>
+      <c r="T23" t="n">
+        <v>21</v>
+      </c>
+      <c r="U23" t="n">
+        <v>21</v>
+      </c>
+      <c r="V23" t="n">
+        <v>21</v>
+      </c>
+      <c r="W23" t="n">
+        <v>21</v>
+      </c>
+      <c r="X23" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ23" t="inlineStr">
         <is>
           <t>ge66743863@hotmail.com----SQsd5859</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="AK23" t="inlineStr">
         <is>
           <t>ge66743863</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="AL23" t="inlineStr">
         <is>
           <t>yR5XxxBf5aB!</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
+      <c r="AM23" t="inlineStr">
         <is>
           <t>Kelli</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
+      <c r="AN23" t="inlineStr">
         <is>
           <t>Schnelt</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
+      <c r="AO23" t="inlineStr">
         <is>
           <t>RR 3 BOX 109</t>
         </is>
       </c>
-      <c r="U23" t="inlineStr">
+      <c r="AP23" t="inlineStr">
         <is>
           <t>CARROLLTON</t>
         </is>
       </c>
-      <c r="V23" t="inlineStr">
+      <c r="AQ23" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="W23" t="n">
+      <c r="AR23" t="n">
         <v>62016</v>
       </c>
-      <c r="X23" t="inlineStr">
+      <c r="AS23" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="Y23" t="n">
+      <c r="AT23" t="n">
         <v>2076685221</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="AU23" t="n">
         <v>336449545</v>
       </c>
-      <c r="AA23" t="inlineStr">
+      <c r="AV23" t="inlineStr">
         <is>
           <t>12/31/1965</t>
         </is>
       </c>
-      <c r="AB23" t="n">
+      <c r="AW23" t="n">
         <v>4100</v>
       </c>
-      <c r="AC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD23" t="n">
+      <c r="AX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY23" t="n">
         <v>4100</v>
       </c>
-      <c r="AE23" t="n">
+      <c r="AZ23" t="n">
         <v>254.2</v>
       </c>
-      <c r="AF23" t="n">
+      <c r="BA23" t="n">
         <v>4100</v>
       </c>
-      <c r="AG23" t="n">
+      <c r="BB23" t="n">
         <v>59.45</v>
       </c>
-      <c r="AH23" t="inlineStr">
+      <c r="BC23" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
       </c>
-      <c r="AI23" t="n">
+      <c r="BD23" t="n">
         <v>4100</v>
       </c>
-      <c r="AJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK23" t="inlineStr"/>
-      <c r="AL23" t="inlineStr"/>
+      <c r="BE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF23" t="inlineStr"/>
+      <c r="BG23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -3667,96 +5174,159 @@
       <c r="N24" t="n">
         <v>22</v>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="O24" t="n">
+        <v>22</v>
+      </c>
+      <c r="P24" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>22</v>
+      </c>
+      <c r="R24" t="n">
+        <v>22</v>
+      </c>
+      <c r="S24" t="n">
+        <v>22</v>
+      </c>
+      <c r="T24" t="n">
+        <v>22</v>
+      </c>
+      <c r="U24" t="n">
+        <v>22</v>
+      </c>
+      <c r="V24" t="n">
+        <v>22</v>
+      </c>
+      <c r="W24" t="n">
+        <v>22</v>
+      </c>
+      <c r="X24" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ24" t="inlineStr">
         <is>
           <t>hb48487636@hotmail.com----SCmj7843</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="AK24" t="inlineStr">
         <is>
           <t>hb48487636</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="AL24" t="inlineStr">
         <is>
           <t>3jzbSWxX3aB!</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
+      <c r="AM24" t="inlineStr">
         <is>
           <t>cynthia</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr">
+      <c r="AN24" t="inlineStr">
         <is>
           <t>shelton</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr">
+      <c r="AO24" t="inlineStr">
         <is>
           <t>2150 NIAGARA CT</t>
         </is>
       </c>
-      <c r="U24" t="inlineStr">
+      <c r="AP24" t="inlineStr">
         <is>
           <t>ELGIN</t>
         </is>
       </c>
-      <c r="V24" t="inlineStr">
+      <c r="AQ24" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="W24" t="n">
+      <c r="AR24" t="n">
         <v>60123</v>
       </c>
-      <c r="X24" t="inlineStr">
+      <c r="AS24" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="Y24" t="n">
+      <c r="AT24" t="n">
         <v>2076685222</v>
       </c>
-      <c r="Z24" t="n">
+      <c r="AU24" t="n">
         <v>337663360</v>
       </c>
-      <c r="AA24" t="inlineStr">
+      <c r="AV24" t="inlineStr">
         <is>
           <t>12/31/1968</t>
         </is>
       </c>
-      <c r="AB24" t="n">
+      <c r="AW24" t="n">
         <v>4100</v>
       </c>
-      <c r="AC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD24" t="n">
+      <c r="AX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY24" t="n">
         <v>4100</v>
       </c>
-      <c r="AE24" t="n">
+      <c r="AZ24" t="n">
         <v>254.2</v>
       </c>
-      <c r="AF24" t="n">
+      <c r="BA24" t="n">
         <v>4100</v>
       </c>
-      <c r="AG24" t="n">
+      <c r="BB24" t="n">
         <v>59.45</v>
       </c>
-      <c r="AH24" t="inlineStr">
+      <c r="BC24" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
       </c>
-      <c r="AI24" t="n">
+      <c r="BD24" t="n">
         <v>4100</v>
       </c>
-      <c r="AJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK24" t="inlineStr"/>
-      <c r="AL24" t="inlineStr"/>
+      <c r="BE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF24" t="inlineStr"/>
+      <c r="BG24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -3801,96 +5371,159 @@
       <c r="N25" t="n">
         <v>23</v>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="O25" t="n">
+        <v>23</v>
+      </c>
+      <c r="P25" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>23</v>
+      </c>
+      <c r="R25" t="n">
+        <v>23</v>
+      </c>
+      <c r="S25" t="n">
+        <v>23</v>
+      </c>
+      <c r="T25" t="n">
+        <v>23</v>
+      </c>
+      <c r="U25" t="n">
+        <v>23</v>
+      </c>
+      <c r="V25" t="n">
+        <v>23</v>
+      </c>
+      <c r="W25" t="n">
+        <v>23</v>
+      </c>
+      <c r="X25" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ25" t="inlineStr">
         <is>
           <t>mqtngcvjynp@hotmail.com----fG4R99GGekb</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="AK25" t="inlineStr">
         <is>
           <t>mqtngcvjynp</t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="AL25" t="inlineStr">
         <is>
           <t>SSQW4u1r1aB!</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr">
+      <c r="AM25" t="inlineStr">
         <is>
           <t>James</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr">
+      <c r="AN25" t="inlineStr">
         <is>
           <t>Roberts</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr">
+      <c r="AO25" t="inlineStr">
         <is>
           <t>2710 E 79TH ST</t>
         </is>
       </c>
-      <c r="U25" t="inlineStr">
+      <c r="AP25" t="inlineStr">
         <is>
           <t>CHICAGO</t>
         </is>
       </c>
-      <c r="V25" t="inlineStr">
+      <c r="AQ25" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="W25" t="n">
+      <c r="AR25" t="n">
         <v>60649</v>
       </c>
-      <c r="X25" t="inlineStr">
+      <c r="AS25" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="Y25" t="n">
+      <c r="AT25" t="n">
         <v>2076685223</v>
       </c>
-      <c r="Z25" t="n">
+      <c r="AU25" t="n">
         <v>357683618</v>
       </c>
-      <c r="AA25" t="inlineStr">
+      <c r="AV25" t="inlineStr">
         <is>
           <t>12/31/1969</t>
         </is>
       </c>
-      <c r="AB25" t="n">
+      <c r="AW25" t="n">
         <v>4100</v>
       </c>
-      <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
+      <c r="AX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY25" t="n">
         <v>4100</v>
       </c>
-      <c r="AE25" t="n">
+      <c r="AZ25" t="n">
         <v>254.2</v>
       </c>
-      <c r="AF25" t="n">
+      <c r="BA25" t="n">
         <v>4100</v>
       </c>
-      <c r="AG25" t="n">
+      <c r="BB25" t="n">
         <v>59.45</v>
       </c>
-      <c r="AH25" t="inlineStr">
+      <c r="BC25" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
       </c>
-      <c r="AI25" t="n">
+      <c r="BD25" t="n">
         <v>4100</v>
       </c>
-      <c r="AJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK25" t="inlineStr"/>
-      <c r="AL25" t="inlineStr"/>
+      <c r="BE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF25" t="inlineStr"/>
+      <c r="BG25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -3935,96 +5568,159 @@
       <c r="N26" t="n">
         <v>24</v>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="O26" t="n">
+        <v>24</v>
+      </c>
+      <c r="P26" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>24</v>
+      </c>
+      <c r="R26" t="n">
+        <v>24</v>
+      </c>
+      <c r="S26" t="n">
+        <v>24</v>
+      </c>
+      <c r="T26" t="n">
+        <v>24</v>
+      </c>
+      <c r="U26" t="n">
+        <v>24</v>
+      </c>
+      <c r="V26" t="n">
+        <v>24</v>
+      </c>
+      <c r="W26" t="n">
+        <v>24</v>
+      </c>
+      <c r="X26" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ26" t="inlineStr">
         <is>
           <t>uxtfwnd@hotmail.com----Dc6NktRpC</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="AK26" t="inlineStr">
         <is>
           <t>uxtfwnd</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="AL26" t="inlineStr">
         <is>
           <t>51U3178a3178aB!</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr">
+      <c r="AM26" t="inlineStr">
         <is>
           <t>Jonetta</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr">
+      <c r="AN26" t="inlineStr">
         <is>
           <t>Holloway</t>
         </is>
       </c>
-      <c r="T26" t="inlineStr">
+      <c r="AO26" t="inlineStr">
         <is>
           <t>8245 S JUSTINE ST</t>
         </is>
       </c>
-      <c r="U26" t="inlineStr">
+      <c r="AP26" t="inlineStr">
         <is>
           <t>CHICAGO</t>
         </is>
       </c>
-      <c r="V26" t="inlineStr">
+      <c r="AQ26" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="W26" t="n">
+      <c r="AR26" t="n">
         <v>60620</v>
       </c>
-      <c r="X26" t="inlineStr">
+      <c r="AS26" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="Y26" t="n">
+      <c r="AT26" t="n">
         <v>2076685224</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="AU26" t="n">
         <v>320766308</v>
       </c>
-      <c r="AA26" t="inlineStr">
+      <c r="AV26" t="inlineStr">
         <is>
           <t>12/31/1969</t>
         </is>
       </c>
-      <c r="AB26" t="n">
+      <c r="AW26" t="n">
         <v>4100</v>
       </c>
-      <c r="AC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD26" t="n">
+      <c r="AX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY26" t="n">
         <v>4100</v>
       </c>
-      <c r="AE26" t="n">
+      <c r="AZ26" t="n">
         <v>254.2</v>
       </c>
-      <c r="AF26" t="n">
+      <c r="BA26" t="n">
         <v>4100</v>
       </c>
-      <c r="AG26" t="n">
+      <c r="BB26" t="n">
         <v>59.45</v>
       </c>
-      <c r="AH26" t="inlineStr">
+      <c r="BC26" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
       </c>
-      <c r="AI26" t="n">
+      <c r="BD26" t="n">
         <v>4100</v>
       </c>
-      <c r="AJ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK26" t="inlineStr"/>
-      <c r="AL26" t="inlineStr"/>
+      <c r="BE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF26" t="inlineStr"/>
+      <c r="BG26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -4069,96 +5765,159 @@
       <c r="N27" t="n">
         <v>25</v>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="O27" t="n">
+        <v>25</v>
+      </c>
+      <c r="P27" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>25</v>
+      </c>
+      <c r="R27" t="n">
+        <v>25</v>
+      </c>
+      <c r="S27" t="n">
+        <v>25</v>
+      </c>
+      <c r="T27" t="n">
+        <v>25</v>
+      </c>
+      <c r="U27" t="n">
+        <v>25</v>
+      </c>
+      <c r="V27" t="n">
+        <v>25</v>
+      </c>
+      <c r="W27" t="n">
+        <v>25</v>
+      </c>
+      <c r="X27" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ27" t="inlineStr">
         <is>
           <t>rvnyjbtrk@hotmail.com----wKsHDgSnUuU6</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
+      <c r="AK27" t="inlineStr">
         <is>
           <t>rvnyjbtrk</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="AL27" t="inlineStr">
         <is>
           <t>ftxF6PMc!!</t>
         </is>
       </c>
-      <c r="R27" t="inlineStr">
+      <c r="AM27" t="inlineStr">
         <is>
           <t>Blanca</t>
         </is>
       </c>
-      <c r="S27" t="inlineStr">
+      <c r="AN27" t="inlineStr">
         <is>
           <t>Hinojosa</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr">
+      <c r="AO27" t="inlineStr">
         <is>
           <t>615 LINDA LN</t>
         </is>
       </c>
-      <c r="U27" t="inlineStr">
+      <c r="AP27" t="inlineStr">
         <is>
           <t>LYNWOOD</t>
         </is>
       </c>
-      <c r="V27" t="inlineStr">
+      <c r="AQ27" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="W27" t="n">
+      <c r="AR27" t="n">
         <v>60411</v>
       </c>
-      <c r="X27" t="inlineStr">
+      <c r="AS27" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="Y27" t="n">
+      <c r="AT27" t="n">
         <v>2076685225</v>
       </c>
-      <c r="Z27" t="n">
+      <c r="AU27" t="n">
         <v>333821977</v>
       </c>
-      <c r="AA27" t="inlineStr">
+      <c r="AV27" t="inlineStr">
         <is>
           <t>12/31/1969</t>
         </is>
       </c>
-      <c r="AB27" t="n">
+      <c r="AW27" t="n">
         <v>4100</v>
       </c>
-      <c r="AC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD27" t="n">
+      <c r="AX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY27" t="n">
         <v>4100</v>
       </c>
-      <c r="AE27" t="n">
+      <c r="AZ27" t="n">
         <v>254.2</v>
       </c>
-      <c r="AF27" t="n">
+      <c r="BA27" t="n">
         <v>4100</v>
       </c>
-      <c r="AG27" t="n">
+      <c r="BB27" t="n">
         <v>59.45</v>
       </c>
-      <c r="AH27" t="inlineStr">
+      <c r="BC27" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
       </c>
-      <c r="AI27" t="n">
+      <c r="BD27" t="n">
         <v>4100</v>
       </c>
-      <c r="AJ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK27" t="inlineStr"/>
-      <c r="AL27" t="inlineStr"/>
+      <c r="BE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF27" t="inlineStr"/>
+      <c r="BG27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -4203,96 +5962,159 @@
       <c r="N28" t="n">
         <v>26</v>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="O28" t="n">
+        <v>26</v>
+      </c>
+      <c r="P28" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>26</v>
+      </c>
+      <c r="R28" t="n">
+        <v>26</v>
+      </c>
+      <c r="S28" t="n">
+        <v>26</v>
+      </c>
+      <c r="T28" t="n">
+        <v>26</v>
+      </c>
+      <c r="U28" t="n">
+        <v>26</v>
+      </c>
+      <c r="V28" t="n">
+        <v>26</v>
+      </c>
+      <c r="W28" t="n">
+        <v>26</v>
+      </c>
+      <c r="X28" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ28" t="inlineStr">
         <is>
           <t>wttsnkbdsq@hotmail.com----BKgdvRwFQq4</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
+      <c r="AK28" t="inlineStr">
         <is>
           <t>wttsnkbdsq</t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="AL28" t="inlineStr">
         <is>
           <t>VTyx68461Aa!</t>
         </is>
       </c>
-      <c r="R28" t="inlineStr">
+      <c r="AM28" t="inlineStr">
         <is>
           <t>kera</t>
         </is>
       </c>
-      <c r="S28" t="inlineStr">
+      <c r="AN28" t="inlineStr">
         <is>
           <t>rhyan</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr">
+      <c r="AO28" t="inlineStr">
         <is>
           <t>1720golfrd</t>
         </is>
       </c>
-      <c r="U28" t="inlineStr">
+      <c r="AP28" t="inlineStr">
         <is>
           <t>waukegan</t>
         </is>
       </c>
-      <c r="V28" t="inlineStr">
+      <c r="AQ28" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="W28" t="n">
+      <c r="AR28" t="n">
         <v>60085</v>
       </c>
-      <c r="X28" t="inlineStr">
+      <c r="AS28" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="Y28" t="n">
+      <c r="AT28" t="n">
         <v>2076685226</v>
       </c>
-      <c r="Z28" t="n">
+      <c r="AU28" t="n">
         <v>357583362</v>
       </c>
-      <c r="AA28" t="inlineStr">
+      <c r="AV28" t="inlineStr">
         <is>
           <t>12/31/1971</t>
         </is>
       </c>
-      <c r="AB28" t="n">
+      <c r="AW28" t="n">
         <v>4100</v>
       </c>
-      <c r="AC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD28" t="n">
+      <c r="AX28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY28" t="n">
         <v>4100</v>
       </c>
-      <c r="AE28" t="n">
+      <c r="AZ28" t="n">
         <v>254.2</v>
       </c>
-      <c r="AF28" t="n">
+      <c r="BA28" t="n">
         <v>4100</v>
       </c>
-      <c r="AG28" t="n">
+      <c r="BB28" t="n">
         <v>59.45</v>
       </c>
-      <c r="AH28" t="inlineStr">
+      <c r="BC28" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
       </c>
-      <c r="AI28" t="n">
+      <c r="BD28" t="n">
         <v>4100</v>
       </c>
-      <c r="AJ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK28" t="inlineStr"/>
-      <c r="AL28" t="inlineStr"/>
+      <c r="BE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF28" t="inlineStr"/>
+      <c r="BG28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -4337,96 +6159,159 @@
       <c r="N29" t="n">
         <v>27</v>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="O29" t="n">
+        <v>27</v>
+      </c>
+      <c r="P29" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>27</v>
+      </c>
+      <c r="R29" t="n">
+        <v>27</v>
+      </c>
+      <c r="S29" t="n">
+        <v>27</v>
+      </c>
+      <c r="T29" t="n">
+        <v>27</v>
+      </c>
+      <c r="U29" t="n">
+        <v>27</v>
+      </c>
+      <c r="V29" t="n">
+        <v>27</v>
+      </c>
+      <c r="W29" t="n">
+        <v>27</v>
+      </c>
+      <c r="X29" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ29" t="inlineStr">
         <is>
           <t>tjwcvxex@hotmail.com----vYh4j9upY</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="AK29" t="inlineStr">
         <is>
           <t>tjwcvxex</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="AL29" t="inlineStr">
         <is>
           <t>cBxYeBeTba91Aa!</t>
         </is>
       </c>
-      <c r="R29" t="inlineStr">
+      <c r="AM29" t="inlineStr">
         <is>
           <t>Stephanie</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
+      <c r="AN29" t="inlineStr">
         <is>
           <t>Reed</t>
         </is>
       </c>
-      <c r="T29" t="inlineStr">
+      <c r="AO29" t="inlineStr">
         <is>
           <t>1415 SOUTH MILLARD AVE</t>
         </is>
       </c>
-      <c r="U29" t="inlineStr">
+      <c r="AP29" t="inlineStr">
         <is>
           <t>CHICAGO</t>
         </is>
       </c>
-      <c r="V29" t="inlineStr">
+      <c r="AQ29" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="W29" t="n">
+      <c r="AR29" t="n">
         <v>60623</v>
       </c>
-      <c r="X29" t="inlineStr">
+      <c r="AS29" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="Y29" t="n">
+      <c r="AT29" t="n">
         <v>2076685227</v>
       </c>
-      <c r="Z29" t="n">
+      <c r="AU29" t="n">
         <v>325662906</v>
       </c>
-      <c r="AA29" t="inlineStr">
+      <c r="AV29" t="inlineStr">
         <is>
           <t>12/31/1973</t>
         </is>
       </c>
-      <c r="AB29" t="n">
+      <c r="AW29" t="n">
         <v>4800</v>
       </c>
-      <c r="AC29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD29" t="n">
+      <c r="AX29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY29" t="n">
         <v>4800</v>
       </c>
-      <c r="AE29" t="n">
+      <c r="AZ29" t="n">
         <v>297.6</v>
       </c>
-      <c r="AF29" t="n">
+      <c r="BA29" t="n">
         <v>4800</v>
       </c>
-      <c r="AG29" t="n">
+      <c r="BB29" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="AH29" t="inlineStr">
+      <c r="BC29" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
       </c>
-      <c r="AI29" t="n">
+      <c r="BD29" t="n">
         <v>4800</v>
       </c>
-      <c r="AJ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK29" t="inlineStr"/>
-      <c r="AL29" t="inlineStr"/>
+      <c r="BE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF29" t="inlineStr"/>
+      <c r="BG29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -4471,96 +6356,159 @@
       <c r="N30" t="n">
         <v>28</v>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="O30" t="n">
+        <v>28</v>
+      </c>
+      <c r="P30" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>28</v>
+      </c>
+      <c r="R30" t="n">
+        <v>28</v>
+      </c>
+      <c r="S30" t="n">
+        <v>28</v>
+      </c>
+      <c r="T30" t="n">
+        <v>28</v>
+      </c>
+      <c r="U30" t="n">
+        <v>28</v>
+      </c>
+      <c r="V30" t="n">
+        <v>28</v>
+      </c>
+      <c r="W30" t="n">
+        <v>28</v>
+      </c>
+      <c r="X30" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ30" t="inlineStr">
         <is>
           <t>sbvqavx4g@hotmail.com----mAcmPwEEh8</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
+      <c r="AK30" t="inlineStr">
         <is>
           <t>sbvqavx4g</t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="AL30" t="inlineStr">
         <is>
           <t>NjwH7Pqd7aB!</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr">
+      <c r="AM30" t="inlineStr">
         <is>
           <t>STEPHANIE</t>
         </is>
       </c>
-      <c r="S30" t="inlineStr">
+      <c r="AN30" t="inlineStr">
         <is>
           <t>REED</t>
         </is>
       </c>
-      <c r="T30" t="inlineStr">
+      <c r="AO30" t="inlineStr">
         <is>
           <t>1415 S MILLARD AVE</t>
         </is>
       </c>
-      <c r="U30" t="inlineStr">
+      <c r="AP30" t="inlineStr">
         <is>
           <t>Chicago</t>
         </is>
       </c>
-      <c r="V30" t="inlineStr">
+      <c r="AQ30" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="W30" t="n">
+      <c r="AR30" t="n">
         <v>60623</v>
       </c>
-      <c r="X30" t="inlineStr">
+      <c r="AS30" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="Y30" t="n">
+      <c r="AT30" t="n">
         <v>2076685228</v>
       </c>
-      <c r="Z30" t="n">
+      <c r="AU30" t="n">
         <v>325662906</v>
       </c>
-      <c r="AA30" t="inlineStr">
+      <c r="AV30" t="inlineStr">
         <is>
           <t>12/31/1973</t>
         </is>
       </c>
-      <c r="AB30" t="n">
+      <c r="AW30" t="n">
         <v>4800</v>
       </c>
-      <c r="AC30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD30" t="n">
+      <c r="AX30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY30" t="n">
         <v>4800</v>
       </c>
-      <c r="AE30" t="n">
+      <c r="AZ30" t="n">
         <v>297.6</v>
       </c>
-      <c r="AF30" t="n">
+      <c r="BA30" t="n">
         <v>4800</v>
       </c>
-      <c r="AG30" t="n">
+      <c r="BB30" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="AH30" t="inlineStr">
+      <c r="BC30" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
       </c>
-      <c r="AI30" t="n">
+      <c r="BD30" t="n">
         <v>4800</v>
       </c>
-      <c r="AJ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK30" t="inlineStr"/>
-      <c r="AL30" t="inlineStr"/>
+      <c r="BE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF30" t="inlineStr"/>
+      <c r="BG30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -4605,94 +6553,157 @@
       <c r="N31" t="n">
         <v>29</v>
       </c>
-      <c r="O31" t="inlineStr">
+      <c r="O31" t="n">
+        <v>29</v>
+      </c>
+      <c r="P31" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>29</v>
+      </c>
+      <c r="R31" t="n">
+        <v>29</v>
+      </c>
+      <c r="S31" t="n">
+        <v>29</v>
+      </c>
+      <c r="T31" t="n">
+        <v>29</v>
+      </c>
+      <c r="U31" t="n">
+        <v>29</v>
+      </c>
+      <c r="V31" t="n">
+        <v>29</v>
+      </c>
+      <c r="W31" t="n">
+        <v>29</v>
+      </c>
+      <c r="X31" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ31" t="inlineStr">
         <is>
           <t>ntenwbc@hotmail.com----eJBpeY3jaE</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr">
+      <c r="AK31" t="inlineStr">
         <is>
           <t>ntenwbc</t>
         </is>
       </c>
-      <c r="Q31" t="inlineStr">
+      <c r="AL31" t="inlineStr">
         <is>
           <t>V4fqrgrh4aB!</t>
         </is>
       </c>
-      <c r="R31" t="inlineStr">
+      <c r="AM31" t="inlineStr">
         <is>
           <t>Imogene</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr">
+      <c r="AN31" t="inlineStr">
         <is>
           <t>Peretta</t>
         </is>
       </c>
-      <c r="T31" t="inlineStr">
+      <c r="AO31" t="inlineStr">
         <is>
           <t>1801 Lorry Lane Ne</t>
         </is>
       </c>
-      <c r="U31" t="inlineStr">
+      <c r="AP31" t="inlineStr">
         <is>
           <t>Rio Rancho</t>
         </is>
       </c>
-      <c r="V31" t="inlineStr">
+      <c r="AQ31" t="inlineStr">
         <is>
           <t>NM</t>
         </is>
       </c>
-      <c r="W31" t="n">
+      <c r="AR31" t="n">
         <v>87124</v>
       </c>
-      <c r="X31" t="inlineStr">
+      <c r="AS31" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="Y31" t="n">
+      <c r="AT31" t="n">
         <v>6087837834</v>
       </c>
-      <c r="Z31" t="n">
+      <c r="AU31" t="n">
         <v>345525854</v>
       </c>
-      <c r="AA31" s="2" t="n">
+      <c r="AV31" s="2" t="n">
         <v>19980</v>
       </c>
-      <c r="AB31" t="n">
+      <c r="AW31" t="n">
         <v>4800</v>
       </c>
-      <c r="AC31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD31" t="n">
+      <c r="AX31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY31" t="n">
         <v>4800</v>
       </c>
-      <c r="AE31" t="n">
+      <c r="AZ31" t="n">
         <v>297.6</v>
       </c>
-      <c r="AF31" t="n">
+      <c r="BA31" t="n">
         <v>4800</v>
       </c>
-      <c r="AG31" t="n">
+      <c r="BB31" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="AH31" t="inlineStr">
+      <c r="BC31" t="inlineStr">
         <is>
           <t>New Mexico</t>
         </is>
       </c>
-      <c r="AI31" t="n">
+      <c r="BD31" t="n">
         <v>4800</v>
       </c>
-      <c r="AJ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK31" t="inlineStr"/>
-      <c r="AL31" t="inlineStr"/>
+      <c r="BE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF31" t="inlineStr"/>
+      <c r="BG31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -4737,94 +6748,157 @@
       <c r="N32" t="n">
         <v>30</v>
       </c>
-      <c r="O32" t="inlineStr">
+      <c r="O32" t="n">
+        <v>30</v>
+      </c>
+      <c r="P32" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>30</v>
+      </c>
+      <c r="R32" t="n">
+        <v>30</v>
+      </c>
+      <c r="S32" t="n">
+        <v>30</v>
+      </c>
+      <c r="T32" t="n">
+        <v>30</v>
+      </c>
+      <c r="U32" t="n">
+        <v>30</v>
+      </c>
+      <c r="V32" t="n">
+        <v>30</v>
+      </c>
+      <c r="W32" t="n">
+        <v>30</v>
+      </c>
+      <c r="X32" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ32" t="inlineStr">
         <is>
           <t>mgasbecgpd@hotmail.com----7TwU5MXcDh</t>
         </is>
       </c>
-      <c r="P32" t="inlineStr">
+      <c r="AK32" t="inlineStr">
         <is>
           <t>mgasbecgpd</t>
         </is>
       </c>
-      <c r="Q32" t="inlineStr">
+      <c r="AL32" t="inlineStr">
         <is>
           <t>jbiWypP77aB!</t>
         </is>
       </c>
-      <c r="R32" t="inlineStr">
+      <c r="AM32" t="inlineStr">
         <is>
           <t>Lynda</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr">
+      <c r="AN32" t="inlineStr">
         <is>
           <t>Everman</t>
         </is>
       </c>
-      <c r="T32" t="inlineStr">
+      <c r="AO32" t="inlineStr">
         <is>
           <t>8100 Barstow St NE</t>
         </is>
       </c>
-      <c r="U32" t="inlineStr">
+      <c r="AP32" t="inlineStr">
         <is>
           <t>Albuquerque</t>
         </is>
       </c>
-      <c r="V32" t="inlineStr">
+      <c r="AQ32" t="inlineStr">
         <is>
           <t>NM</t>
         </is>
       </c>
-      <c r="W32" t="n">
+      <c r="AR32" t="n">
         <v>87122</v>
       </c>
-      <c r="X32" t="inlineStr">
+      <c r="AS32" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="Y32" t="n">
+      <c r="AT32" t="n">
         <v>6306056893</v>
       </c>
-      <c r="Z32" t="n">
+      <c r="AU32" t="n">
         <v>292422769</v>
       </c>
-      <c r="AA32" s="2" t="n">
+      <c r="AV32" s="2" t="n">
         <v>17980</v>
       </c>
-      <c r="AB32" t="n">
+      <c r="AW32" t="n">
         <v>4800</v>
       </c>
-      <c r="AC32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD32" t="n">
+      <c r="AX32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY32" t="n">
         <v>4800</v>
       </c>
-      <c r="AE32" t="n">
+      <c r="AZ32" t="n">
         <v>297.6</v>
       </c>
-      <c r="AF32" t="n">
+      <c r="BA32" t="n">
         <v>4800</v>
       </c>
-      <c r="AG32" t="n">
+      <c r="BB32" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="AH32" t="inlineStr">
+      <c r="BC32" t="inlineStr">
         <is>
           <t>New Mexico</t>
         </is>
       </c>
-      <c r="AI32" t="n">
+      <c r="BD32" t="n">
         <v>4800</v>
       </c>
-      <c r="AJ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK32" t="inlineStr"/>
-      <c r="AL32" t="inlineStr"/>
+      <c r="BE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF32" t="inlineStr"/>
+      <c r="BG32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -4869,94 +6943,157 @@
       <c r="N33" t="n">
         <v>31</v>
       </c>
-      <c r="O33" t="inlineStr">
+      <c r="O33" t="n">
+        <v>31</v>
+      </c>
+      <c r="P33" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>31</v>
+      </c>
+      <c r="R33" t="n">
+        <v>31</v>
+      </c>
+      <c r="S33" t="n">
+        <v>31</v>
+      </c>
+      <c r="T33" t="n">
+        <v>31</v>
+      </c>
+      <c r="U33" t="n">
+        <v>31</v>
+      </c>
+      <c r="V33" t="n">
+        <v>31</v>
+      </c>
+      <c r="W33" t="n">
+        <v>31</v>
+      </c>
+      <c r="X33" t="n">
+        <v>31</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>31</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>31</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>31</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>31</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>31</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>31</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>31</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>31</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>31</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>31</v>
+      </c>
+      <c r="AJ33" t="inlineStr">
         <is>
           <t>qygmegegt@hotmail.com----MPAXNEE9</t>
         </is>
       </c>
-      <c r="P33" t="inlineStr">
+      <c r="AK33" t="inlineStr">
         <is>
           <t>qygmegegt</t>
         </is>
       </c>
-      <c r="Q33" t="inlineStr">
+      <c r="AL33" t="inlineStr">
         <is>
           <t>r8BRF9WwYF!!</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr">
+      <c r="AM33" t="inlineStr">
         <is>
           <t>Dwight J</t>
         </is>
       </c>
-      <c r="S33" t="inlineStr">
+      <c r="AN33" t="inlineStr">
         <is>
           <t>Eubanks</t>
         </is>
       </c>
-      <c r="T33" t="inlineStr">
+      <c r="AO33" t="inlineStr">
         <is>
           <t>29 Stadium</t>
         </is>
       </c>
-      <c r="U33" t="inlineStr">
+      <c r="AP33" t="inlineStr">
         <is>
           <t>Dulce</t>
         </is>
       </c>
-      <c r="V33" t="inlineStr">
+      <c r="AQ33" t="inlineStr">
         <is>
           <t>NM</t>
         </is>
       </c>
-      <c r="W33" t="n">
+      <c r="AR33" t="n">
         <v>87528</v>
       </c>
-      <c r="X33" t="inlineStr">
+      <c r="AS33" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="Y33" t="n">
+      <c r="AT33" t="n">
         <v>6625284518</v>
       </c>
-      <c r="Z33" t="n">
+      <c r="AU33" t="n">
         <v>587179514</v>
       </c>
-      <c r="AA33" s="2" t="n">
+      <c r="AV33" s="2" t="n">
         <v>22107</v>
       </c>
-      <c r="AB33" t="n">
+      <c r="AW33" t="n">
         <v>4800</v>
       </c>
-      <c r="AC33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD33" t="n">
+      <c r="AX33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY33" t="n">
         <v>4800</v>
       </c>
-      <c r="AE33" t="n">
+      <c r="AZ33" t="n">
         <v>297.6</v>
       </c>
-      <c r="AF33" t="n">
+      <c r="BA33" t="n">
         <v>4800</v>
       </c>
-      <c r="AG33" t="n">
+      <c r="BB33" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="AH33" t="inlineStr">
+      <c r="BC33" t="inlineStr">
         <is>
           <t>New Mexico</t>
         </is>
       </c>
-      <c r="AI33" t="n">
+      <c r="BD33" t="n">
         <v>4800</v>
       </c>
-      <c r="AJ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK33" t="inlineStr"/>
-      <c r="AL33" t="inlineStr"/>
+      <c r="BE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF33" t="inlineStr"/>
+      <c r="BG33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -5001,94 +7138,157 @@
       <c r="N34" t="n">
         <v>32</v>
       </c>
-      <c r="O34" t="inlineStr">
+      <c r="O34" t="n">
+        <v>32</v>
+      </c>
+      <c r="P34" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>32</v>
+      </c>
+      <c r="R34" t="n">
+        <v>32</v>
+      </c>
+      <c r="S34" t="n">
+        <v>32</v>
+      </c>
+      <c r="T34" t="n">
+        <v>32</v>
+      </c>
+      <c r="U34" t="n">
+        <v>32</v>
+      </c>
+      <c r="V34" t="n">
+        <v>32</v>
+      </c>
+      <c r="W34" t="n">
+        <v>32</v>
+      </c>
+      <c r="X34" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>32</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ34" t="inlineStr">
         <is>
           <t>cqpgwjavf@hotmail.com----EfRx7mDEs</t>
         </is>
       </c>
-      <c r="P34" t="inlineStr">
+      <c r="AK34" t="inlineStr">
         <is>
           <t>cqpgwjavf</t>
         </is>
       </c>
-      <c r="Q34" t="inlineStr">
+      <c r="AL34" t="inlineStr">
         <is>
           <t>UpJDXLT88aB!</t>
         </is>
       </c>
-      <c r="R34" t="inlineStr">
+      <c r="AM34" t="inlineStr">
         <is>
           <t>Charles</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr">
+      <c r="AN34" t="inlineStr">
         <is>
           <t>Field</t>
         </is>
       </c>
-      <c r="T34" t="inlineStr">
+      <c r="AO34" t="inlineStr">
         <is>
           <t>7950 N Rainbow Bl Apt 1204</t>
         </is>
       </c>
-      <c r="U34" t="inlineStr">
+      <c r="AP34" t="inlineStr">
         <is>
           <t>Las Vegas</t>
         </is>
       </c>
-      <c r="V34" t="inlineStr">
+      <c r="AQ34" t="inlineStr">
         <is>
           <t>NM</t>
         </is>
       </c>
-      <c r="W34" t="n">
+      <c r="AR34" t="n">
         <v>89108</v>
       </c>
-      <c r="X34" t="inlineStr">
+      <c r="AS34" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="Y34" t="n">
+      <c r="AT34" t="n">
         <v>7022805588</v>
       </c>
-      <c r="Z34" t="n">
+      <c r="AU34" t="n">
         <v>233629561</v>
       </c>
-      <c r="AA34" s="2" t="n">
+      <c r="AV34" s="2" t="n">
         <v>15215</v>
       </c>
-      <c r="AB34" t="n">
+      <c r="AW34" t="n">
         <v>4800</v>
       </c>
-      <c r="AC34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD34" t="n">
+      <c r="AX34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY34" t="n">
         <v>4800</v>
       </c>
-      <c r="AE34" t="n">
+      <c r="AZ34" t="n">
         <v>297.6</v>
       </c>
-      <c r="AF34" t="n">
+      <c r="BA34" t="n">
         <v>4800</v>
       </c>
-      <c r="AG34" t="n">
+      <c r="BB34" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="AH34" t="inlineStr">
+      <c r="BC34" t="inlineStr">
         <is>
           <t>New Mexico</t>
         </is>
       </c>
-      <c r="AI34" t="n">
+      <c r="BD34" t="n">
         <v>4800</v>
       </c>
-      <c r="AJ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK34" t="inlineStr"/>
-      <c r="AL34" t="inlineStr"/>
+      <c r="BE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF34" t="inlineStr"/>
+      <c r="BG34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -5133,94 +7333,157 @@
       <c r="N35" t="n">
         <v>33</v>
       </c>
-      <c r="O35" t="inlineStr">
+      <c r="O35" t="n">
+        <v>33</v>
+      </c>
+      <c r="P35" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>33</v>
+      </c>
+      <c r="R35" t="n">
+        <v>33</v>
+      </c>
+      <c r="S35" t="n">
+        <v>33</v>
+      </c>
+      <c r="T35" t="n">
+        <v>33</v>
+      </c>
+      <c r="U35" t="n">
+        <v>33</v>
+      </c>
+      <c r="V35" t="n">
+        <v>33</v>
+      </c>
+      <c r="W35" t="n">
+        <v>33</v>
+      </c>
+      <c r="X35" t="n">
+        <v>33</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>33</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>33</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>33</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>33</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>33</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>33</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>33</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>33</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>33</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>33</v>
+      </c>
+      <c r="AJ35" t="inlineStr">
         <is>
           <t>bafgbthme@hotmail.com----UC554QhVr</t>
         </is>
       </c>
-      <c r="P35" t="inlineStr">
+      <c r="AK35" t="inlineStr">
         <is>
           <t>bafgbthme</t>
         </is>
       </c>
-      <c r="Q35" t="inlineStr">
+      <c r="AL35" t="inlineStr">
         <is>
           <t>5RLY5JxN5aB!</t>
         </is>
       </c>
-      <c r="R35" t="inlineStr">
+      <c r="AM35" t="inlineStr">
         <is>
           <t>rhonda</t>
         </is>
       </c>
-      <c r="S35" t="inlineStr">
+      <c r="AN35" t="inlineStr">
         <is>
           <t>pinkerton</t>
         </is>
       </c>
-      <c r="T35" t="inlineStr">
+      <c r="AO35" t="inlineStr">
         <is>
           <t>2712 w menefee</t>
         </is>
       </c>
-      <c r="U35" t="inlineStr">
+      <c r="AP35" t="inlineStr">
         <is>
           <t>artesiaArtesia</t>
         </is>
       </c>
-      <c r="V35" t="inlineStr">
+      <c r="AQ35" t="inlineStr">
         <is>
           <t>NM</t>
         </is>
       </c>
-      <c r="W35" t="n">
+      <c r="AR35" t="n">
         <v>88210</v>
       </c>
-      <c r="X35" t="inlineStr">
+      <c r="AS35" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="Y35" t="n">
+      <c r="AT35" t="n">
         <v>7024014318</v>
       </c>
-      <c r="Z35" t="n">
+      <c r="AU35" t="n">
         <v>358528005</v>
       </c>
-      <c r="AA35" s="2" t="n">
+      <c r="AV35" s="2" t="n">
         <v>21992</v>
       </c>
-      <c r="AB35" t="n">
+      <c r="AW35" t="n">
         <v>4800</v>
       </c>
-      <c r="AC35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD35" t="n">
+      <c r="AX35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY35" t="n">
         <v>4800</v>
       </c>
-      <c r="AE35" t="n">
+      <c r="AZ35" t="n">
         <v>297.6</v>
       </c>
-      <c r="AF35" t="n">
+      <c r="BA35" t="n">
         <v>4800</v>
       </c>
-      <c r="AG35" t="n">
+      <c r="BB35" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="AH35" t="inlineStr">
+      <c r="BC35" t="inlineStr">
         <is>
           <t>New Mexico</t>
         </is>
       </c>
-      <c r="AI35" t="n">
+      <c r="BD35" t="n">
         <v>4800</v>
       </c>
-      <c r="AJ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK35" t="inlineStr"/>
-      <c r="AL35" t="inlineStr"/>
+      <c r="BE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF35" t="inlineStr"/>
+      <c r="BG35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -5265,94 +7528,157 @@
       <c r="N36" t="n">
         <v>34</v>
       </c>
-      <c r="O36" t="inlineStr">
+      <c r="O36" t="n">
+        <v>34</v>
+      </c>
+      <c r="P36" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>34</v>
+      </c>
+      <c r="R36" t="n">
+        <v>34</v>
+      </c>
+      <c r="S36" t="n">
+        <v>34</v>
+      </c>
+      <c r="T36" t="n">
+        <v>34</v>
+      </c>
+      <c r="U36" t="n">
+        <v>34</v>
+      </c>
+      <c r="V36" t="n">
+        <v>34</v>
+      </c>
+      <c r="W36" t="n">
+        <v>34</v>
+      </c>
+      <c r="X36" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ36" t="inlineStr">
         <is>
           <t>ckjpatwkfh@hotmail.com----MWSb5nWF</t>
         </is>
       </c>
-      <c r="P36" t="inlineStr">
+      <c r="AK36" t="inlineStr">
         <is>
           <t>ckjpatwkfh</t>
         </is>
       </c>
-      <c r="Q36" t="inlineStr">
+      <c r="AL36" t="inlineStr">
         <is>
           <t>v55SdtnF55aB!</t>
         </is>
       </c>
-      <c r="R36" t="inlineStr">
+      <c r="AM36" t="inlineStr">
         <is>
           <t>Wendy</t>
         </is>
       </c>
-      <c r="S36" t="inlineStr">
+      <c r="AN36" t="inlineStr">
         <is>
           <t>Phelps</t>
         </is>
       </c>
-      <c r="T36" t="inlineStr">
+      <c r="AO36" t="inlineStr">
         <is>
           <t>724 Cordova Pl Nw</t>
         </is>
       </c>
-      <c r="U36" t="inlineStr">
+      <c r="AP36" t="inlineStr">
         <is>
           <t>Albuquerque</t>
         </is>
       </c>
-      <c r="V36" t="inlineStr">
+      <c r="AQ36" t="inlineStr">
         <is>
           <t>NM</t>
         </is>
       </c>
-      <c r="W36" t="n">
+      <c r="AR36" t="n">
         <v>87107</v>
       </c>
-      <c r="X36" t="inlineStr">
+      <c r="AS36" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="Y36" t="n">
+      <c r="AT36" t="n">
         <v>7024605469</v>
       </c>
-      <c r="Z36" t="n">
+      <c r="AU36" t="n">
         <v>335448558</v>
       </c>
-      <c r="AA36" s="2" t="n">
+      <c r="AV36" s="2" t="n">
         <v>19150</v>
       </c>
-      <c r="AB36" t="n">
+      <c r="AW36" t="n">
         <v>4800</v>
       </c>
-      <c r="AC36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD36" t="n">
+      <c r="AX36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY36" t="n">
         <v>4800</v>
       </c>
-      <c r="AE36" t="n">
+      <c r="AZ36" t="n">
         <v>297.6</v>
       </c>
-      <c r="AF36" t="n">
+      <c r="BA36" t="n">
         <v>4800</v>
       </c>
-      <c r="AG36" t="n">
+      <c r="BB36" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="AH36" t="inlineStr">
+      <c r="BC36" t="inlineStr">
         <is>
           <t>New Mexico</t>
         </is>
       </c>
-      <c r="AI36" t="n">
+      <c r="BD36" t="n">
         <v>4800</v>
       </c>
-      <c r="AJ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK36" t="inlineStr"/>
-      <c r="AL36" t="inlineStr"/>
+      <c r="BE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF36" t="inlineStr"/>
+      <c r="BG36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -5397,94 +7723,157 @@
       <c r="N37" t="n">
         <v>35</v>
       </c>
-      <c r="O37" t="inlineStr">
+      <c r="O37" t="n">
+        <v>35</v>
+      </c>
+      <c r="P37" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>35</v>
+      </c>
+      <c r="R37" t="n">
+        <v>35</v>
+      </c>
+      <c r="S37" t="n">
+        <v>35</v>
+      </c>
+      <c r="T37" t="n">
+        <v>35</v>
+      </c>
+      <c r="U37" t="n">
+        <v>35</v>
+      </c>
+      <c r="V37" t="n">
+        <v>35</v>
+      </c>
+      <c r="W37" t="n">
+        <v>35</v>
+      </c>
+      <c r="X37" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>35</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>35</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>35</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>35</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>35</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ37" t="inlineStr">
         <is>
           <t>jfawtuahe@hotmail.com----V7SFR8rT</t>
         </is>
       </c>
-      <c r="P37" t="inlineStr">
+      <c r="AK37" t="inlineStr">
         <is>
           <t>jfawtuahe</t>
         </is>
       </c>
-      <c r="Q37" t="inlineStr">
+      <c r="AL37" t="inlineStr">
         <is>
           <t>F61SmWJD61aB!</t>
         </is>
       </c>
-      <c r="R37" t="inlineStr">
+      <c r="AM37" t="inlineStr">
         <is>
           <t>Sheree</t>
         </is>
       </c>
-      <c r="S37" t="inlineStr">
+      <c r="AN37" t="inlineStr">
         <is>
           <t>Price</t>
         </is>
       </c>
-      <c r="T37" t="inlineStr">
+      <c r="AO37" t="inlineStr">
         <is>
           <t>20 CO. RD. 5415</t>
         </is>
       </c>
-      <c r="U37" t="inlineStr">
+      <c r="AP37" t="inlineStr">
         <is>
           <t>BLOOMFIELD</t>
         </is>
       </c>
-      <c r="V37" t="inlineStr">
+      <c r="AQ37" t="inlineStr">
         <is>
           <t>NM</t>
         </is>
       </c>
-      <c r="W37" t="n">
+      <c r="AR37" t="n">
         <v>87413</v>
       </c>
-      <c r="X37" t="inlineStr">
+      <c r="AS37" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="Y37" t="n">
+      <c r="AT37" t="n">
         <v>7196804376</v>
       </c>
-      <c r="Z37" t="n">
+      <c r="AU37" t="n">
         <v>526255989</v>
       </c>
-      <c r="AA37" s="2" t="n">
+      <c r="AV37" s="2" t="n">
         <v>21104</v>
       </c>
-      <c r="AB37" t="n">
+      <c r="AW37" t="n">
         <v>4800</v>
       </c>
-      <c r="AC37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD37" t="n">
+      <c r="AX37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY37" t="n">
         <v>4800</v>
       </c>
-      <c r="AE37" t="n">
+      <c r="AZ37" t="n">
         <v>297.6</v>
       </c>
-      <c r="AF37" t="n">
+      <c r="BA37" t="n">
         <v>4800</v>
       </c>
-      <c r="AG37" t="n">
+      <c r="BB37" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="AH37" t="inlineStr">
+      <c r="BC37" t="inlineStr">
         <is>
           <t>New Mexico</t>
         </is>
       </c>
-      <c r="AI37" t="n">
+      <c r="BD37" t="n">
         <v>4800</v>
       </c>
-      <c r="AJ37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK37" t="inlineStr"/>
-      <c r="AL37" t="inlineStr"/>
+      <c r="BE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF37" t="inlineStr"/>
+      <c r="BG37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -5529,94 +7918,157 @@
       <c r="N38" t="n">
         <v>36</v>
       </c>
-      <c r="O38" t="inlineStr">
+      <c r="O38" t="n">
+        <v>36</v>
+      </c>
+      <c r="P38" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>36</v>
+      </c>
+      <c r="R38" t="n">
+        <v>36</v>
+      </c>
+      <c r="S38" t="n">
+        <v>36</v>
+      </c>
+      <c r="T38" t="n">
+        <v>36</v>
+      </c>
+      <c r="U38" t="n">
+        <v>36</v>
+      </c>
+      <c r="V38" t="n">
+        <v>36</v>
+      </c>
+      <c r="W38" t="n">
+        <v>36</v>
+      </c>
+      <c r="X38" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>36</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>36</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>36</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ38" t="inlineStr">
         <is>
           <t>skdeqq@hotmail.com----tE5DwUFyb5G</t>
         </is>
       </c>
-      <c r="P38" t="inlineStr">
+      <c r="AK38" t="inlineStr">
         <is>
           <t>skdeqq</t>
         </is>
       </c>
-      <c r="Q38" t="inlineStr">
+      <c r="AL38" t="inlineStr">
         <is>
           <t>uExRQeSqnQV4!!</t>
         </is>
       </c>
-      <c r="R38" t="inlineStr">
+      <c r="AM38" t="inlineStr">
         <is>
           <t>johnny</t>
         </is>
       </c>
-      <c r="S38" t="inlineStr">
+      <c r="AN38" t="inlineStr">
         <is>
           <t>lewis</t>
         </is>
       </c>
-      <c r="T38" t="inlineStr">
+      <c r="AO38" t="inlineStr">
         <is>
           <t>7905Southerns.e</t>
         </is>
       </c>
-      <c r="U38" t="inlineStr">
+      <c r="AP38" t="inlineStr">
         <is>
           <t>albuqurrque</t>
         </is>
       </c>
-      <c r="V38" t="inlineStr">
+      <c r="AQ38" t="inlineStr">
         <is>
           <t>NM</t>
         </is>
       </c>
-      <c r="W38" t="n">
+      <c r="AR38" t="n">
         <v>87108</v>
       </c>
-      <c r="X38" t="inlineStr">
+      <c r="AS38" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="Y38" t="n">
+      <c r="AT38" t="n">
         <v>7202151215</v>
       </c>
-      <c r="Z38" t="n">
+      <c r="AU38" t="n">
         <v>585608513</v>
       </c>
-      <c r="AA38" s="2" t="n">
+      <c r="AV38" s="2" t="n">
         <v>20913</v>
       </c>
-      <c r="AB38" t="n">
+      <c r="AW38" t="n">
         <v>4800</v>
       </c>
-      <c r="AC38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD38" t="n">
+      <c r="AX38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY38" t="n">
         <v>4800</v>
       </c>
-      <c r="AE38" t="n">
+      <c r="AZ38" t="n">
         <v>297.6</v>
       </c>
-      <c r="AF38" t="n">
+      <c r="BA38" t="n">
         <v>4800</v>
       </c>
-      <c r="AG38" t="n">
+      <c r="BB38" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="AH38" t="inlineStr">
+      <c r="BC38" t="inlineStr">
         <is>
           <t>New Mexico</t>
         </is>
       </c>
-      <c r="AI38" t="n">
+      <c r="BD38" t="n">
         <v>4800</v>
       </c>
-      <c r="AJ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK38" t="inlineStr"/>
-      <c r="AL38" t="inlineStr"/>
+      <c r="BE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF38" t="inlineStr"/>
+      <c r="BG38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -5661,94 +8113,157 @@
       <c r="N39" t="n">
         <v>37</v>
       </c>
-      <c r="O39" t="inlineStr">
+      <c r="O39" t="n">
+        <v>37</v>
+      </c>
+      <c r="P39" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>37</v>
+      </c>
+      <c r="R39" t="n">
+        <v>37</v>
+      </c>
+      <c r="S39" t="n">
+        <v>37</v>
+      </c>
+      <c r="T39" t="n">
+        <v>37</v>
+      </c>
+      <c r="U39" t="n">
+        <v>37</v>
+      </c>
+      <c r="V39" t="n">
+        <v>37</v>
+      </c>
+      <c r="W39" t="n">
+        <v>37</v>
+      </c>
+      <c r="X39" t="n">
+        <v>37</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>37</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>37</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>37</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>37</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>37</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>37</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>37</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ39" t="inlineStr">
         <is>
           <t>gxdyfsf@hotmail.com----AeJbtXwaS8</t>
         </is>
       </c>
-      <c r="P39" t="inlineStr">
+      <c r="AK39" t="inlineStr">
         <is>
           <t>gxdyfsf</t>
         </is>
       </c>
-      <c r="Q39" t="inlineStr">
+      <c r="AL39" t="inlineStr">
         <is>
           <t>M2C1KM3b3aB!</t>
         </is>
       </c>
-      <c r="R39" t="inlineStr">
+      <c r="AM39" t="inlineStr">
         <is>
           <t>JAYNE</t>
         </is>
       </c>
-      <c r="S39" t="inlineStr">
+      <c r="AN39" t="inlineStr">
         <is>
           <t>LONG</t>
         </is>
       </c>
-      <c r="T39" t="inlineStr">
+      <c r="AO39" t="inlineStr">
         <is>
           <t>3207 BLUE HILL</t>
         </is>
       </c>
-      <c r="U39" t="inlineStr">
+      <c r="AP39" t="inlineStr">
         <is>
           <t>Gallup</t>
         </is>
       </c>
-      <c r="V39" t="inlineStr">
+      <c r="AQ39" t="inlineStr">
         <is>
           <t>NM</t>
         </is>
       </c>
-      <c r="W39" t="n">
+      <c r="AR39" t="n">
         <v>87301</v>
       </c>
-      <c r="X39" t="inlineStr">
+      <c r="AS39" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="Y39" t="n">
+      <c r="AT39" t="n">
         <v>7732308558</v>
       </c>
-      <c r="Z39" t="n">
+      <c r="AU39" t="n">
         <v>529700346</v>
       </c>
-      <c r="AA39" s="2" t="n">
+      <c r="AV39" s="2" t="n">
         <v>18615</v>
       </c>
-      <c r="AB39" t="n">
+      <c r="AW39" t="n">
         <v>4800</v>
       </c>
-      <c r="AC39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD39" t="n">
+      <c r="AX39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY39" t="n">
         <v>4800</v>
       </c>
-      <c r="AE39" t="n">
+      <c r="AZ39" t="n">
         <v>297.6</v>
       </c>
-      <c r="AF39" t="n">
+      <c r="BA39" t="n">
         <v>4800</v>
       </c>
-      <c r="AG39" t="n">
+      <c r="BB39" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="AH39" t="inlineStr">
+      <c r="BC39" t="inlineStr">
         <is>
           <t>New Mexico</t>
         </is>
       </c>
-      <c r="AI39" t="n">
+      <c r="BD39" t="n">
         <v>4800</v>
       </c>
-      <c r="AJ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK39" t="inlineStr"/>
-      <c r="AL39" t="inlineStr"/>
+      <c r="BE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF39" t="inlineStr"/>
+      <c r="BG39" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
